--- a/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_MA abril 7.xlsx
+++ b/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_MA abril 7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/macuna_worldbank_org/Documents/Venezuela/ENCOVI/2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb550905\Github\VEN\data_management\management\2. harmonization\ENCOVI harmonization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{439BB2CF-CA98-484F-BC61-DFADB7312308}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B2B093E7-ECD7-48CC-A0EE-BBF2385FFA55}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6156A47-390C-4690-A60E-E94DFA5D61A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8592" yWindow="8076" windowWidth="17280" windowHeight="8964" tabRatio="805" firstSheet="7" activeTab="7" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="805" firstSheet="2" activeTab="6" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Control_entrevista" sheetId="4" r:id="rId1"/>
@@ -2375,9 +2375,6 @@
     <t>razon_no_trabajo</t>
   </si>
   <si>
-    <t>Cuál es la razón principal por la que no trabajó la semana pasada?</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 = Estaba enfermo
 			2 = Vacaciones
 			3 = Permiso
@@ -2413,9 +2410,6 @@
   </si>
   <si>
     <t>sueldo_semana</t>
-  </si>
-  <si>
-    <t>Durante la semana pasada recibió sueldo o ganancias?</t>
   </si>
   <si>
     <t>tmhp42 (no es exactamente igual, refiere al mes pasado): ¿CUÁNTO RECIBIÓ… EN TOTAL DURANTE EL MES PASADO POR EL TRABAJO REALIZADO?
@@ -5240,6 +5234,14 @@
   </si>
   <si>
     <t>Recibió el mes pasado ingresos por alguno de los siguientes conceptos y cuánto? Petro</t>
+  </si>
+  <si>
+    <t>Durante la semana pasada recibió sueldo o ganancias? 
+(solo para los que s9q3 / trabajo_independiente==1)</t>
+  </si>
+  <si>
+    <t>Cuál es la razón principal por la que no trabajó la semana pasada?
+(solo para los que s9q3 / trabajo_independiente==1)</t>
   </si>
 </sst>
 </file>
@@ -6003,78 +6005,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6104,9 +6034,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -6154,6 +6081,81 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6492,12 +6494,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="171">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -6743,10 +6745,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="71" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C15" s="71" t="s">
         <v>168</v>
@@ -6968,10 +6970,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="71" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B30" s="71" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C30" s="71"/>
       <c r="D30" s="71"/>
@@ -7089,12 +7091,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="171">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -7339,12 +7341,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="171">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -7374,24 +7376,24 @@
       <c r="D2" s="61" t="s">
         <v>383</v>
       </c>
-      <c r="E2" s="163" t="s">
-        <v>846</v>
-      </c>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
+      <c r="E2" s="191" t="s">
+        <v>844</v>
+      </c>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
       <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:10" s="52" customFormat="1" ht="28.8">
       <c r="A3" s="62" t="s">
+        <v>845</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>846</v>
+      </c>
+      <c r="C3" s="63" t="s">
         <v>847</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>848</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>849</v>
       </c>
       <c r="D3" s="64"/>
       <c r="E3" s="65" t="s">
@@ -7413,13 +7415,13 @@
     </row>
     <row r="4" spans="1:10" s="52" customFormat="1" ht="28.8">
       <c r="A4" s="62" t="s">
+        <v>848</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>849</v>
+      </c>
+      <c r="C4" s="63" t="s">
         <v>850</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>851</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>852</v>
       </c>
       <c r="D4" s="64"/>
       <c r="E4" s="65" t="s">
@@ -7441,22 +7443,22 @@
     </row>
     <row r="5" spans="1:10" s="52" customFormat="1" ht="40.799999999999997">
       <c r="A5" s="62" t="s">
+        <v>851</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>852</v>
+      </c>
+      <c r="C5" s="63" t="s">
         <v>853</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="D5" s="64" t="s">
         <v>854</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="E5" s="66" t="s">
         <v>855</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="F5" s="65" t="s">
         <v>856</v>
-      </c>
-      <c r="E5" s="66" t="s">
-        <v>857</v>
-      </c>
-      <c r="F5" s="65" t="s">
-        <v>858</v>
       </c>
       <c r="G5" s="65" t="s">
         <v>445</v>
@@ -7471,22 +7473,22 @@
     </row>
     <row r="6" spans="1:10" s="52" customFormat="1" ht="81.599999999999994">
       <c r="A6" s="62" t="s">
+        <v>857</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>858</v>
+      </c>
+      <c r="C6" s="63" t="s">
         <v>859</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="D6" s="64" t="s">
         <v>860</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="E6" s="66" t="s">
         <v>861</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="F6" s="65" t="s">
         <v>862</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>863</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>864</v>
       </c>
       <c r="G6" s="65" t="s">
         <v>445</v>
@@ -7501,13 +7503,13 @@
     </row>
     <row r="7" spans="1:10" s="52" customFormat="1">
       <c r="A7" s="62" t="s">
+        <v>863</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>864</v>
+      </c>
+      <c r="C7" s="63" t="s">
         <v>865</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>866</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>867</v>
       </c>
       <c r="D7" s="64"/>
       <c r="E7" s="65" t="s">
@@ -7529,13 +7531,13 @@
     </row>
     <row r="8" spans="1:10" s="52" customFormat="1" ht="28.8">
       <c r="A8" s="62" t="s">
+        <v>866</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>867</v>
+      </c>
+      <c r="C8" s="63" t="s">
         <v>868</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>869</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>870</v>
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="65" t="s">
@@ -7557,13 +7559,13 @@
     </row>
     <row r="9" spans="1:10" s="52" customFormat="1" ht="72">
       <c r="A9" s="62" t="s">
+        <v>869</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>870</v>
+      </c>
+      <c r="C9" s="63" t="s">
         <v>871</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>872</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>873</v>
       </c>
       <c r="D9" s="64" t="s">
         <v>477</v>
@@ -7587,20 +7589,20 @@
     </row>
     <row r="10" spans="1:10" s="52" customFormat="1" ht="30.6">
       <c r="A10" s="62" t="s">
+        <v>872</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>873</v>
+      </c>
+      <c r="C10" s="63" t="s">
         <v>874</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>875</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>876</v>
       </c>
       <c r="D10" s="64"/>
       <c r="E10" s="66" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F10" s="65" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G10" s="65" t="s">
         <v>445</v>
@@ -7615,22 +7617,22 @@
     </row>
     <row r="11" spans="1:10" s="52" customFormat="1" ht="72">
       <c r="A11" s="62" t="s">
+        <v>877</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>878</v>
+      </c>
+      <c r="C11" s="63" t="s">
         <v>879</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>880</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>881</v>
       </c>
       <c r="D11" s="64" t="s">
         <v>477</v>
       </c>
       <c r="E11" s="66" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F11" s="65" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G11" s="65" t="s">
         <v>445</v>
@@ -7644,20 +7646,20 @@
     </row>
     <row r="12" spans="1:10" s="52" customFormat="1" ht="40.799999999999997">
       <c r="A12" s="62" t="s">
+        <v>880</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>881</v>
+      </c>
+      <c r="C12" s="63" t="s">
         <v>882</v>
-      </c>
-      <c r="B12" s="62" t="s">
-        <v>883</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>884</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="66" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G12" s="65" t="s">
         <v>445</v>
@@ -8121,12 +8123,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="171">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -8154,7 +8156,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
@@ -8164,15 +8166,15 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="69" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B3" s="69"/>
       <c r="C3" s="69" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D3" s="69"/>
       <c r="E3" s="71" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F3" s="71"/>
       <c r="G3" s="142"/>
@@ -8181,20 +8183,20 @@
     </row>
     <row r="4" spans="1:9" ht="28.8">
       <c r="A4" s="69" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B4" s="69"/>
       <c r="C4" s="69" t="s">
+        <v>731</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>732</v>
+      </c>
+      <c r="E4" s="69" t="s">
         <v>733</v>
       </c>
-      <c r="D4" s="64" t="s">
-        <v>734</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>735</v>
-      </c>
       <c r="F4" s="71" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G4" s="142"/>
       <c r="H4" s="142"/>
@@ -8202,18 +8204,18 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="69" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B5" s="69"/>
       <c r="C5" s="69" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D5" s="69"/>
       <c r="E5" s="71" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F5" s="71" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G5" s="142"/>
       <c r="H5" s="142"/>
@@ -8221,18 +8223,18 @@
     </row>
     <row r="6" spans="1:9" ht="87" customHeight="1">
       <c r="A6" s="69" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B6" s="69"/>
       <c r="C6" s="64" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D6" s="69"/>
       <c r="E6" s="69" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="G6" s="142"/>
       <c r="H6" s="142"/>
@@ -8240,15 +8242,15 @@
     </row>
     <row r="7" spans="1:9" ht="28.8">
       <c r="A7" s="69" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B7" s="69"/>
       <c r="C7" s="64" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D7" s="69"/>
       <c r="E7" s="71" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="142"/>
@@ -8257,17 +8259,17 @@
     </row>
     <row r="8" spans="1:9" ht="28.8">
       <c r="A8" s="69" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B8" s="69"/>
       <c r="C8" s="69" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F8" s="71"/>
       <c r="G8" s="142"/>
@@ -8276,14 +8278,14 @@
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="180" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -8293,11 +8295,11 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="71" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B10" s="71"/>
       <c r="C10" s="71" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D10" s="71"/>
       <c r="E10" s="71"/>
@@ -8308,14 +8310,14 @@
     </row>
     <row r="11" spans="1:9" ht="172.8">
       <c r="A11" s="69" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B11" s="69"/>
       <c r="C11" s="64" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
@@ -8325,14 +8327,14 @@
     </row>
     <row r="12" spans="1:9" ht="201.6">
       <c r="A12" s="69" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B12" s="69"/>
       <c r="C12" s="64" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
@@ -8342,11 +8344,11 @@
     </row>
     <row r="13" spans="1:9" ht="43.2">
       <c r="A13" s="69" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B13" s="71"/>
       <c r="C13" s="72" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D13" s="71"/>
       <c r="E13" s="71"/>
@@ -8357,14 +8359,14 @@
     </row>
     <row r="14" spans="1:9" ht="43.2">
       <c r="A14" s="69" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B14" s="71"/>
       <c r="C14" s="72" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
@@ -8374,11 +8376,11 @@
     </row>
     <row r="15" spans="1:9" ht="43.2">
       <c r="A15" s="69" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B15" s="71"/>
       <c r="C15" s="72" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D15" s="71"/>
       <c r="E15" s="71"/>
@@ -8389,11 +8391,11 @@
     </row>
     <row r="16" spans="1:9" ht="43.2">
       <c r="A16" s="69" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B16" s="71"/>
       <c r="C16" s="72" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D16" s="71"/>
       <c r="E16" s="71"/>
@@ -8404,11 +8406,11 @@
     </row>
     <row r="17" spans="1:9" ht="43.2">
       <c r="A17" s="69" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B17" s="71"/>
       <c r="C17" s="72" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D17" s="71"/>
       <c r="E17" s="71"/>
@@ -8419,14 +8421,14 @@
     </row>
     <row r="18" spans="1:9" ht="230.4">
       <c r="A18" s="69" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B18" s="69"/>
       <c r="C18" s="64" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D18" s="64" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
@@ -8436,11 +8438,11 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="71" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B19" s="71"/>
       <c r="C19" s="71" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D19" s="71"/>
       <c r="E19" s="71"/>
@@ -8451,11 +8453,11 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="71" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B20" s="71"/>
       <c r="C20" s="72" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D20" s="71"/>
       <c r="E20" s="71"/>
@@ -8466,14 +8468,14 @@
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" ht="28.8">
       <c r="A21" s="69" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B21" s="69"/>
       <c r="C21" s="69" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D21" s="64" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E21" s="69"/>
       <c r="F21" s="69"/>
@@ -8483,14 +8485,14 @@
     </row>
     <row r="22" spans="1:9" ht="86.4">
       <c r="A22" s="69" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B22" s="69"/>
       <c r="C22" s="64" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D22" s="64" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
@@ -8500,17 +8502,17 @@
     </row>
     <row r="23" spans="1:9" ht="187.2">
       <c r="A23" s="69" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B23" s="69"/>
       <c r="C23" s="64" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F23" s="71"/>
       <c r="G23" s="142"/>
@@ -8519,11 +8521,11 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="71" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B24" s="71"/>
       <c r="C24" s="71" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D24" s="71"/>
       <c r="E24" s="71"/>
@@ -8534,14 +8536,14 @@
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" ht="374.55" customHeight="1">
       <c r="A25" s="69" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B25" s="69"/>
       <c r="C25" s="64" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E25" s="69"/>
       <c r="F25" s="69"/>
@@ -8551,14 +8553,14 @@
     </row>
     <row r="26" spans="1:9" ht="379.05" customHeight="1">
       <c r="A26" s="64" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B26" s="64"/>
       <c r="C26" s="64" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E26" s="71"/>
       <c r="F26" s="71"/>
@@ -8568,14 +8570,14 @@
     </row>
     <row r="27" spans="1:9" ht="43.2">
       <c r="A27" s="64" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B27" s="71"/>
       <c r="C27" s="72" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E27" s="71"/>
       <c r="F27" s="71"/>
@@ -8585,11 +8587,11 @@
     </row>
     <row r="28" spans="1:9" ht="28.8">
       <c r="A28" s="64" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B28" s="71"/>
       <c r="C28" s="64" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="71"/>
@@ -8600,14 +8602,14 @@
     </row>
     <row r="29" spans="1:9" ht="172.8">
       <c r="A29" s="64" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B29" s="71"/>
       <c r="C29" s="64" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D29" s="72" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E29" s="71"/>
       <c r="F29" s="71"/>
@@ -8617,14 +8619,14 @@
     </row>
     <row r="30" spans="1:9" ht="43.2">
       <c r="A30" s="64" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B30" s="71"/>
       <c r="C30" s="72" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D30" s="64" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E30" s="71"/>
       <c r="F30" s="71"/>
@@ -8767,12 +8769,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="37" customFormat="1">
-      <c r="A1" s="164">
+      <c r="A1" s="192">
         <v>2019</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="165"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="193"/>
     </row>
     <row r="2" spans="1:5" s="50" customFormat="1" ht="43.2">
       <c r="A2" s="94" t="s">
@@ -8785,36 +8787,36 @@
         <v>0</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5" ht="57.6">
       <c r="A3" s="71" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B3" s="71" t="s">
         <v>1118</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="C3" s="72" t="s">
         <v>1120</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="D3" s="71" t="s">
         <v>1122</v>
-      </c>
-      <c r="D3" s="71" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="57.6">
       <c r="A4" s="71" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>1119</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="C4" s="72" t="s">
         <v>1121</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="D4" s="72" t="s">
         <v>1123</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>1125</v>
       </c>
     </row>
   </sheetData>
@@ -8848,13 +8850,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="37" customFormat="1">
-      <c r="A1" s="164">
+      <c r="A1" s="192">
         <v>2019</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="165"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="193"/>
       <c r="F1" s="60">
         <v>2018</v>
       </c>
@@ -8872,10 +8874,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="50" customFormat="1" ht="43.2">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="195" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="167"/>
+      <c r="B2" s="195"/>
       <c r="C2" s="61" t="s">
         <v>128</v>
       </c>
@@ -8883,7 +8885,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F2" s="83"/>
       <c r="G2" s="83"/>
@@ -8893,353 +8895,353 @@
       <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="72">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="194" t="s">
+        <v>890</v>
+      </c>
+      <c r="B3" s="194"/>
+      <c r="C3" s="71" t="s">
+        <v>904</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>917</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>932</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>933</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>948</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>956</v>
+      </c>
+      <c r="I3" s="87" t="s">
+        <v>957</v>
+      </c>
+      <c r="J3" s="87" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8">
+      <c r="A4" s="194" t="s">
+        <v>920</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>891</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>905</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>918</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>932</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>936</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="115.2">
+      <c r="A5" s="194"/>
+      <c r="B5" s="70" t="s">
         <v>892</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="71" t="s">
+      <c r="C5" s="70" t="s">
         <v>906</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D5" s="70" t="s">
         <v>919</v>
       </c>
-      <c r="E3" s="72" t="s">
-        <v>934</v>
-      </c>
-      <c r="F3" s="72" t="s">
-        <v>935</v>
-      </c>
-      <c r="G3" s="72" t="s">
+      <c r="E5" s="70" t="s">
+        <v>932</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>937</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>949</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="I5" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="144">
+      <c r="A6" s="194"/>
+      <c r="B6" s="70" t="s">
+        <v>893</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>907</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>921</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>932</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>938</v>
+      </c>
+      <c r="G6" s="70" t="s">
         <v>950</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H6" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="I6" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="J6" s="85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="144">
+      <c r="A7" s="194"/>
+      <c r="B7" s="70" t="s">
+        <v>894</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>908</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>922</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>932</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>939</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>950</v>
+      </c>
+      <c r="H7" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="I7" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="J7" s="85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="187.2">
+      <c r="A8" s="194"/>
+      <c r="B8" s="70" t="s">
+        <v>895</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>909</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>923</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>932</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>940</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>953</v>
+      </c>
+      <c r="H8" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="I8" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="J8" s="85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="302.39999999999998">
+      <c r="A9" s="194"/>
+      <c r="B9" s="70" t="s">
+        <v>896</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>910</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>924</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>932</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>951</v>
+      </c>
+      <c r="H9" s="85" t="s">
+        <v>955</v>
+      </c>
+      <c r="I9" s="85" t="s">
         <v>958</v>
       </c>
-      <c r="I3" s="87" t="s">
-        <v>959</v>
-      </c>
-      <c r="J3" s="87" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.8">
-      <c r="A4" s="166" t="s">
-        <v>922</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>893</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>907</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>920</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>934</v>
-      </c>
-      <c r="F4" s="70" t="s">
-        <v>938</v>
-      </c>
-      <c r="G4" s="70" t="s">
-        <v>445</v>
-      </c>
-      <c r="H4" s="70" t="s">
-        <v>445</v>
-      </c>
-      <c r="I4" s="70" t="s">
-        <v>445</v>
-      </c>
-      <c r="J4" s="70" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="115.2">
-      <c r="A5" s="166"/>
-      <c r="B5" s="70" t="s">
-        <v>894</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>908</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>921</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>934</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>939</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>951</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>445</v>
-      </c>
-      <c r="I5" s="70" t="s">
-        <v>445</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="144">
-      <c r="A6" s="166"/>
-      <c r="B6" s="70" t="s">
-        <v>895</v>
-      </c>
-      <c r="C6" s="70" t="s">
-        <v>909</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>923</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>934</v>
-      </c>
-      <c r="F6" s="70" t="s">
-        <v>940</v>
-      </c>
-      <c r="G6" s="70" t="s">
+      <c r="J9" s="85" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="82" customFormat="1" ht="259.2">
+      <c r="A10" s="194"/>
+      <c r="B10" s="86" t="s">
+        <v>897</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>911</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>925</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>932</v>
+      </c>
+      <c r="F10" s="86" t="s">
+        <v>942</v>
+      </c>
+      <c r="G10" s="86" t="s">
         <v>952</v>
       </c>
-      <c r="H6" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="I6" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="J6" s="85" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="144">
-      <c r="A7" s="166"/>
-      <c r="B7" s="70" t="s">
-        <v>896</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>910</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>924</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>934</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>941</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>952</v>
-      </c>
-      <c r="H7" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="I7" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="J7" s="85" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="187.2">
-      <c r="A8" s="166"/>
-      <c r="B8" s="70" t="s">
-        <v>897</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>911</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>925</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>934</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>942</v>
-      </c>
-      <c r="G8" s="70" t="s">
+      <c r="H10" s="85" t="s">
         <v>955</v>
       </c>
-      <c r="H8" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="I8" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="J8" s="85" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="302.39999999999998">
-      <c r="A9" s="166"/>
-      <c r="B9" s="70" t="s">
+      <c r="I10" s="85" t="s">
+        <v>958</v>
+      </c>
+      <c r="J10" s="85" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="187.2">
+      <c r="A11" s="194"/>
+      <c r="B11" s="70" t="s">
         <v>898</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C11" s="70" t="s">
         <v>912</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D11" s="70" t="s">
         <v>926</v>
       </c>
-      <c r="E9" s="70" t="s">
-        <v>934</v>
-      </c>
-      <c r="F9" s="70" t="s">
+      <c r="E11" s="70" t="s">
+        <v>932</v>
+      </c>
+      <c r="F11" s="70" t="s">
         <v>943</v>
       </c>
-      <c r="G9" s="70" t="s">
+      <c r="G11" s="70" t="s">
         <v>953</v>
       </c>
-      <c r="H9" s="85" t="s">
-        <v>957</v>
-      </c>
-      <c r="I9" s="85" t="s">
-        <v>960</v>
-      </c>
-      <c r="J9" s="85" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="82" customFormat="1" ht="259.2">
-      <c r="A10" s="166"/>
-      <c r="B10" s="86" t="s">
+      <c r="H11" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="I11" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="J11" s="85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="144">
+      <c r="A12" s="194"/>
+      <c r="B12" s="70" t="s">
         <v>899</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C12" s="70" t="s">
         <v>913</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D12" s="70" t="s">
         <v>927</v>
       </c>
-      <c r="E10" s="86" t="s">
-        <v>934</v>
-      </c>
-      <c r="F10" s="86" t="s">
+      <c r="E12" s="70" t="s">
+        <v>932</v>
+      </c>
+      <c r="F12" s="70" t="s">
         <v>944</v>
       </c>
-      <c r="G10" s="86" t="s">
+      <c r="G12" s="70" t="s">
+        <v>950</v>
+      </c>
+      <c r="H12" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="I12" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="J12" s="85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="144">
+      <c r="A13" s="194"/>
+      <c r="B13" s="70" t="s">
+        <v>900</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>914</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>928</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>932</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>945</v>
+      </c>
+      <c r="G13" s="70" t="s">
         <v>954</v>
       </c>
-      <c r="H10" s="85" t="s">
-        <v>957</v>
-      </c>
-      <c r="I10" s="85" t="s">
-        <v>960</v>
-      </c>
-      <c r="J10" s="85" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="187.2">
-      <c r="A11" s="166"/>
-      <c r="B11" s="70" t="s">
-        <v>900</v>
-      </c>
-      <c r="C11" s="70" t="s">
-        <v>914</v>
-      </c>
-      <c r="D11" s="70" t="s">
-        <v>928</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>934</v>
-      </c>
-      <c r="F11" s="70" t="s">
-        <v>945</v>
-      </c>
-      <c r="G11" s="70" t="s">
-        <v>955</v>
-      </c>
-      <c r="H11" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="I11" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="J11" s="85" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="144">
-      <c r="A12" s="166"/>
-      <c r="B12" s="70" t="s">
+      <c r="H13" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="I13" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="J13" s="85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.8">
+      <c r="A14" s="194"/>
+      <c r="B14" s="70" t="s">
         <v>901</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C14" s="70" t="s">
         <v>915</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D14" s="70" t="s">
         <v>929</v>
       </c>
-      <c r="E12" s="70" t="s">
-        <v>934</v>
-      </c>
-      <c r="F12" s="70" t="s">
+      <c r="E14" s="70" t="s">
+        <v>932</v>
+      </c>
+      <c r="F14" s="70" t="s">
         <v>946</v>
-      </c>
-      <c r="G12" s="70" t="s">
-        <v>952</v>
-      </c>
-      <c r="H12" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="I12" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="J12" s="85" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="144">
-      <c r="A13" s="166"/>
-      <c r="B13" s="70" t="s">
-        <v>902</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>916</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>930</v>
-      </c>
-      <c r="E13" s="70" t="s">
-        <v>934</v>
-      </c>
-      <c r="F13" s="70" t="s">
-        <v>947</v>
-      </c>
-      <c r="G13" s="70" t="s">
-        <v>956</v>
-      </c>
-      <c r="H13" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="I13" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="J13" s="85" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="28.8">
-      <c r="A14" s="166"/>
-      <c r="B14" s="70" t="s">
-        <v>903</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>917</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>931</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>934</v>
-      </c>
-      <c r="F14" s="70" t="s">
-        <v>948</v>
       </c>
       <c r="G14" s="70"/>
       <c r="H14" s="85" t="s">
@@ -9253,21 +9255,21 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="28.8">
-      <c r="A15" s="166"/>
+      <c r="A15" s="194"/>
       <c r="B15" s="70" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D15" s="70" t="s">
+        <v>930</v>
+      </c>
+      <c r="E15" s="70" t="s">
         <v>932</v>
       </c>
-      <c r="E15" s="70" t="s">
-        <v>934</v>
-      </c>
       <c r="F15" s="70" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="G15" s="70"/>
       <c r="H15" s="85" t="s">
@@ -9281,18 +9283,18 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="43.2">
-      <c r="A16" s="166" t="s">
-        <v>905</v>
-      </c>
-      <c r="B16" s="166"/>
+      <c r="A16" s="194" t="s">
+        <v>903</v>
+      </c>
+      <c r="B16" s="194"/>
       <c r="C16" s="70" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F16" s="70" t="s">
         <v>445</v>
@@ -9342,12 +9344,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="90" customFormat="1">
-      <c r="A1" s="153">
+      <c r="A1" s="181">
         <v>2019</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
       <c r="E1" s="84">
         <v>2018</v>
       </c>
@@ -9375,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E2" s="83"/>
       <c r="F2" s="83"/>
@@ -9386,16 +9388,16 @@
     </row>
     <row r="3" spans="1:10" ht="28.8">
       <c r="A3" s="72" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E3" s="91"/>
       <c r="F3" s="91"/>
@@ -9405,20 +9407,20 @@
     </row>
     <row r="4" spans="1:10" ht="87">
       <c r="A4" s="72" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E4" s="91"/>
       <c r="F4" s="93" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G4" s="91"/>
       <c r="H4" s="91"/>
@@ -9426,16 +9428,16 @@
     </row>
     <row r="5" spans="1:10" ht="28.8">
       <c r="A5" s="72" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D5" s="72" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E5" s="91"/>
       <c r="F5" s="92"/>
@@ -9445,16 +9447,16 @@
     </row>
     <row r="6" spans="1:10" ht="43.2">
       <c r="A6" s="72" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E6" s="91"/>
       <c r="F6" s="91"/>
@@ -9464,13 +9466,13 @@
     </row>
     <row r="7" spans="1:10" ht="28.8">
       <c r="A7" s="72" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C7" s="72" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="91"/>
@@ -9481,13 +9483,13 @@
     </row>
     <row r="8" spans="1:10" ht="28.8">
       <c r="A8" s="72" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="91"/>
@@ -9498,16 +9500,16 @@
     </row>
     <row r="9" spans="1:10" ht="28.8">
       <c r="A9" s="72" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E9" s="91"/>
       <c r="F9" s="91"/>
@@ -9517,16 +9519,16 @@
     </row>
     <row r="10" spans="1:10" ht="57.6">
       <c r="A10" s="72" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E10" s="91"/>
       <c r="F10" s="91"/>
@@ -9536,16 +9538,16 @@
     </row>
     <row r="11" spans="1:10" ht="57.6">
       <c r="A11" s="72" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E11" s="91"/>
       <c r="F11" s="91"/>
@@ -9555,16 +9557,16 @@
     </row>
     <row r="12" spans="1:10" ht="57.6">
       <c r="A12" s="72" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C12" s="72" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E12" s="91"/>
       <c r="F12" s="91"/>
@@ -9574,13 +9576,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="72" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C13" s="72" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D13" s="72"/>
       <c r="E13" s="91"/>
@@ -9591,13 +9593,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="72" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D14" s="72"/>
       <c r="E14" s="91"/>
@@ -9608,13 +9610,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="72" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="91"/>
@@ -9649,12 +9651,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="171">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -9698,7 +9700,7 @@
         <v>213</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
@@ -9715,10 +9717,10 @@
         <v>214</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E4" s="71"/>
       <c r="F4" s="71"/>
@@ -9734,7 +9736,7 @@
         <v>215</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D5" s="71"/>
       <c r="E5" s="71"/>
@@ -9751,7 +9753,7 @@
         <v>216</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D6" s="71"/>
       <c r="E6" s="71"/>
@@ -9789,12 +9791,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="171">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -9822,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
@@ -9877,13 +9879,13 @@
         <v>295</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C5" s="69" t="s">
         <v>296</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E5" s="69" t="s">
         <v>291</v>
@@ -10002,7 +10004,7 @@
       <c r="H10" s="69"/>
       <c r="I10" s="69"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="100.8">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="72">
       <c r="A11" s="69" t="s">
         <v>313</v>
       </c>
@@ -10013,7 +10015,7 @@
         <v>316</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E11" s="69"/>
       <c r="F11" s="69"/>
@@ -10032,7 +10034,7 @@
         <v>318</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E12" s="69"/>
       <c r="F12" s="69"/>
@@ -10064,13 +10066,13 @@
         <v>323</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C14" s="64" t="s">
         <v>324</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
@@ -10108,7 +10110,7 @@
         <v>329</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="64"/>
@@ -10127,7 +10129,7 @@
         <v>332</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="64"/>
@@ -10414,12 +10416,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="171">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -11265,12 +11267,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1">
-      <c r="A1" s="145">
+      <c r="A1" s="172">
         <v>2019</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -11920,12 +11922,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="37" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="171">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -11972,7 +11974,7 @@
         <v>443</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E3" s="69" t="s">
         <v>445</v>
@@ -12021,13 +12023,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="69" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D5" s="64"/>
       <c r="E5" s="69" t="s">
@@ -12057,7 +12059,7 @@
         <v>452</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E6" s="69" t="s">
         <v>445</v>
@@ -12135,13 +12137,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="69" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D9" s="64"/>
       <c r="E9" s="69" t="s">
@@ -12165,7 +12167,7 @@
         <v>461</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>462</v>
@@ -12191,13 +12193,13 @@
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="64" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B11" s="69" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C11" s="64" t="s">
         <v>1149</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>1151</v>
       </c>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
@@ -12217,7 +12219,7 @@
         <v>466</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E12" s="64" t="s">
         <v>445</v>
@@ -12331,7 +12333,7 @@
         <v>480</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E16" s="64" t="s">
         <v>445</v>
@@ -12409,13 +12411,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="69" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
@@ -12520,7 +12522,7 @@
         <v>496</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E23" s="64" t="s">
         <v>445</v>
@@ -12543,7 +12545,7 @@
         <v>497</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C24" s="69" t="s">
         <v>499</v>
@@ -12634,7 +12636,7 @@
         <v>506</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E27" s="64" t="s">
         <v>445</v>
@@ -12748,7 +12750,7 @@
         <v>515</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E31" s="64" t="s">
         <v>516</v>
@@ -12806,7 +12808,7 @@
         <v>530</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E33" s="64" t="s">
         <v>445</v>
@@ -12966,11 +12968,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DF78F7-F282-409F-A3BB-6F7024B1FD58}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -12989,12 +12991,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="146">
+      <c r="A1" s="173">
         <v>2019</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
       <c r="E1" s="59">
         <v>2018</v>
       </c>
@@ -13024,13 +13026,13 @@
       <c r="D2" s="79" t="s">
         <v>383</v>
       </c>
-      <c r="E2" s="147" t="s">
+      <c r="E2" s="174" t="s">
         <v>542</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="149"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="176"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="106.2" customHeight="1">
@@ -13053,13 +13055,13 @@
         <v>547</v>
       </c>
       <c r="G3" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="I3" s="39" t="s">
         <v>797</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>798</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>799</v>
       </c>
       <c r="J3" s="18"/>
     </row>
@@ -13083,13 +13085,13 @@
         <v>547</v>
       </c>
       <c r="G4" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="I4" s="39" t="s">
         <v>797</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>798</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>799</v>
       </c>
       <c r="J4" s="18"/>
     </row>
@@ -13113,13 +13115,13 @@
         <v>547</v>
       </c>
       <c r="G5" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="I5" s="39" t="s">
         <v>797</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>798</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>799</v>
       </c>
       <c r="J5" s="18"/>
     </row>
@@ -13131,138 +13133,138 @@
         <v>557</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>558</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="E6" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>560</v>
-      </c>
       <c r="F6" s="16" t="s">
+        <v>798</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>799</v>
+      </c>
+      <c r="H6" s="40" t="s">
         <v>800</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="I6" s="39" t="s">
         <v>801</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>802</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>803</v>
       </c>
       <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="96" customHeight="1">
       <c r="A7" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>562</v>
-      </c>
       <c r="C7" s="15" t="s">
-        <v>563</v>
+        <v>1280</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>444</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F7" s="16" t="s">
+        <v>802</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>803</v>
+      </c>
+      <c r="H7" s="39" t="s">
         <v>804</v>
       </c>
-      <c r="G7" s="39" t="s">
-        <v>805</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>806</v>
-      </c>
       <c r="I7" s="39" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="31.2" customHeight="1">
       <c r="A8" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>565</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>566</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>567</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>444</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>547</v>
       </c>
       <c r="G8" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>797</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>798</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>799</v>
       </c>
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="31.2" customHeight="1">
       <c r="A9" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>569</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>571</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>444</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>547</v>
       </c>
       <c r="G9" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="I9" s="16" t="s">
         <v>797</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>798</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="102">
       <c r="A10" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="D10" s="38" t="s">
         <v>573</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="E10" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="F10" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>577</v>
-      </c>
       <c r="G10" s="16" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="H10" s="39" t="s">
         <v>445</v>
@@ -13272,14 +13274,14 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="41.4">
-      <c r="A11" s="168" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B11" s="168" t="s">
-        <v>1162</v>
+      <c r="A11" s="144" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B11" s="144" t="s">
+        <v>1160</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>444</v>
@@ -13301,14 +13303,14 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="27.6">
-      <c r="A12" s="168" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B12" s="168" t="s">
-        <v>1163</v>
+      <c r="A12" s="144" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B12" s="144" t="s">
+        <v>1161</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>444</v>
@@ -13320,14 +13322,14 @@
       <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:10" ht="27.6">
-      <c r="A13" s="168" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B13" s="168" t="s">
-        <v>1164</v>
+      <c r="A13" s="144" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B13" s="144" t="s">
+        <v>1162</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>444</v>
@@ -13339,14 +13341,14 @@
       <c r="I13" s="39"/>
     </row>
     <row r="14" spans="1:10" ht="41.4">
-      <c r="A14" s="168" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B14" s="168" t="s">
-        <v>1165</v>
+      <c r="A14" s="144" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B14" s="144" t="s">
+        <v>1163</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D14" s="38" t="s">
         <v>444</v>
@@ -13358,14 +13360,14 @@
       <c r="I14" s="39"/>
     </row>
     <row r="15" spans="1:10" ht="41.4">
-      <c r="A15" s="168" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B15" s="168" t="s">
-        <v>1166</v>
+      <c r="A15" s="144" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B15" s="144" t="s">
+        <v>1164</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>444</v>
@@ -13377,14 +13379,14 @@
       <c r="I15" s="39"/>
     </row>
     <row r="16" spans="1:10" ht="41.4">
-      <c r="A16" s="168" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B16" s="168" t="s">
-        <v>1167</v>
+      <c r="A16" s="144" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B16" s="144" t="s">
+        <v>1165</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>444</v>
@@ -13396,14 +13398,14 @@
       <c r="I16" s="39"/>
     </row>
     <row r="17" spans="1:9" ht="27.6">
-      <c r="A17" s="168" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B17" s="168" t="s">
-        <v>1168</v>
+      <c r="A17" s="144" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B17" s="144" t="s">
+        <v>1166</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>444</v>
@@ -13415,14 +13417,14 @@
       <c r="I17" s="39"/>
     </row>
     <row r="18" spans="1:9" ht="27.6">
-      <c r="A18" s="168" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B18" s="168" t="s">
-        <v>1169</v>
+      <c r="A18" s="144" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B18" s="144" t="s">
+        <v>1167</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>444</v>
@@ -13435,13 +13437,13 @@
     </row>
     <row r="19" spans="1:9" ht="27.6">
       <c r="A19" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>578</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>580</v>
       </c>
       <c r="D19" s="38" t="s">
         <v>444</v>
@@ -13464,25 +13466,25 @@
     </row>
     <row r="20" spans="1:9" ht="91.8">
       <c r="A20" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>581</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="D20" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="E20" s="16" t="s">
         <v>583</v>
       </c>
-      <c r="D20" s="38" t="s">
-        <v>584</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>585</v>
-      </c>
       <c r="F20" s="16" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>445</v>
@@ -13493,13 +13495,13 @@
     </row>
     <row r="21" spans="1:9" ht="41.4">
       <c r="A21" s="14" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>1178</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>1180</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="16" t="s">
@@ -13520,86 +13522,86 @@
     </row>
     <row r="22" spans="1:9" ht="153">
       <c r="A22" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="D22" s="38" t="s">
         <v>587</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="E22" s="16" t="s">
         <v>588</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>589</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>590</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>547</v>
       </c>
       <c r="G22" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="I22" s="16" t="s">
         <v>797</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>798</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="142.80000000000001">
       <c r="A23" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>591</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="D23" s="41" t="s">
         <v>592</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="E23" s="21" t="s">
         <v>593</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="F23" s="42" t="s">
         <v>594</v>
       </c>
-      <c r="E23" s="21" t="s">
-        <v>595</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>596</v>
-      </c>
       <c r="G23" s="21" t="s">
+        <v>808</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>809</v>
+      </c>
+      <c r="I23" s="42" t="s">
         <v>810</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>811</v>
-      </c>
-      <c r="I23" s="42" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="224.4">
       <c r="A24" s="19" t="s">
+        <v>595</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>597</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="D24" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="E24" s="21" t="s">
         <v>599</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="F24" s="42" t="s">
         <v>600</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>601</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>602</v>
-      </c>
       <c r="G24" s="21" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="I24" s="42" t="s">
         <v>445</v>
@@ -13607,42 +13609,42 @@
     </row>
     <row r="25" spans="1:9" ht="112.2">
       <c r="A25" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>603</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="D25" s="41" t="s">
         <v>604</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="E25" s="21" t="s">
         <v>605</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="F25" s="42" t="s">
         <v>606</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>607</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>608</v>
-      </c>
       <c r="G25" s="42" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="H25" s="42" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="I25" s="42" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="41.4">
       <c r="A26" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>609</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>610</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>611</v>
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="42" t="s">
@@ -13663,13 +13665,13 @@
     </row>
     <row r="27" spans="1:9" ht="69">
       <c r="A27" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>612</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>613</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>614</v>
       </c>
       <c r="D27" s="41" t="s">
         <v>444</v>
@@ -13692,128 +13694,128 @@
     </row>
     <row r="28" spans="1:9" ht="55.2">
       <c r="A28" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>615</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>616</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>617</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="21" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="H28" s="42" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I28" s="42" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="336.6">
       <c r="A29" s="140" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B29" s="140" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F29" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>818</v>
+      </c>
+      <c r="H29" s="44" t="s">
         <v>819</v>
       </c>
-      <c r="G29" s="44" t="s">
+      <c r="I29" s="24" t="s">
         <v>820</v>
-      </c>
-      <c r="H29" s="44" t="s">
-        <v>821</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="40.799999999999997">
       <c r="A30" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>622</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>623</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>624</v>
       </c>
       <c r="D30" s="43"/>
       <c r="E30" s="24" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F30" s="24" t="s">
+        <v>821</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>822</v>
+      </c>
+      <c r="H30" s="24" t="s">
         <v>823</v>
       </c>
-      <c r="G30" s="44" t="s">
+      <c r="I30" s="24" t="s">
         <v>824</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>825</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="40.799999999999997">
       <c r="A31" s="25" t="s">
+        <v>624</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>626</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="D31" s="43" t="s">
         <v>627</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>628</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>629</v>
-      </c>
       <c r="E31" s="24" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="55.2">
       <c r="A32" s="25" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B32" s="170" t="s">
         <v>1262</v>
       </c>
-      <c r="B32" s="195" t="s">
-        <v>1264</v>
-      </c>
       <c r="C32" s="23" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -13823,13 +13825,13 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="25" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B33" s="195" t="s">
-        <v>1267</v>
+        <v>1005</v>
+      </c>
+      <c r="B33" s="170" t="s">
+        <v>1265</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D33" s="43"/>
       <c r="E33" s="24"/>
@@ -13838,47 +13840,47 @@
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:10" ht="255">
+    <row r="34" spans="1:10" ht="244.8">
       <c r="A34" s="22" t="s">
+        <v>628</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E34" s="24" t="s">
         <v>630</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>631</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>1244</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>632</v>
-      </c>
       <c r="F34" s="24" t="s">
+        <v>826</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>827</v>
+      </c>
+      <c r="H34" s="24" t="s">
         <v>828</v>
       </c>
-      <c r="G34" s="24" t="s">
-        <v>829</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>830</v>
-      </c>
       <c r="I34" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J34" s="89" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="25" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D35" s="43"/>
       <c r="E35" s="44" t="s">
@@ -13899,16 +13901,16 @@
     </row>
     <row r="36" spans="1:10" ht="20.399999999999999">
       <c r="A36" s="25" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E36" s="44" t="s">
         <v>445</v>
@@ -13928,39 +13930,39 @@
     </row>
     <row r="37" spans="1:10" ht="244.8">
       <c r="A37" s="140" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B37" s="26" t="s">
+        <v>635</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>636</v>
+      </c>
+      <c r="D37" s="43" t="s">
         <v>637</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="E37" s="24" t="s">
         <v>638</v>
       </c>
-      <c r="D37" s="43" t="s">
-        <v>639</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>640</v>
-      </c>
       <c r="F37" s="24" t="s">
+        <v>826</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>829</v>
+      </c>
+      <c r="H37" s="24" t="s">
         <v>828</v>
       </c>
-      <c r="G37" s="24" t="s">
-        <v>831</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>830</v>
-      </c>
       <c r="I37" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="25" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="43"/>
@@ -13982,14 +13984,14 @@
     </row>
     <row r="39" spans="1:10" ht="20.399999999999999">
       <c r="A39" s="25" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="43" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E39" s="44" t="s">
         <v>445</v>
@@ -14009,16 +14011,16 @@
     </row>
     <row r="40" spans="1:10" ht="193.2">
       <c r="A40" s="22" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E40" s="44" t="s">
         <v>445</v>
@@ -14038,13 +14040,13 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="25" t="s">
+        <v>645</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>646</v>
+      </c>
+      <c r="C41" s="23" t="s">
         <v>647</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>648</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>649</v>
       </c>
       <c r="D41" s="43"/>
       <c r="E41" s="44" t="s">
@@ -14063,21 +14065,21 @@
         <v>445</v>
       </c>
       <c r="J41" s="89" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="20.399999999999999">
       <c r="A42" s="25" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E42" s="44" t="s">
         <v>445</v>
@@ -14097,16 +14099,16 @@
     </row>
     <row r="43" spans="1:10" ht="41.4">
       <c r="A43" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="C43" s="23" t="s">
         <v>652</v>
       </c>
-      <c r="B43" s="22" t="s">
-        <v>653</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>654</v>
-      </c>
       <c r="D43" s="43" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="E43" s="44" t="s">
         <v>445</v>
@@ -14126,13 +14128,13 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="25" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D44" s="43"/>
       <c r="E44" s="44" t="s">
@@ -14153,16 +14155,16 @@
     </row>
     <row r="45" spans="1:10" ht="20.399999999999999">
       <c r="A45" s="25" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E45" s="44" t="s">
         <v>445</v>
@@ -14182,16 +14184,16 @@
     </row>
     <row r="46" spans="1:10" ht="41.4">
       <c r="A46" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="C46" s="23" t="s">
         <v>659</v>
       </c>
-      <c r="B46" s="22" t="s">
-        <v>660</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>661</v>
-      </c>
       <c r="D46" s="43" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="E46" s="44" t="s">
         <v>445</v>
@@ -14211,13 +14213,13 @@
     </row>
     <row r="47" spans="1:10" ht="27.6">
       <c r="A47" s="25" t="s">
+        <v>660</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="C47" s="23" t="s">
         <v>662</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>663</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>664</v>
       </c>
       <c r="D47" s="43"/>
       <c r="E47" s="44" t="s">
@@ -14238,16 +14240,16 @@
     </row>
     <row r="48" spans="1:10" ht="20.399999999999999">
       <c r="A48" s="25" t="s">
+        <v>663</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="C48" s="23" t="s">
         <v>665</v>
       </c>
-      <c r="B48" s="22" t="s">
-        <v>666</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>667</v>
-      </c>
       <c r="D48" s="43" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E48" s="44" t="s">
         <v>445</v>
@@ -14267,16 +14269,16 @@
     </row>
     <row r="49" spans="1:10" ht="55.2">
       <c r="A49" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>667</v>
+      </c>
+      <c r="C49" s="23" t="s">
         <v>668</v>
       </c>
-      <c r="B49" s="22" t="s">
-        <v>669</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>670</v>
-      </c>
       <c r="D49" s="43" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="E49" s="44" t="s">
         <v>445</v>
@@ -14296,13 +14298,13 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="25" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D50" s="43"/>
       <c r="E50" s="44" t="s">
@@ -14323,16 +14325,16 @@
     </row>
     <row r="51" spans="1:10" ht="20.399999999999999">
       <c r="A51" s="25" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D51" s="43" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E51" s="44" t="s">
         <v>445</v>
@@ -14352,16 +14354,16 @@
     </row>
     <row r="52" spans="1:10" ht="41.4">
       <c r="A52" s="22" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="E52" s="44" t="s">
         <v>445</v>
@@ -14381,13 +14383,13 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="25" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D53" s="43"/>
       <c r="E53" s="44" t="s">
@@ -14406,21 +14408,21 @@
         <v>445</v>
       </c>
       <c r="J53" s="89" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="20.399999999999999">
       <c r="A54" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D54" s="43" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E54" s="44" t="s">
         <v>445</v>
@@ -14440,13 +14442,13 @@
     </row>
     <row r="55" spans="1:10" ht="55.2">
       <c r="A55" s="22" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="44" t="s">
@@ -14465,21 +14467,21 @@
         <v>445</v>
       </c>
       <c r="J55" s="89" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="20.399999999999999">
       <c r="A56" s="25" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D56" s="43" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E56" s="44" t="s">
         <v>445</v>
@@ -14499,42 +14501,42 @@
     </row>
     <row r="57" spans="1:10" ht="61.2">
       <c r="A57" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="C57" s="29" t="s">
         <v>682</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="D57" s="45" t="s">
         <v>683</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="E57" s="30" t="s">
         <v>684</v>
       </c>
-      <c r="D57" s="45" t="s">
+      <c r="F57" s="46" t="s">
         <v>685</v>
       </c>
-      <c r="E57" s="30" t="s">
-        <v>686</v>
-      </c>
-      <c r="F57" s="46" t="s">
-        <v>687</v>
-      </c>
       <c r="G57" s="30" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="H57" s="46" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="I57" s="46" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="41.4">
       <c r="A58" s="28" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B58" s="28" t="s">
         <v>1181</v>
       </c>
-      <c r="B58" s="28" t="s">
-        <v>1183</v>
-      </c>
       <c r="C58" s="29" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D58" s="45"/>
       <c r="E58" s="30" t="s">
@@ -14555,100 +14557,100 @@
     </row>
     <row r="59" spans="1:10" ht="27.6">
       <c r="A59" s="28" t="s">
+        <v>686</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="C59" s="29" t="s">
         <v>688</v>
-      </c>
-      <c r="B59" s="28" t="s">
-        <v>689</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>690</v>
       </c>
       <c r="D59" s="45" t="s">
         <v>444</v>
       </c>
       <c r="E59" s="46" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F59" s="46" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G59" s="30" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H59" s="46" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I59" s="46" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="27.6">
       <c r="A60" s="28" t="s">
+        <v>691</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="C60" s="29" t="s">
         <v>693</v>
-      </c>
-      <c r="B60" s="28" t="s">
-        <v>694</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>695</v>
       </c>
       <c r="D60" s="45" t="s">
         <v>444</v>
       </c>
       <c r="E60" s="46" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F60" s="46" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G60" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="H60" s="46" t="s">
         <v>834</v>
       </c>
-      <c r="H60" s="46" t="s">
-        <v>836</v>
-      </c>
       <c r="I60" s="46" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="112.2">
       <c r="A61" s="28" t="s">
+        <v>696</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>697</v>
+      </c>
+      <c r="C61" s="29" t="s">
         <v>698</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="D61" s="45" t="s">
         <v>699</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="E61" s="46" t="s">
         <v>700</v>
       </c>
-      <c r="D61" s="45" t="s">
+      <c r="F61" s="46" t="s">
         <v>701</v>
       </c>
-      <c r="E61" s="46" t="s">
-        <v>702</v>
-      </c>
-      <c r="F61" s="46" t="s">
-        <v>703</v>
-      </c>
       <c r="G61" s="30" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H61" s="46" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="I61" s="46" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="41.4">
       <c r="A62" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C62" s="29" t="s">
         <v>1184</v>
-      </c>
-      <c r="B62" s="28" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>1186</v>
       </c>
       <c r="D62" s="45" t="s">
         <v>445</v>
@@ -14671,28 +14673,28 @@
     </row>
     <row r="63" spans="1:10" ht="20.399999999999999">
       <c r="A63" s="28" t="s">
+        <v>702</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>703</v>
+      </c>
+      <c r="C63" s="29" t="s">
         <v>704</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>705</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>706</v>
       </c>
       <c r="D63" s="45" t="s">
         <v>444</v>
       </c>
       <c r="E63" s="46" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F63" s="46" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G63" s="46" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="I63" s="46" t="s">
         <v>445</v>
@@ -14700,28 +14702,28 @@
     </row>
     <row r="64" spans="1:10" ht="81.599999999999994">
       <c r="A64" s="28" t="s">
+        <v>707</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>708</v>
+      </c>
+      <c r="C64" s="29" t="s">
         <v>709</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="D64" s="45" t="s">
+        <v>839</v>
+      </c>
+      <c r="E64" s="46" t="s">
         <v>710</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="F64" s="46" t="s">
         <v>711</v>
       </c>
-      <c r="D64" s="45" t="s">
+      <c r="G64" s="46" t="s">
+        <v>840</v>
+      </c>
+      <c r="H64" s="30" t="s">
         <v>841</v>
-      </c>
-      <c r="E64" s="46" t="s">
-        <v>712</v>
-      </c>
-      <c r="F64" s="46" t="s">
-        <v>713</v>
-      </c>
-      <c r="G64" s="46" t="s">
-        <v>842</v>
-      </c>
-      <c r="H64" s="30" t="s">
-        <v>843</v>
       </c>
       <c r="I64" s="46" t="s">
         <v>445</v>
@@ -14729,13 +14731,13 @@
     </row>
     <row r="65" spans="1:9" ht="27.6">
       <c r="A65" s="28" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C65" s="29" t="s">
         <v>1187</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>1189</v>
       </c>
       <c r="D65" s="45"/>
       <c r="E65" s="45" t="s">
@@ -14756,51 +14758,51 @@
     </row>
     <row r="66" spans="1:9" ht="112.2">
       <c r="A66" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="C66" s="32" t="s">
         <v>714</v>
-      </c>
-      <c r="B66" s="31" t="s">
-        <v>715</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>716</v>
       </c>
       <c r="D66" s="47" t="s">
         <v>444</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F66" s="48" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G66" s="33" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="I66" s="33" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="112.2">
       <c r="A67" s="31" t="s">
+        <v>717</v>
+      </c>
+      <c r="B67" s="145" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D67" s="47" t="s">
         <v>719</v>
       </c>
-      <c r="B67" s="169" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D67" s="47" t="s">
-        <v>721</v>
-      </c>
       <c r="E67" s="33" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F67" s="48" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G67" s="48" t="s">
         <v>445</v>
@@ -14814,13 +14816,13 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="31" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B68" s="169" t="s">
-        <v>1192</v>
+        <v>1189</v>
+      </c>
+      <c r="B68" s="145" t="s">
+        <v>1190</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D68" s="47"/>
       <c r="E68" s="33" t="s">
@@ -14841,13 +14843,13 @@
     </row>
     <row r="69" spans="1:9" ht="27.6">
       <c r="A69" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="C69" s="32" t="s">
         <v>723</v>
-      </c>
-      <c r="B69" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="C69" s="32" t="s">
-        <v>725</v>
       </c>
       <c r="D69" s="47"/>
       <c r="E69" s="48" t="s">
@@ -14868,16 +14870,16 @@
     </row>
     <row r="70" spans="1:9" ht="20.399999999999999">
       <c r="A70" s="34" t="s">
+        <v>724</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>725</v>
+      </c>
+      <c r="C70" s="32" t="s">
         <v>726</v>
       </c>
-      <c r="B70" s="31" t="s">
-        <v>727</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>728</v>
-      </c>
       <c r="D70" s="35" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E70" s="48" t="s">
         <v>445</v>
@@ -14913,7 +14915,7 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -14926,541 +14928,541 @@
     <col min="2" max="2" width="24.109375" customWidth="1"/>
     <col min="3" max="3" width="56.88671875" style="10" customWidth="1"/>
     <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" style="171" customWidth="1"/>
-    <col min="6" max="9" width="19.44140625" style="171" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="147" customWidth="1"/>
+    <col min="6" max="9" width="19.44140625" style="147" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="178">
+      <c r="A1" s="177">
         <v>2019</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="179">
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="154">
         <v>2018</v>
       </c>
-      <c r="F1" s="179">
+      <c r="F1" s="154">
         <v>2017</v>
       </c>
-      <c r="G1" s="179">
+      <c r="G1" s="154">
         <v>2016</v>
       </c>
-      <c r="H1" s="179">
+      <c r="H1" s="154">
         <v>2015</v>
       </c>
-      <c r="I1" s="179">
+      <c r="I1" s="154">
         <v>2014</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="177" t="s">
+      <c r="D2" s="153" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="43.2">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="158" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B3" s="158" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C3" s="158" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D3" s="159" t="s">
+        <v>444</v>
+      </c>
+      <c r="E3" s="156" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="82"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.8">
+      <c r="A4" s="158" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B4" s="158" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C4" s="158" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D4" s="159" t="s">
+        <v>444</v>
+      </c>
+      <c r="E4" s="155" t="s">
+        <v>885</v>
+      </c>
+      <c r="F4" s="155" t="s">
+        <v>886</v>
+      </c>
+      <c r="G4" s="155" t="s">
+        <v>887</v>
+      </c>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="82"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.8">
+      <c r="A5" s="158" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B5" s="158" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C5" s="158" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D5" s="159" t="s">
+        <v>444</v>
+      </c>
+      <c r="E5" s="155" t="s">
+        <v>888</v>
+      </c>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="82"/>
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1" ht="43.2">
+      <c r="A6" s="158" t="s">
         <v>1198</v>
       </c>
-      <c r="B3" s="183" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C3" s="183" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D3" s="184" t="s">
+      <c r="B6" s="158" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C6" s="158" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D6" s="159" t="s">
         <v>444</v>
       </c>
-      <c r="E3" s="181" t="s">
-        <v>1260</v>
-      </c>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="82"/>
-    </row>
-    <row r="4" spans="1:10" ht="28.8">
-      <c r="A4" s="183" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B4" s="183" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C4" s="183" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D4" s="184" t="s">
+      <c r="E6" s="155" t="s">
+        <v>889</v>
+      </c>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8">
+      <c r="A7" s="158" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B7" s="158" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C7" s="158" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D7" s="159" t="s">
         <v>444</v>
       </c>
-      <c r="E4" s="180" t="s">
-        <v>887</v>
-      </c>
-      <c r="F4" s="180" t="s">
-        <v>888</v>
-      </c>
-      <c r="G4" s="180" t="s">
-        <v>889</v>
-      </c>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="82"/>
-    </row>
-    <row r="5" spans="1:10" ht="28.8">
-      <c r="A5" s="183" t="s">
+      <c r="E7" s="151"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="82"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8">
+      <c r="A8" s="158" t="s">
         <v>1201</v>
       </c>
-      <c r="B5" s="183" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C5" s="183" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D5" s="184" t="s">
+      <c r="B8" s="158" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C8" s="158" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D8" s="159" t="s">
         <v>444</v>
       </c>
-      <c r="E5" s="180" t="s">
-        <v>890</v>
-      </c>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="82"/>
-    </row>
-    <row r="6" spans="1:10" s="10" customFormat="1" ht="43.2">
-      <c r="A6" s="183" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B6" s="183" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C6" s="183" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D6" s="184" t="s">
+      <c r="E8" s="148"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.8">
+      <c r="A9" s="158" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B9" s="158" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C9" s="158" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D9" s="159" t="s">
         <v>444</v>
       </c>
-      <c r="E6" s="180" t="s">
-        <v>891</v>
-      </c>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-    </row>
-    <row r="7" spans="1:10" ht="28.8">
-      <c r="A7" s="183" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B7" s="183" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C7" s="183" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D7" s="184" t="s">
+      <c r="E9" s="148"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+    </row>
+    <row r="10" spans="1:10" ht="28.8">
+      <c r="A10" s="158" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B10" s="158" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C10" s="158" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D10" s="159" t="s">
         <v>444</v>
       </c>
-      <c r="E7" s="175"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="82"/>
-    </row>
-    <row r="8" spans="1:10" ht="28.8">
-      <c r="A8" s="183" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B8" s="183" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C8" s="183" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D8" s="184" t="s">
+      <c r="E10" s="148"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+    </row>
+    <row r="11" spans="1:10" ht="43.2">
+      <c r="A11" s="158" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B11" s="158" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C11" s="158" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D11" s="159" t="s">
         <v>444</v>
       </c>
-      <c r="E8" s="172"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-    </row>
-    <row r="9" spans="1:10" ht="28.8">
-      <c r="A9" s="183" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B9" s="183" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C9" s="183" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D9" s="184" t="s">
+      <c r="E11" s="148"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.8">
+      <c r="A12" s="158" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B12" s="158" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C12" s="158" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D12" s="159" t="s">
         <v>444</v>
       </c>
-      <c r="E9" s="172"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-    </row>
-    <row r="10" spans="1:10" ht="28.8">
-      <c r="A10" s="183" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B10" s="183" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C10" s="183" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D10" s="184" t="s">
+      <c r="E12" s="148"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.8">
+      <c r="A13" s="158" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B13" s="158" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C13" s="158" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D13" s="159" t="s">
         <v>444</v>
       </c>
-      <c r="E10" s="172"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-    </row>
-    <row r="11" spans="1:10" ht="43.2">
-      <c r="A11" s="183" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B11" s="183" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C11" s="183" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D11" s="184" t="s">
+      <c r="E13" s="148"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="160" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B14" s="160" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C14" s="161" t="s">
+        <v>647</v>
+      </c>
+      <c r="D14" s="160"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+    </row>
+    <row r="15" spans="1:10" ht="40.799999999999997">
+      <c r="A15" s="160" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B15" s="160" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C15" s="161" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D15" s="162" t="s">
+        <v>627</v>
+      </c>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+    </row>
+    <row r="16" spans="1:10" ht="28.8">
+      <c r="A16" s="169" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B16" s="169" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C16" s="158" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D16" s="159" t="s">
         <v>444</v>
       </c>
-      <c r="E11" s="172"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-    </row>
-    <row r="12" spans="1:10" ht="28.8">
-      <c r="A12" s="183" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B12" s="183" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C12" s="183" t="s">
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+    </row>
+    <row r="17" spans="1:9" ht="28.8">
+      <c r="A17" s="161" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B17" s="161" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C17" s="161"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+    </row>
+    <row r="18" spans="1:9" ht="43.2">
+      <c r="A18" s="163" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B18" s="164" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C18" s="164" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D18" s="165" t="s">
+        <v>444</v>
+      </c>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+    </row>
+    <row r="19" spans="1:9" ht="43.2">
+      <c r="A19" s="163" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B19" s="164" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C19" s="164" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D19" s="165" t="s">
+        <v>444</v>
+      </c>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+    </row>
+    <row r="20" spans="1:9" ht="43.2">
+      <c r="A20" s="163" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B20" s="164" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C20" s="164" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D20" s="165" t="s">
+        <v>444</v>
+      </c>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+    </row>
+    <row r="21" spans="1:9" ht="57.6">
+      <c r="A21" s="163" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B21" s="164" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C21" s="164" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D21" s="165" t="s">
+        <v>444</v>
+      </c>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+    </row>
+    <row r="22" spans="1:9" ht="43.2">
+      <c r="A22" s="163" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B22" s="164" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C22" s="164" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D22" s="165" t="s">
+        <v>444</v>
+      </c>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="149"/>
+    </row>
+    <row r="23" spans="1:9" ht="43.2">
+      <c r="A23" s="163" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B23" s="164" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C23" s="164" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D23" s="165" t="s">
+        <v>444</v>
+      </c>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="149"/>
+    </row>
+    <row r="24" spans="1:9" ht="43.2">
+      <c r="A24" s="163" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B24" s="164" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C24" s="164" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D24" s="165" t="s">
+        <v>444</v>
+      </c>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+    </row>
+    <row r="25" spans="1:9" ht="57.6">
+      <c r="A25" s="163" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B25" s="164" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C25" s="164" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D25" s="165" t="s">
+        <v>444</v>
+      </c>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+    </row>
+    <row r="26" spans="1:9" ht="57.6">
+      <c r="A26" s="163" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B26" s="164" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C26" s="164" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D26" s="165" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="166" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B27" s="167" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C27" s="167" t="s">
+        <v>647</v>
+      </c>
+      <c r="D27" s="166"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+    </row>
+    <row r="28" spans="1:9" ht="40.799999999999997">
+      <c r="A28" s="166" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B28" s="167" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C28" s="167" t="s">
         <v>1218</v>
       </c>
-      <c r="D12" s="184" t="s">
-        <v>444</v>
-      </c>
-      <c r="E12" s="172"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-    </row>
-    <row r="13" spans="1:10" ht="28.8">
-      <c r="A13" s="183" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B13" s="183" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C13" s="183" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D13" s="184" t="s">
-        <v>444</v>
-      </c>
-      <c r="E13" s="172"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="185" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B14" s="185" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C14" s="186" t="s">
-        <v>649</v>
-      </c>
-      <c r="D14" s="185"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
-    </row>
-    <row r="15" spans="1:10" ht="40.799999999999997">
-      <c r="A15" s="185" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B15" s="185" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C15" s="186" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D15" s="187" t="s">
-        <v>629</v>
-      </c>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-    </row>
-    <row r="16" spans="1:10" ht="28.8">
-      <c r="A16" s="194" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B16" s="194" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C16" s="183" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D16" s="184" t="s">
-        <v>444</v>
-      </c>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-    </row>
-    <row r="17" spans="1:9" ht="28.8">
-      <c r="A17" s="186" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B17" s="186" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C17" s="186"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-    </row>
-    <row r="18" spans="1:9" ht="43.2">
-      <c r="A18" s="188" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B18" s="189" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C18" s="189" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D18" s="190" t="s">
-        <v>444</v>
-      </c>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="173"/>
-    </row>
-    <row r="19" spans="1:9" ht="43.2">
-      <c r="A19" s="188" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B19" s="189" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C19" s="189" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D19" s="190" t="s">
-        <v>444</v>
-      </c>
-      <c r="E19" s="173"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="173"/>
-    </row>
-    <row r="20" spans="1:9" ht="43.2">
-      <c r="A20" s="188" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B20" s="189" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C20" s="189" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D20" s="190" t="s">
-        <v>444</v>
-      </c>
-      <c r="E20" s="173"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="173"/>
-    </row>
-    <row r="21" spans="1:9" ht="57.6">
-      <c r="A21" s="188" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B21" s="189" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C21" s="189" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D21" s="190" t="s">
-        <v>444</v>
-      </c>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="173"/>
-    </row>
-    <row r="22" spans="1:9" ht="43.2">
-      <c r="A22" s="188" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B22" s="189" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C22" s="189" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D22" s="190" t="s">
-        <v>444</v>
-      </c>
-      <c r="E22" s="173"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="173"/>
-    </row>
-    <row r="23" spans="1:9" ht="43.2">
-      <c r="A23" s="188" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B23" s="189" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C23" s="189" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D23" s="190" t="s">
-        <v>444</v>
-      </c>
-      <c r="E23" s="173"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="173"/>
-    </row>
-    <row r="24" spans="1:9" ht="43.2">
-      <c r="A24" s="188" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B24" s="189" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C24" s="189" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D24" s="190" t="s">
-        <v>444</v>
-      </c>
-      <c r="E24" s="173"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="173"/>
-    </row>
-    <row r="25" spans="1:9" ht="57.6">
-      <c r="A25" s="188" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B25" s="189" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C25" s="189" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D25" s="190" t="s">
-        <v>444</v>
-      </c>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="173"/>
-    </row>
-    <row r="26" spans="1:9" ht="57.6">
-      <c r="A26" s="188" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B26" s="189" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C26" s="189" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D26" s="190" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="191" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B27" s="192" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C27" s="192" t="s">
-        <v>649</v>
-      </c>
-      <c r="D27" s="191"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="173"/>
-    </row>
-    <row r="28" spans="1:9" ht="40.799999999999997">
-      <c r="A28" s="191" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B28" s="192" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C28" s="192" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D28" s="193" t="s">
-        <v>629</v>
-      </c>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
+      <c r="D28" s="168" t="s">
+        <v>627</v>
+      </c>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15492,27 +15494,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="153">
+      <c r="A1" s="181">
         <v>2019</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="2" spans="1:6" ht="72.599999999999994" customHeight="1">
       <c r="A2" s="95" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C2" s="141" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="D2" s="141" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E2" s="111" t="s">
         <v>0</v>
@@ -15523,457 +15525,457 @@
     </row>
     <row r="3" spans="1:6" ht="137.4" customHeight="1">
       <c r="A3" s="137" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D3" s="183" t="s">
         <v>1002</v>
       </c>
-      <c r="B3" s="99" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C3" s="99" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D3" s="155" t="s">
-        <v>1004</v>
-      </c>
       <c r="E3" s="112" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F3" s="125" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.2">
       <c r="A4" s="99" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B4" s="98" t="s">
         <v>445</v>
       </c>
       <c r="C4" s="98" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D4" s="156"/>
+        <v>1085</v>
+      </c>
+      <c r="D4" s="184"/>
       <c r="E4" s="112" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="F4" s="125"/>
     </row>
     <row r="5" spans="1:6" ht="43.2">
       <c r="A5" s="99" t="s">
+        <v>653</v>
+      </c>
+      <c r="B5" s="99" t="s">
         <v>655</v>
       </c>
-      <c r="B5" s="99" t="s">
-        <v>657</v>
-      </c>
       <c r="C5" s="99" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D5" s="156"/>
+        <v>1086</v>
+      </c>
+      <c r="D5" s="184"/>
       <c r="E5" s="112" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="F5" s="126"/>
     </row>
     <row r="6" spans="1:6" ht="57.6">
       <c r="A6" s="98" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B6" s="99" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C6" s="99" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D6" s="156"/>
+        <v>1087</v>
+      </c>
+      <c r="D6" s="184"/>
       <c r="E6" s="112" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="F6" s="126"/>
     </row>
     <row r="7" spans="1:6" ht="28.8">
       <c r="A7" s="100" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B7" s="98" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D7" s="184"/>
+      <c r="E7" s="112" t="s">
         <v>1071</v>
-      </c>
-      <c r="C7" s="98" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D7" s="156"/>
-      <c r="E7" s="112" t="s">
-        <v>1073</v>
       </c>
       <c r="F7" s="126"/>
     </row>
     <row r="8" spans="1:6" ht="43.2">
       <c r="A8" s="100" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B8" s="98" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C8" s="98" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D8" s="185"/>
+      <c r="E8" s="112" t="s">
         <v>1072</v>
-      </c>
-      <c r="C8" s="98" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D8" s="157"/>
-      <c r="E8" s="112" t="s">
-        <v>1074</v>
       </c>
       <c r="F8" s="126"/>
     </row>
     <row r="9" spans="1:6" ht="93">
       <c r="A9" s="97" t="s">
+        <v>639</v>
+      </c>
+      <c r="B9" s="97" t="s">
         <v>641</v>
       </c>
-      <c r="B9" s="97" t="s">
-        <v>643</v>
-      </c>
       <c r="C9" s="97" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D9" s="154" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D9" s="182" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E9" s="113" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F9" s="127" t="s">
         <v>1010</v>
-      </c>
-      <c r="E9" s="113" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F9" s="127" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="57.6">
       <c r="A10" s="97" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C10" s="97" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D10" s="154"/>
+        <v>1091</v>
+      </c>
+      <c r="D10" s="182"/>
       <c r="E10" s="113" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F10" s="127"/>
     </row>
     <row r="11" spans="1:6" ht="28.8">
       <c r="A11" s="101" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B11" s="101" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C11" s="101" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D11" s="158" t="s">
-        <v>1049</v>
+        <v>1092</v>
+      </c>
+      <c r="D11" s="186" t="s">
+        <v>1047</v>
       </c>
       <c r="E11" s="114" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F11" s="128"/>
     </row>
     <row r="12" spans="1:6" ht="28.8">
       <c r="A12" s="101" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B12" s="101" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C12" s="101" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D12" s="158"/>
+        <v>1093</v>
+      </c>
+      <c r="D12" s="186"/>
       <c r="E12" s="114" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F12" s="128"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="101" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B13" s="101" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C13" s="101" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D13" s="158"/>
+        <v>1094</v>
+      </c>
+      <c r="D13" s="186"/>
       <c r="E13" s="114" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F13" s="128"/>
     </row>
     <row r="14" spans="1:6" ht="28.8">
       <c r="A14" s="101" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B14" s="101" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C14" s="101" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D14" s="158"/>
+        <v>1095</v>
+      </c>
+      <c r="D14" s="186"/>
       <c r="E14" s="114" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F14" s="128"/>
     </row>
     <row r="15" spans="1:6" ht="28.8">
       <c r="A15" s="101" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B15" s="101" t="s">
         <v>445</v>
       </c>
       <c r="C15" s="101" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D15" s="158"/>
+        <v>1084</v>
+      </c>
+      <c r="D15" s="186"/>
       <c r="E15" s="114" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F15" s="128"/>
     </row>
     <row r="16" spans="1:6" ht="43.2">
       <c r="A16" s="101" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B16" s="101" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C16" s="101" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D16" s="158"/>
+        <v>1096</v>
+      </c>
+      <c r="D16" s="186"/>
       <c r="E16" s="114" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F16" s="128"/>
     </row>
     <row r="17" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A17" s="108" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B17" s="108" t="s">
         <v>1024</v>
       </c>
-      <c r="B17" s="108" t="s">
-        <v>1026</v>
-      </c>
       <c r="C17" s="108" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D17" s="159" t="s">
-        <v>1048</v>
+        <v>1097</v>
+      </c>
+      <c r="D17" s="187" t="s">
+        <v>1046</v>
       </c>
       <c r="E17" s="115" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="F17" s="129"/>
     </row>
     <row r="18" spans="1:6" s="96" customFormat="1" ht="43.2">
       <c r="A18" s="108" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B18" s="108" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C18" s="108" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D18" s="159"/>
+        <v>1098</v>
+      </c>
+      <c r="D18" s="187"/>
       <c r="E18" s="115" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F18" s="129"/>
     </row>
     <row r="19" spans="1:6" s="96" customFormat="1" ht="43.2">
       <c r="A19" s="138" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B19" s="139" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C19" s="139" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D19" s="103" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E19" s="102" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F19" s="130"/>
     </row>
     <row r="20" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A20" s="109" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B20" s="109" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C20" s="109" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D20" s="160" t="s">
-        <v>1046</v>
+        <v>1100</v>
+      </c>
+      <c r="D20" s="188" t="s">
+        <v>1044</v>
       </c>
       <c r="E20" s="116" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F20" s="131"/>
     </row>
     <row r="21" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A21" s="109" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B21" s="109" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C21" s="109" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D21" s="161"/>
+        <v>1101</v>
+      </c>
+      <c r="D21" s="189"/>
       <c r="E21" s="116" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F21" s="131"/>
     </row>
     <row r="22" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A22" s="109" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B22" s="109" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C22" s="109" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D22" s="161"/>
+        <v>1102</v>
+      </c>
+      <c r="D22" s="189"/>
       <c r="E22" s="116" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F22" s="131"/>
     </row>
     <row r="23" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A23" s="109" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B23" s="109" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C23" s="109" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D23" s="162"/>
+        <v>1103</v>
+      </c>
+      <c r="D23" s="190"/>
       <c r="E23" s="116" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F23" s="131"/>
     </row>
     <row r="24" spans="1:6" s="96" customFormat="1" ht="86.4">
       <c r="A24" s="105" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B24" s="105" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C24" s="105" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D24" s="106" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E24" s="117" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="F24" s="132"/>
     </row>
     <row r="25" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A25" s="110" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B25" s="110" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C25" s="110" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D25" s="150" t="s">
-        <v>1063</v>
+        <v>1105</v>
+      </c>
+      <c r="D25" s="178" t="s">
+        <v>1061</v>
       </c>
       <c r="E25" s="118" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F25" s="133"/>
     </row>
     <row r="26" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A26" s="110" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B26" s="110" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C26" s="110" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D26" s="150"/>
+        <v>1106</v>
+      </c>
+      <c r="D26" s="178"/>
       <c r="E26" s="118" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="F26" s="133"/>
     </row>
     <row r="27" spans="1:6" s="96" customFormat="1" ht="72">
       <c r="A27" s="107" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B27" s="107" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C27" s="107" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D27" s="104" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E27" s="119" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F27" s="134"/>
     </row>
     <row r="28" spans="1:6" s="96" customFormat="1" ht="43.2">
       <c r="A28" s="124" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B28" s="124" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C28" s="124" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D28" s="151" t="s">
-        <v>1070</v>
+        <v>1108</v>
+      </c>
+      <c r="D28" s="179" t="s">
+        <v>1068</v>
       </c>
       <c r="E28" s="124" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F28" s="135"/>
     </row>
     <row r="29" spans="1:6" s="96" customFormat="1" ht="57.6">
       <c r="A29" s="124" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B29" s="124" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C29" s="124" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D29" s="152"/>
+        <v>1104</v>
+      </c>
+      <c r="D29" s="180"/>
       <c r="E29" s="124" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="F29" s="135"/>
     </row>
@@ -16010,18 +16012,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16209,25 +16211,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4CF47-E673-4F26-A959-0B7774EBA194}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4aae9226-4411-406b-98ce-94e2e69fab2c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4CF47-E673-4F26-A959-0B7774EBA194}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4aae9226-4411-406b-98ce-94e2e69fab2c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_MA abril 7.xlsx
+++ b/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_MA abril 7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb550905\Github\VEN\data_management\management\2. harmonization\ENCOVI harmonization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/macuna_worldbank_org/Documents/Venezuela/ENCOVI/2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6156A47-390C-4690-A60E-E94DFA5D61A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{439BB2CF-CA98-484F-BC61-DFADB7312308}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B2B093E7-ECD7-48CC-A0EE-BBF2385FFA55}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="805" firstSheet="2" activeTab="6" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
+    <workbookView minimized="1" xWindow="8592" yWindow="8076" windowWidth="17280" windowHeight="8964" tabRatio="805" firstSheet="7" activeTab="7" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Control_entrevista" sheetId="4" r:id="rId1"/>
@@ -2375,6 +2375,9 @@
     <t>razon_no_trabajo</t>
   </si>
   <si>
+    <t>Cuál es la razón principal por la que no trabajó la semana pasada?</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 = Estaba enfermo
 			2 = Vacaciones
 			3 = Permiso
@@ -2410,6 +2413,9 @@
   </si>
   <si>
     <t>sueldo_semana</t>
+  </si>
+  <si>
+    <t>Durante la semana pasada recibió sueldo o ganancias?</t>
   </si>
   <si>
     <t>tmhp42 (no es exactamente igual, refiere al mes pasado): ¿CUÁNTO RECIBIÓ… EN TOTAL DURANTE EL MES PASADO POR EL TRABAJO REALIZADO?
@@ -5234,14 +5240,6 @@
   </si>
   <si>
     <t>Recibió el mes pasado ingresos por alguno de los siguientes conceptos y cuánto? Petro</t>
-  </si>
-  <si>
-    <t>Durante la semana pasada recibió sueldo o ganancias? 
-(solo para los que s9q3 / trabajo_independiente==1)</t>
-  </si>
-  <si>
-    <t>Cuál es la razón principal por la que no trabajó la semana pasada?
-(solo para los que s9q3 / trabajo_independiente==1)</t>
   </si>
 </sst>
 </file>
@@ -6005,6 +6003,78 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6034,6 +6104,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -6081,81 +6154,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6494,12 +6492,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="171">
+      <c r="A1" s="144">
         <v>2019</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -6745,10 +6743,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="71" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="C15" s="71" t="s">
         <v>168</v>
@@ -6970,10 +6968,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="71" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="B30" s="71" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="C30" s="71"/>
       <c r="D30" s="71"/>
@@ -7091,12 +7089,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="171">
+      <c r="A1" s="144">
         <v>2019</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -7341,12 +7339,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="171">
+      <c r="A1" s="144">
         <v>2019</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -7376,24 +7374,24 @@
       <c r="D2" s="61" t="s">
         <v>383</v>
       </c>
-      <c r="E2" s="191" t="s">
-        <v>844</v>
-      </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
+      <c r="E2" s="163" t="s">
+        <v>846</v>
+      </c>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
       <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:10" s="52" customFormat="1" ht="28.8">
       <c r="A3" s="62" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D3" s="64"/>
       <c r="E3" s="65" t="s">
@@ -7415,13 +7413,13 @@
     </row>
     <row r="4" spans="1:10" s="52" customFormat="1" ht="28.8">
       <c r="A4" s="62" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D4" s="64"/>
       <c r="E4" s="65" t="s">
@@ -7443,22 +7441,22 @@
     </row>
     <row r="5" spans="1:10" s="52" customFormat="1" ht="40.799999999999997">
       <c r="A5" s="62" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E5" s="66" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F5" s="65" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G5" s="65" t="s">
         <v>445</v>
@@ -7473,22 +7471,22 @@
     </row>
     <row r="6" spans="1:10" s="52" customFormat="1" ht="81.599999999999994">
       <c r="A6" s="62" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="F6" s="65" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="G6" s="65" t="s">
         <v>445</v>
@@ -7503,13 +7501,13 @@
     </row>
     <row r="7" spans="1:10" s="52" customFormat="1">
       <c r="A7" s="62" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D7" s="64"/>
       <c r="E7" s="65" t="s">
@@ -7531,13 +7529,13 @@
     </row>
     <row r="8" spans="1:10" s="52" customFormat="1" ht="28.8">
       <c r="A8" s="62" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="65" t="s">
@@ -7559,13 +7557,13 @@
     </row>
     <row r="9" spans="1:10" s="52" customFormat="1" ht="72">
       <c r="A9" s="62" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="D9" s="64" t="s">
         <v>477</v>
@@ -7589,20 +7587,20 @@
     </row>
     <row r="10" spans="1:10" s="52" customFormat="1" ht="30.6">
       <c r="A10" s="62" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D10" s="64"/>
       <c r="E10" s="66" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="F10" s="65" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="G10" s="65" t="s">
         <v>445</v>
@@ -7617,22 +7615,22 @@
     </row>
     <row r="11" spans="1:10" s="52" customFormat="1" ht="72">
       <c r="A11" s="62" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="D11" s="64" t="s">
         <v>477</v>
       </c>
       <c r="E11" s="66" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="F11" s="65" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="G11" s="65" t="s">
         <v>445</v>
@@ -7646,20 +7644,20 @@
     </row>
     <row r="12" spans="1:10" s="52" customFormat="1" ht="40.799999999999997">
       <c r="A12" s="62" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="66" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="G12" s="65" t="s">
         <v>445</v>
@@ -8123,12 +8121,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1">
-      <c r="A1" s="171">
+      <c r="A1" s="144">
         <v>2019</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -8156,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
@@ -8166,15 +8164,15 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="69" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B3" s="69"/>
       <c r="C3" s="69" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D3" s="69"/>
       <c r="E3" s="71" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="F3" s="71"/>
       <c r="G3" s="142"/>
@@ -8183,20 +8181,20 @@
     </row>
     <row r="4" spans="1:9" ht="28.8">
       <c r="A4" s="69" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B4" s="69"/>
       <c r="C4" s="69" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="F4" s="71" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="G4" s="142"/>
       <c r="H4" s="142"/>
@@ -8204,18 +8202,18 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="69" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B5" s="69"/>
       <c r="C5" s="69" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D5" s="69"/>
       <c r="E5" s="71" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="F5" s="71" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="G5" s="142"/>
       <c r="H5" s="142"/>
@@ -8223,18 +8221,18 @@
     </row>
     <row r="6" spans="1:9" ht="87" customHeight="1">
       <c r="A6" s="69" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B6" s="69"/>
       <c r="C6" s="64" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D6" s="69"/>
       <c r="E6" s="69" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="G6" s="142"/>
       <c r="H6" s="142"/>
@@ -8242,15 +8240,15 @@
     </row>
     <row r="7" spans="1:9" ht="28.8">
       <c r="A7" s="69" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B7" s="69"/>
       <c r="C7" s="64" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D7" s="69"/>
       <c r="E7" s="71" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="142"/>
@@ -8259,17 +8257,17 @@
     </row>
     <row r="8" spans="1:9" ht="28.8">
       <c r="A8" s="69" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B8" s="69"/>
       <c r="C8" s="69" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="F8" s="71"/>
       <c r="G8" s="142"/>
@@ -8278,14 +8276,14 @@
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="180" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -8295,11 +8293,11 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="71" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B10" s="71"/>
       <c r="C10" s="71" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D10" s="71"/>
       <c r="E10" s="71"/>
@@ -8310,14 +8308,14 @@
     </row>
     <row r="11" spans="1:9" ht="172.8">
       <c r="A11" s="69" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B11" s="69"/>
       <c r="C11" s="64" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
@@ -8327,14 +8325,14 @@
     </row>
     <row r="12" spans="1:9" ht="201.6">
       <c r="A12" s="69" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B12" s="69"/>
       <c r="C12" s="64" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
@@ -8344,11 +8342,11 @@
     </row>
     <row r="13" spans="1:9" ht="43.2">
       <c r="A13" s="69" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B13" s="71"/>
       <c r="C13" s="72" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D13" s="71"/>
       <c r="E13" s="71"/>
@@ -8359,14 +8357,14 @@
     </row>
     <row r="14" spans="1:9" ht="43.2">
       <c r="A14" s="69" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B14" s="71"/>
       <c r="C14" s="72" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
@@ -8376,11 +8374,11 @@
     </row>
     <row r="15" spans="1:9" ht="43.2">
       <c r="A15" s="69" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B15" s="71"/>
       <c r="C15" s="72" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="D15" s="71"/>
       <c r="E15" s="71"/>
@@ -8391,11 +8389,11 @@
     </row>
     <row r="16" spans="1:9" ht="43.2">
       <c r="A16" s="69" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B16" s="71"/>
       <c r="C16" s="72" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D16" s="71"/>
       <c r="E16" s="71"/>
@@ -8406,11 +8404,11 @@
     </row>
     <row r="17" spans="1:9" ht="43.2">
       <c r="A17" s="69" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B17" s="71"/>
       <c r="C17" s="72" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D17" s="71"/>
       <c r="E17" s="71"/>
@@ -8421,14 +8419,14 @@
     </row>
     <row r="18" spans="1:9" ht="230.4">
       <c r="A18" s="69" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B18" s="69"/>
       <c r="C18" s="64" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="D18" s="64" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
@@ -8438,11 +8436,11 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="71" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B19" s="71"/>
       <c r="C19" s="71" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D19" s="71"/>
       <c r="E19" s="71"/>
@@ -8453,11 +8451,11 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="71" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B20" s="71"/>
       <c r="C20" s="72" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D20" s="71"/>
       <c r="E20" s="71"/>
@@ -8468,14 +8466,14 @@
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" ht="28.8">
       <c r="A21" s="69" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B21" s="69"/>
       <c r="C21" s="69" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D21" s="64" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E21" s="69"/>
       <c r="F21" s="69"/>
@@ -8485,14 +8483,14 @@
     </row>
     <row r="22" spans="1:9" ht="86.4">
       <c r="A22" s="69" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B22" s="69"/>
       <c r="C22" s="64" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="D22" s="64" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
@@ -8502,17 +8500,17 @@
     </row>
     <row r="23" spans="1:9" ht="187.2">
       <c r="A23" s="69" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B23" s="69"/>
       <c r="C23" s="64" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="F23" s="71"/>
       <c r="G23" s="142"/>
@@ -8521,11 +8519,11 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="71" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B24" s="71"/>
       <c r="C24" s="71" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D24" s="71"/>
       <c r="E24" s="71"/>
@@ -8536,14 +8534,14 @@
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" ht="374.55" customHeight="1">
       <c r="A25" s="69" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B25" s="69"/>
       <c r="C25" s="64" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="E25" s="69"/>
       <c r="F25" s="69"/>
@@ -8553,14 +8551,14 @@
     </row>
     <row r="26" spans="1:9" ht="379.05" customHeight="1">
       <c r="A26" s="64" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B26" s="64"/>
       <c r="C26" s="64" t="s">
+        <v>788</v>
+      </c>
+      <c r="D26" s="64" t="s">
         <v>786</v>
-      </c>
-      <c r="D26" s="64" t="s">
-        <v>784</v>
       </c>
       <c r="E26" s="71"/>
       <c r="F26" s="71"/>
@@ -8570,14 +8568,14 @@
     </row>
     <row r="27" spans="1:9" ht="43.2">
       <c r="A27" s="64" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B27" s="71"/>
       <c r="C27" s="72" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E27" s="71"/>
       <c r="F27" s="71"/>
@@ -8587,11 +8585,11 @@
     </row>
     <row r="28" spans="1:9" ht="28.8">
       <c r="A28" s="64" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B28" s="71"/>
       <c r="C28" s="64" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="71"/>
@@ -8602,14 +8600,14 @@
     </row>
     <row r="29" spans="1:9" ht="172.8">
       <c r="A29" s="64" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B29" s="71"/>
       <c r="C29" s="64" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D29" s="72" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E29" s="71"/>
       <c r="F29" s="71"/>
@@ -8619,14 +8617,14 @@
     </row>
     <row r="30" spans="1:9" ht="43.2">
       <c r="A30" s="64" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B30" s="71"/>
       <c r="C30" s="72" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="D30" s="64" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E30" s="71"/>
       <c r="F30" s="71"/>
@@ -8769,12 +8767,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="37" customFormat="1">
-      <c r="A1" s="192">
+      <c r="A1" s="164">
         <v>2019</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="193"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="165"/>
     </row>
     <row r="2" spans="1:5" s="50" customFormat="1" ht="43.2">
       <c r="A2" s="94" t="s">
@@ -8787,36 +8785,36 @@
         <v>0</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5" ht="57.6">
       <c r="A3" s="71" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="B3" s="71" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="57.6">
       <c r="A4" s="71" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
     </row>
   </sheetData>
@@ -8850,13 +8848,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="37" customFormat="1">
-      <c r="A1" s="192">
+      <c r="A1" s="164">
         <v>2019</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="193"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="165"/>
       <c r="F1" s="60">
         <v>2018</v>
       </c>
@@ -8874,10 +8872,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="50" customFormat="1" ht="43.2">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="195"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="61" t="s">
         <v>128</v>
       </c>
@@ -8885,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="F2" s="83"/>
       <c r="G2" s="83"/>
@@ -8895,353 +8893,353 @@
       <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="72">
-      <c r="A3" s="194" t="s">
-        <v>890</v>
-      </c>
-      <c r="B3" s="194"/>
+      <c r="A3" s="166" t="s">
+        <v>892</v>
+      </c>
+      <c r="B3" s="166"/>
       <c r="C3" s="71" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D3" s="72" t="s">
+        <v>919</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>934</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>935</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>950</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>958</v>
+      </c>
+      <c r="I3" s="87" t="s">
+        <v>959</v>
+      </c>
+      <c r="J3" s="87" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8">
+      <c r="A4" s="166" t="s">
+        <v>922</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>893</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>907</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>920</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>934</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>938</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="115.2">
+      <c r="A5" s="166"/>
+      <c r="B5" s="70" t="s">
+        <v>894</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>908</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>921</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>934</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>939</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>951</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="I5" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="144">
+      <c r="A6" s="166"/>
+      <c r="B6" s="70" t="s">
+        <v>895</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>909</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>923</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>934</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>940</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>952</v>
+      </c>
+      <c r="H6" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="I6" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="J6" s="85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="144">
+      <c r="A7" s="166"/>
+      <c r="B7" s="70" t="s">
+        <v>896</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>910</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>924</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>934</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>952</v>
+      </c>
+      <c r="H7" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="I7" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="J7" s="85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="187.2">
+      <c r="A8" s="166"/>
+      <c r="B8" s="70" t="s">
+        <v>897</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>911</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>925</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>934</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>942</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>955</v>
+      </c>
+      <c r="H8" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="I8" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="J8" s="85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="302.39999999999998">
+      <c r="A9" s="166"/>
+      <c r="B9" s="70" t="s">
+        <v>898</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>912</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>926</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>934</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>943</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>953</v>
+      </c>
+      <c r="H9" s="85" t="s">
+        <v>957</v>
+      </c>
+      <c r="I9" s="85" t="s">
+        <v>960</v>
+      </c>
+      <c r="J9" s="85" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="82" customFormat="1" ht="259.2">
+      <c r="A10" s="166"/>
+      <c r="B10" s="86" t="s">
+        <v>899</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>913</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>927</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>934</v>
+      </c>
+      <c r="F10" s="86" t="s">
+        <v>944</v>
+      </c>
+      <c r="G10" s="86" t="s">
+        <v>954</v>
+      </c>
+      <c r="H10" s="85" t="s">
+        <v>957</v>
+      </c>
+      <c r="I10" s="85" t="s">
+        <v>960</v>
+      </c>
+      <c r="J10" s="85" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="187.2">
+      <c r="A11" s="166"/>
+      <c r="B11" s="70" t="s">
+        <v>900</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>914</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>928</v>
+      </c>
+      <c r="E11" s="70" t="s">
+        <v>934</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>945</v>
+      </c>
+      <c r="G11" s="70" t="s">
+        <v>955</v>
+      </c>
+      <c r="H11" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="I11" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="J11" s="85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="144">
+      <c r="A12" s="166"/>
+      <c r="B12" s="70" t="s">
+        <v>901</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>915</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>929</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>934</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>946</v>
+      </c>
+      <c r="G12" s="70" t="s">
+        <v>952</v>
+      </c>
+      <c r="H12" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="I12" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="J12" s="85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="144">
+      <c r="A13" s="166"/>
+      <c r="B13" s="70" t="s">
+        <v>902</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>916</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>930</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>934</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>947</v>
+      </c>
+      <c r="G13" s="70" t="s">
+        <v>956</v>
+      </c>
+      <c r="H13" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="I13" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="J13" s="85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.8">
+      <c r="A14" s="166"/>
+      <c r="B14" s="70" t="s">
+        <v>903</v>
+      </c>
+      <c r="C14" s="70" t="s">
         <v>917</v>
       </c>
-      <c r="E3" s="72" t="s">
-        <v>932</v>
-      </c>
-      <c r="F3" s="72" t="s">
-        <v>933</v>
-      </c>
-      <c r="G3" s="72" t="s">
+      <c r="D14" s="70" t="s">
+        <v>931</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>934</v>
+      </c>
+      <c r="F14" s="70" t="s">
         <v>948</v>
-      </c>
-      <c r="H3" s="72" t="s">
-        <v>956</v>
-      </c>
-      <c r="I3" s="87" t="s">
-        <v>957</v>
-      </c>
-      <c r="J3" s="87" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.8">
-      <c r="A4" s="194" t="s">
-        <v>920</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>891</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>905</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>918</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>932</v>
-      </c>
-      <c r="F4" s="70" t="s">
-        <v>936</v>
-      </c>
-      <c r="G4" s="70" t="s">
-        <v>445</v>
-      </c>
-      <c r="H4" s="70" t="s">
-        <v>445</v>
-      </c>
-      <c r="I4" s="70" t="s">
-        <v>445</v>
-      </c>
-      <c r="J4" s="70" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="115.2">
-      <c r="A5" s="194"/>
-      <c r="B5" s="70" t="s">
-        <v>892</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>906</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>919</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>932</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>937</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>949</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>445</v>
-      </c>
-      <c r="I5" s="70" t="s">
-        <v>445</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="144">
-      <c r="A6" s="194"/>
-      <c r="B6" s="70" t="s">
-        <v>893</v>
-      </c>
-      <c r="C6" s="70" t="s">
-        <v>907</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>921</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>932</v>
-      </c>
-      <c r="F6" s="70" t="s">
-        <v>938</v>
-      </c>
-      <c r="G6" s="70" t="s">
-        <v>950</v>
-      </c>
-      <c r="H6" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="I6" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="J6" s="85" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="144">
-      <c r="A7" s="194"/>
-      <c r="B7" s="70" t="s">
-        <v>894</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>908</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>922</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>932</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>939</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>950</v>
-      </c>
-      <c r="H7" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="I7" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="J7" s="85" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="187.2">
-      <c r="A8" s="194"/>
-      <c r="B8" s="70" t="s">
-        <v>895</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>909</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>923</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>932</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>940</v>
-      </c>
-      <c r="G8" s="70" t="s">
-        <v>953</v>
-      </c>
-      <c r="H8" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="I8" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="J8" s="85" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="302.39999999999998">
-      <c r="A9" s="194"/>
-      <c r="B9" s="70" t="s">
-        <v>896</v>
-      </c>
-      <c r="C9" s="70" t="s">
-        <v>910</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>924</v>
-      </c>
-      <c r="E9" s="70" t="s">
-        <v>932</v>
-      </c>
-      <c r="F9" s="70" t="s">
-        <v>941</v>
-      </c>
-      <c r="G9" s="70" t="s">
-        <v>951</v>
-      </c>
-      <c r="H9" s="85" t="s">
-        <v>955</v>
-      </c>
-      <c r="I9" s="85" t="s">
-        <v>958</v>
-      </c>
-      <c r="J9" s="85" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="82" customFormat="1" ht="259.2">
-      <c r="A10" s="194"/>
-      <c r="B10" s="86" t="s">
-        <v>897</v>
-      </c>
-      <c r="C10" s="86" t="s">
-        <v>911</v>
-      </c>
-      <c r="D10" s="70" t="s">
-        <v>925</v>
-      </c>
-      <c r="E10" s="86" t="s">
-        <v>932</v>
-      </c>
-      <c r="F10" s="86" t="s">
-        <v>942</v>
-      </c>
-      <c r="G10" s="86" t="s">
-        <v>952</v>
-      </c>
-      <c r="H10" s="85" t="s">
-        <v>955</v>
-      </c>
-      <c r="I10" s="85" t="s">
-        <v>958</v>
-      </c>
-      <c r="J10" s="85" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="187.2">
-      <c r="A11" s="194"/>
-      <c r="B11" s="70" t="s">
-        <v>898</v>
-      </c>
-      <c r="C11" s="70" t="s">
-        <v>912</v>
-      </c>
-      <c r="D11" s="70" t="s">
-        <v>926</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>932</v>
-      </c>
-      <c r="F11" s="70" t="s">
-        <v>943</v>
-      </c>
-      <c r="G11" s="70" t="s">
-        <v>953</v>
-      </c>
-      <c r="H11" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="I11" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="J11" s="85" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="144">
-      <c r="A12" s="194"/>
-      <c r="B12" s="70" t="s">
-        <v>899</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>913</v>
-      </c>
-      <c r="D12" s="70" t="s">
-        <v>927</v>
-      </c>
-      <c r="E12" s="70" t="s">
-        <v>932</v>
-      </c>
-      <c r="F12" s="70" t="s">
-        <v>944</v>
-      </c>
-      <c r="G12" s="70" t="s">
-        <v>950</v>
-      </c>
-      <c r="H12" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="I12" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="J12" s="85" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="144">
-      <c r="A13" s="194"/>
-      <c r="B13" s="70" t="s">
-        <v>900</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>914</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>928</v>
-      </c>
-      <c r="E13" s="70" t="s">
-        <v>932</v>
-      </c>
-      <c r="F13" s="70" t="s">
-        <v>945</v>
-      </c>
-      <c r="G13" s="70" t="s">
-        <v>954</v>
-      </c>
-      <c r="H13" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="I13" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="J13" s="85" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="28.8">
-      <c r="A14" s="194"/>
-      <c r="B14" s="70" t="s">
-        <v>901</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>915</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>929</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>932</v>
-      </c>
-      <c r="F14" s="70" t="s">
-        <v>946</v>
       </c>
       <c r="G14" s="70"/>
       <c r="H14" s="85" t="s">
@@ -9255,21 +9253,21 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="28.8">
-      <c r="A15" s="194"/>
+      <c r="A15" s="166"/>
       <c r="B15" s="70" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E15" s="70" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="F15" s="70" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="G15" s="70"/>
       <c r="H15" s="85" t="s">
@@ -9283,18 +9281,18 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="43.2">
-      <c r="A16" s="194" t="s">
-        <v>903</v>
-      </c>
-      <c r="B16" s="194"/>
+      <c r="A16" s="166" t="s">
+        <v>905</v>
+      </c>
+      <c r="B16" s="166"/>
       <c r="C16" s="70" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="F16" s="70" t="s">
         <v>445</v>
@@ -9344,12 +9342,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="90" customFormat="1">
-      <c r="A1" s="181">
+      <c r="A1" s="153">
         <v>2019</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
       <c r="E1" s="84">
         <v>2018</v>
       </c>
@@ -9377,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="E2" s="83"/>
       <c r="F2" s="83"/>
@@ -9388,16 +9386,16 @@
     </row>
     <row r="3" spans="1:10" ht="28.8">
       <c r="A3" s="72" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E3" s="91"/>
       <c r="F3" s="91"/>
@@ -9407,20 +9405,20 @@
     </row>
     <row r="4" spans="1:10" ht="87">
       <c r="A4" s="72" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E4" s="91"/>
       <c r="F4" s="93" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="G4" s="91"/>
       <c r="H4" s="91"/>
@@ -9428,16 +9426,16 @@
     </row>
     <row r="5" spans="1:10" ht="28.8">
       <c r="A5" s="72" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="D5" s="72" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="E5" s="91"/>
       <c r="F5" s="92"/>
@@ -9447,16 +9445,16 @@
     </row>
     <row r="6" spans="1:10" ht="43.2">
       <c r="A6" s="72" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E6" s="91"/>
       <c r="F6" s="91"/>
@@ -9466,13 +9464,13 @@
     </row>
     <row r="7" spans="1:10" ht="28.8">
       <c r="A7" s="72" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="C7" s="72" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="91"/>
@@ -9483,13 +9481,13 @@
     </row>
     <row r="8" spans="1:10" ht="28.8">
       <c r="A8" s="72" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="91"/>
@@ -9500,16 +9498,16 @@
     </row>
     <row r="9" spans="1:10" ht="28.8">
       <c r="A9" s="72" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E9" s="91"/>
       <c r="F9" s="91"/>
@@ -9519,16 +9517,16 @@
     </row>
     <row r="10" spans="1:10" ht="57.6">
       <c r="A10" s="72" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E10" s="91"/>
       <c r="F10" s="91"/>
@@ -9538,16 +9536,16 @@
     </row>
     <row r="11" spans="1:10" ht="57.6">
       <c r="A11" s="72" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E11" s="91"/>
       <c r="F11" s="91"/>
@@ -9557,16 +9555,16 @@
     </row>
     <row r="12" spans="1:10" ht="57.6">
       <c r="A12" s="72" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="C12" s="72" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E12" s="91"/>
       <c r="F12" s="91"/>
@@ -9576,13 +9574,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="72" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C13" s="72" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="D13" s="72"/>
       <c r="E13" s="91"/>
@@ -9593,13 +9591,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="72" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="D14" s="72"/>
       <c r="E14" s="91"/>
@@ -9610,13 +9608,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="72" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="91"/>
@@ -9651,12 +9649,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="171">
+      <c r="A1" s="144">
         <v>2019</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -9700,7 +9698,7 @@
         <v>213</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
@@ -9717,10 +9715,10 @@
         <v>214</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="E4" s="71"/>
       <c r="F4" s="71"/>
@@ -9736,7 +9734,7 @@
         <v>215</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="D5" s="71"/>
       <c r="E5" s="71"/>
@@ -9753,7 +9751,7 @@
         <v>216</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="D6" s="71"/>
       <c r="E6" s="71"/>
@@ -9791,12 +9789,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="171">
+      <c r="A1" s="144">
         <v>2019</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -9824,7 +9822,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
@@ -9879,13 +9877,13 @@
         <v>295</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="C5" s="69" t="s">
         <v>296</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="E5" s="69" t="s">
         <v>291</v>
@@ -10004,7 +10002,7 @@
       <c r="H10" s="69"/>
       <c r="I10" s="69"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="72">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="100.8">
       <c r="A11" s="69" t="s">
         <v>313</v>
       </c>
@@ -10015,7 +10013,7 @@
         <v>316</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="E11" s="69"/>
       <c r="F11" s="69"/>
@@ -10034,7 +10032,7 @@
         <v>318</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="E12" s="69"/>
       <c r="F12" s="69"/>
@@ -10066,13 +10064,13 @@
         <v>323</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C14" s="64" t="s">
         <v>324</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
@@ -10110,7 +10108,7 @@
         <v>329</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="64"/>
@@ -10129,7 +10127,7 @@
         <v>332</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="64"/>
@@ -10416,12 +10414,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1">
-      <c r="A1" s="171">
+      <c r="A1" s="144">
         <v>2019</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -11267,12 +11265,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1">
-      <c r="A1" s="172">
+      <c r="A1" s="145">
         <v>2019</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -11922,12 +11920,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="37" customFormat="1">
-      <c r="A1" s="171">
+      <c r="A1" s="144">
         <v>2019</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -11974,7 +11972,7 @@
         <v>443</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="E3" s="69" t="s">
         <v>445</v>
@@ -12023,13 +12021,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="69" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="D5" s="64"/>
       <c r="E5" s="69" t="s">
@@ -12059,7 +12057,7 @@
         <v>452</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="E6" s="69" t="s">
         <v>445</v>
@@ -12137,13 +12135,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="69" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="D9" s="64"/>
       <c r="E9" s="69" t="s">
@@ -12167,7 +12165,7 @@
         <v>461</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>462</v>
@@ -12193,13 +12191,13 @@
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="64" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
@@ -12219,7 +12217,7 @@
         <v>466</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="E12" s="64" t="s">
         <v>445</v>
@@ -12333,7 +12331,7 @@
         <v>480</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="E16" s="64" t="s">
         <v>445</v>
@@ -12411,13 +12409,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="69" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="B19" s="69" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C19" s="64" t="s">
         <v>1151</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>1149</v>
       </c>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
@@ -12522,7 +12520,7 @@
         <v>496</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="E23" s="64" t="s">
         <v>445</v>
@@ -12545,7 +12543,7 @@
         <v>497</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="C24" s="69" t="s">
         <v>499</v>
@@ -12636,7 +12634,7 @@
         <v>506</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="E27" s="64" t="s">
         <v>445</v>
@@ -12750,7 +12748,7 @@
         <v>515</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="E31" s="64" t="s">
         <v>516</v>
@@ -12808,7 +12806,7 @@
         <v>530</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="E33" s="64" t="s">
         <v>445</v>
@@ -12968,11 +12966,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DF78F7-F282-409F-A3BB-6F7024B1FD58}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -12991,12 +12989,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="173">
+      <c r="A1" s="146">
         <v>2019</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
       <c r="E1" s="59">
         <v>2018</v>
       </c>
@@ -13026,13 +13024,13 @@
       <c r="D2" s="79" t="s">
         <v>383</v>
       </c>
-      <c r="E2" s="174" t="s">
+      <c r="E2" s="147" t="s">
         <v>542</v>
       </c>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="176"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="149"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="106.2" customHeight="1">
@@ -13055,13 +13053,13 @@
         <v>547</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="J3" s="18"/>
     </row>
@@ -13085,13 +13083,13 @@
         <v>547</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="J4" s="18"/>
     </row>
@@ -13115,13 +13113,13 @@
         <v>547</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="J5" s="18"/>
     </row>
@@ -13133,138 +13131,138 @@
         <v>557</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>1281</v>
+        <v>558</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="96" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>1280</v>
+        <v>563</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>444</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="31.2" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>444</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>547</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="31.2" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>444</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>547</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="102">
       <c r="A10" s="14" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="H10" s="39" t="s">
         <v>445</v>
@@ -13274,14 +13272,14 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="41.4">
-      <c r="A11" s="144" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B11" s="144" t="s">
-        <v>1160</v>
+      <c r="A11" s="168" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B11" s="168" t="s">
+        <v>1162</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>444</v>
@@ -13303,14 +13301,14 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="27.6">
-      <c r="A12" s="144" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B12" s="144" t="s">
-        <v>1161</v>
+      <c r="A12" s="168" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B12" s="168" t="s">
+        <v>1163</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>444</v>
@@ -13322,14 +13320,14 @@
       <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:10" ht="27.6">
-      <c r="A13" s="144" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B13" s="144" t="s">
-        <v>1162</v>
+      <c r="A13" s="168" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B13" s="168" t="s">
+        <v>1164</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>444</v>
@@ -13341,14 +13339,14 @@
       <c r="I13" s="39"/>
     </row>
     <row r="14" spans="1:10" ht="41.4">
-      <c r="A14" s="144" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B14" s="144" t="s">
-        <v>1163</v>
+      <c r="A14" s="168" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B14" s="168" t="s">
+        <v>1165</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="D14" s="38" t="s">
         <v>444</v>
@@ -13360,14 +13358,14 @@
       <c r="I14" s="39"/>
     </row>
     <row r="15" spans="1:10" ht="41.4">
-      <c r="A15" s="144" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B15" s="144" t="s">
-        <v>1164</v>
+      <c r="A15" s="168" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B15" s="168" t="s">
+        <v>1166</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>444</v>
@@ -13379,14 +13377,14 @@
       <c r="I15" s="39"/>
     </row>
     <row r="16" spans="1:10" ht="41.4">
-      <c r="A16" s="144" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B16" s="144" t="s">
-        <v>1165</v>
+      <c r="A16" s="168" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B16" s="168" t="s">
+        <v>1167</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>444</v>
@@ -13398,14 +13396,14 @@
       <c r="I16" s="39"/>
     </row>
     <row r="17" spans="1:9" ht="27.6">
-      <c r="A17" s="144" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B17" s="144" t="s">
-        <v>1166</v>
+      <c r="A17" s="168" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B17" s="168" t="s">
+        <v>1168</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>444</v>
@@ -13417,14 +13415,14 @@
       <c r="I17" s="39"/>
     </row>
     <row r="18" spans="1:9" ht="27.6">
-      <c r="A18" s="144" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B18" s="144" t="s">
-        <v>1167</v>
+      <c r="A18" s="168" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B18" s="168" t="s">
+        <v>1169</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>444</v>
@@ -13437,13 +13435,13 @@
     </row>
     <row r="19" spans="1:9" ht="27.6">
       <c r="A19" s="14" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D19" s="38" t="s">
         <v>444</v>
@@ -13466,25 +13464,25 @@
     </row>
     <row r="20" spans="1:9" ht="91.8">
       <c r="A20" s="14" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>445</v>
@@ -13495,13 +13493,13 @@
     </row>
     <row r="21" spans="1:9" ht="41.4">
       <c r="A21" s="14" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="16" t="s">
@@ -13522,86 +13520,86 @@
     </row>
     <row r="22" spans="1:9" ht="153">
       <c r="A22" s="14" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>547</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="142.80000000000001">
       <c r="A23" s="19" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="224.4">
       <c r="A24" s="19" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="I24" s="42" t="s">
         <v>445</v>
@@ -13609,42 +13607,42 @@
     </row>
     <row r="25" spans="1:9" ht="112.2">
       <c r="A25" s="19" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="H25" s="42" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I25" s="42" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="41.4">
       <c r="A26" s="19" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="42" t="s">
@@ -13665,13 +13663,13 @@
     </row>
     <row r="27" spans="1:9" ht="69">
       <c r="A27" s="19" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D27" s="41" t="s">
         <v>444</v>
@@ -13694,128 +13692,128 @@
     </row>
     <row r="28" spans="1:9" ht="55.2">
       <c r="A28" s="19" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="H28" s="42" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="I28" s="42" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="336.6">
       <c r="A29" s="140" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="B29" s="140" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="H29" s="44" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="40.799999999999997">
       <c r="A30" s="25" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D30" s="43"/>
       <c r="E30" s="24" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="G30" s="44" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="40.799999999999997">
       <c r="A31" s="25" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B31" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>628</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="E31" s="24" t="s">
         <v>625</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>626</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>627</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>623</v>
-      </c>
       <c r="F31" s="24" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="55.2">
       <c r="A32" s="25" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B32" s="170" t="s">
         <v>1262</v>
       </c>
+      <c r="B32" s="195" t="s">
+        <v>1264</v>
+      </c>
       <c r="C32" s="23" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -13825,13 +13823,13 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="25" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B33" s="170" t="s">
-        <v>1265</v>
+        <v>1007</v>
+      </c>
+      <c r="B33" s="195" t="s">
+        <v>1267</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D33" s="43"/>
       <c r="E33" s="24"/>
@@ -13840,47 +13838,47 @@
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:10" ht="244.8">
+    <row r="34" spans="1:10" ht="255">
       <c r="A34" s="22" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C34" s="23" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D34" s="43" t="s">
         <v>1244</v>
       </c>
-      <c r="D34" s="43" t="s">
-        <v>1242</v>
-      </c>
       <c r="E34" s="24" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="J34" s="89" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="25" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D35" s="43"/>
       <c r="E35" s="44" t="s">
@@ -13901,16 +13899,16 @@
     </row>
     <row r="36" spans="1:10" ht="20.399999999999999">
       <c r="A36" s="25" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E36" s="44" t="s">
         <v>445</v>
@@ -13930,39 +13928,39 @@
     </row>
     <row r="37" spans="1:10" ht="244.8">
       <c r="A37" s="140" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="25" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="43"/>
@@ -13984,14 +13982,14 @@
     </row>
     <row r="39" spans="1:10" ht="20.399999999999999">
       <c r="A39" s="25" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="43" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E39" s="44" t="s">
         <v>445</v>
@@ -14011,16 +14009,16 @@
     </row>
     <row r="40" spans="1:10" ht="193.2">
       <c r="A40" s="22" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="E40" s="44" t="s">
         <v>445</v>
@@ -14040,13 +14038,13 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="25" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D41" s="43"/>
       <c r="E41" s="44" t="s">
@@ -14065,21 +14063,21 @@
         <v>445</v>
       </c>
       <c r="J41" s="89" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="20.399999999999999">
       <c r="A42" s="25" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E42" s="44" t="s">
         <v>445</v>
@@ -14099,16 +14097,16 @@
     </row>
     <row r="43" spans="1:10" ht="41.4">
       <c r="A43" s="22" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="E43" s="44" t="s">
         <v>445</v>
@@ -14128,13 +14126,13 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="25" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D44" s="43"/>
       <c r="E44" s="44" t="s">
@@ -14155,16 +14153,16 @@
     </row>
     <row r="45" spans="1:10" ht="20.399999999999999">
       <c r="A45" s="25" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E45" s="44" t="s">
         <v>445</v>
@@ -14184,16 +14182,16 @@
     </row>
     <row r="46" spans="1:10" ht="41.4">
       <c r="A46" s="22" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="E46" s="44" t="s">
         <v>445</v>
@@ -14213,13 +14211,13 @@
     </row>
     <row r="47" spans="1:10" ht="27.6">
       <c r="A47" s="25" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D47" s="43"/>
       <c r="E47" s="44" t="s">
@@ -14240,16 +14238,16 @@
     </row>
     <row r="48" spans="1:10" ht="20.399999999999999">
       <c r="A48" s="25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D48" s="43" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E48" s="44" t="s">
         <v>445</v>
@@ -14269,16 +14267,16 @@
     </row>
     <row r="49" spans="1:10" ht="55.2">
       <c r="A49" s="22" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="E49" s="44" t="s">
         <v>445</v>
@@ -14298,13 +14296,13 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="25" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D50" s="43"/>
       <c r="E50" s="44" t="s">
@@ -14325,16 +14323,16 @@
     </row>
     <row r="51" spans="1:10" ht="20.399999999999999">
       <c r="A51" s="25" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D51" s="43" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E51" s="44" t="s">
         <v>445</v>
@@ -14354,16 +14352,16 @@
     </row>
     <row r="52" spans="1:10" ht="41.4">
       <c r="A52" s="22" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="E52" s="44" t="s">
         <v>445</v>
@@ -14383,13 +14381,13 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="25" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D53" s="43"/>
       <c r="E53" s="44" t="s">
@@ -14408,21 +14406,21 @@
         <v>445</v>
       </c>
       <c r="J53" s="89" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="20.399999999999999">
       <c r="A54" s="25" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D54" s="43" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E54" s="44" t="s">
         <v>445</v>
@@ -14442,13 +14440,13 @@
     </row>
     <row r="55" spans="1:10" ht="55.2">
       <c r="A55" s="22" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="44" t="s">
@@ -14467,21 +14465,21 @@
         <v>445</v>
       </c>
       <c r="J55" s="89" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="20.399999999999999">
       <c r="A56" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D56" s="43" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E56" s="44" t="s">
         <v>445</v>
@@ -14501,42 +14499,42 @@
     </row>
     <row r="57" spans="1:10" ht="61.2">
       <c r="A57" s="28" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D57" s="45" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F57" s="46" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="G57" s="30" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="H57" s="46" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="I57" s="46" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="41.4">
       <c r="A58" s="28" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="D58" s="45"/>
       <c r="E58" s="30" t="s">
@@ -14557,100 +14555,100 @@
     </row>
     <row r="59" spans="1:10" ht="27.6">
       <c r="A59" s="28" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D59" s="45" t="s">
         <v>444</v>
       </c>
       <c r="E59" s="46" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F59" s="46" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G59" s="30" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="H59" s="46" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="I59" s="46" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="27.6">
       <c r="A60" s="28" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D60" s="45" t="s">
         <v>444</v>
       </c>
       <c r="E60" s="46" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F60" s="46" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="G60" s="30" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="H60" s="46" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="I60" s="46" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="112.2">
       <c r="A61" s="28" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D61" s="45" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E61" s="46" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="F61" s="46" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="G61" s="30" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="H61" s="46" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="I61" s="46" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="41.4">
       <c r="A62" s="28" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="D62" s="45" t="s">
         <v>445</v>
@@ -14673,28 +14671,28 @@
     </row>
     <row r="63" spans="1:10" ht="20.399999999999999">
       <c r="A63" s="28" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D63" s="45" t="s">
         <v>444</v>
       </c>
       <c r="E63" s="46" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F63" s="46" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="G63" s="46" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="I63" s="46" t="s">
         <v>445</v>
@@ -14702,28 +14700,28 @@
     </row>
     <row r="64" spans="1:10" ht="81.599999999999994">
       <c r="A64" s="28" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D64" s="45" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E64" s="46" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F64" s="46" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="G64" s="46" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="I64" s="46" t="s">
         <v>445</v>
@@ -14731,13 +14729,13 @@
     </row>
     <row r="65" spans="1:9" ht="27.6">
       <c r="A65" s="28" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="D65" s="45"/>
       <c r="E65" s="45" t="s">
@@ -14758,51 +14756,51 @@
     </row>
     <row r="66" spans="1:9" ht="112.2">
       <c r="A66" s="31" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D66" s="47" t="s">
         <v>444</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F66" s="48" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G66" s="33" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="I66" s="33" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="112.2">
       <c r="A67" s="31" t="s">
-        <v>717</v>
-      </c>
-      <c r="B67" s="145" t="s">
-        <v>1188</v>
+        <v>719</v>
+      </c>
+      <c r="B67" s="169" t="s">
+        <v>1190</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="D67" s="47" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F67" s="48" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G67" s="48" t="s">
         <v>445</v>
@@ -14816,13 +14814,13 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="31" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B68" s="145" t="s">
-        <v>1190</v>
+        <v>1191</v>
+      </c>
+      <c r="B68" s="169" t="s">
+        <v>1192</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D68" s="47"/>
       <c r="E68" s="33" t="s">
@@ -14843,13 +14841,13 @@
     </row>
     <row r="69" spans="1:9" ht="27.6">
       <c r="A69" s="31" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D69" s="47"/>
       <c r="E69" s="48" t="s">
@@ -14870,16 +14868,16 @@
     </row>
     <row r="70" spans="1:9" ht="20.399999999999999">
       <c r="A70" s="34" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E70" s="48" t="s">
         <v>445</v>
@@ -14915,7 +14913,7 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -14928,541 +14926,541 @@
     <col min="2" max="2" width="24.109375" customWidth="1"/>
     <col min="3" max="3" width="56.88671875" style="10" customWidth="1"/>
     <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" style="147" customWidth="1"/>
-    <col min="6" max="9" width="19.44140625" style="147" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="171" customWidth="1"/>
+    <col min="6" max="9" width="19.44140625" style="171" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="177">
+      <c r="A1" s="178">
         <v>2019</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="154">
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="179">
         <v>2018</v>
       </c>
-      <c r="F1" s="154">
+      <c r="F1" s="179">
         <v>2017</v>
       </c>
-      <c r="G1" s="154">
+      <c r="G1" s="179">
         <v>2016</v>
       </c>
-      <c r="H1" s="154">
+      <c r="H1" s="179">
         <v>2015</v>
       </c>
-      <c r="I1" s="154">
+      <c r="I1" s="179">
         <v>2014</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="176" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="176" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="153" t="s">
+      <c r="D2" s="177" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="43.2">
-      <c r="A3" s="158" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B3" s="158" t="s">
+      <c r="A3" s="183" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B3" s="183" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C3" s="183" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D3" s="184" t="s">
+        <v>444</v>
+      </c>
+      <c r="E3" s="181" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="82"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.8">
+      <c r="A4" s="183" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B4" s="183" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C4" s="183" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D4" s="184" t="s">
+        <v>444</v>
+      </c>
+      <c r="E4" s="180" t="s">
+        <v>887</v>
+      </c>
+      <c r="F4" s="180" t="s">
+        <v>888</v>
+      </c>
+      <c r="G4" s="180" t="s">
+        <v>889</v>
+      </c>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="82"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.8">
+      <c r="A5" s="183" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B5" s="183" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C5" s="183" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D5" s="184" t="s">
+        <v>444</v>
+      </c>
+      <c r="E5" s="180" t="s">
+        <v>890</v>
+      </c>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="82"/>
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1" ht="43.2">
+      <c r="A6" s="183" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B6" s="183" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C6" s="183" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D6" s="184" t="s">
+        <v>444</v>
+      </c>
+      <c r="E6" s="180" t="s">
+        <v>891</v>
+      </c>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8">
+      <c r="A7" s="183" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B7" s="183" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C7" s="183" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D7" s="184" t="s">
+        <v>444</v>
+      </c>
+      <c r="E7" s="175"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="82"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8">
+      <c r="A8" s="183" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B8" s="183" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C8" s="183" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D8" s="184" t="s">
+        <v>444</v>
+      </c>
+      <c r="E8" s="172"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.8">
+      <c r="A9" s="183" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B9" s="183" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C9" s="183" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D9" s="184" t="s">
+        <v>444</v>
+      </c>
+      <c r="E9" s="172"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+    </row>
+    <row r="10" spans="1:10" ht="28.8">
+      <c r="A10" s="183" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B10" s="183" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C10" s="183" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D10" s="184" t="s">
+        <v>444</v>
+      </c>
+      <c r="E10" s="172"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+    </row>
+    <row r="11" spans="1:10" ht="43.2">
+      <c r="A11" s="183" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B11" s="183" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C11" s="183" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D11" s="184" t="s">
+        <v>444</v>
+      </c>
+      <c r="E11" s="172"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.8">
+      <c r="A12" s="183" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B12" s="183" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C12" s="183" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D12" s="184" t="s">
+        <v>444</v>
+      </c>
+      <c r="E12" s="172"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.8">
+      <c r="A13" s="183" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B13" s="183" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C13" s="183" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D13" s="184" t="s">
+        <v>444</v>
+      </c>
+      <c r="E13" s="172"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="185" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B14" s="185" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C14" s="186" t="s">
+        <v>649</v>
+      </c>
+      <c r="D14" s="185"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+    </row>
+    <row r="15" spans="1:10" ht="40.799999999999997">
+      <c r="A15" s="185" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B15" s="185" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C15" s="186" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D15" s="187" t="s">
+        <v>629</v>
+      </c>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+    </row>
+    <row r="16" spans="1:10" ht="28.8">
+      <c r="A16" s="194" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B16" s="194" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C16" s="183" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D16" s="184" t="s">
+        <v>444</v>
+      </c>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+    </row>
+    <row r="17" spans="1:9" ht="28.8">
+      <c r="A17" s="186" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B17" s="186" t="s">
         <v>1266</v>
       </c>
-      <c r="C3" s="158" t="s">
-        <v>1207</v>
-      </c>
-      <c r="D3" s="159" t="s">
+      <c r="C17" s="186"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+    </row>
+    <row r="18" spans="1:9" ht="43.2">
+      <c r="A18" s="188" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B18" s="189" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C18" s="189" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D18" s="190" t="s">
         <v>444</v>
       </c>
-      <c r="E3" s="156" t="s">
+      <c r="E18" s="173"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="173"/>
+    </row>
+    <row r="19" spans="1:9" ht="43.2">
+      <c r="A19" s="188" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B19" s="189" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C19" s="189" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D19" s="190" t="s">
+        <v>444</v>
+      </c>
+      <c r="E19" s="173"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="173"/>
+    </row>
+    <row r="20" spans="1:9" ht="43.2">
+      <c r="A20" s="188" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B20" s="189" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C20" s="189" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D20" s="190" t="s">
+        <v>444</v>
+      </c>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
+    </row>
+    <row r="21" spans="1:9" ht="57.6">
+      <c r="A21" s="188" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B21" s="189" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C21" s="189" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D21" s="190" t="s">
+        <v>444</v>
+      </c>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="173"/>
+    </row>
+    <row r="22" spans="1:9" ht="43.2">
+      <c r="A22" s="188" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B22" s="189" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C22" s="189" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D22" s="190" t="s">
+        <v>444</v>
+      </c>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+    </row>
+    <row r="23" spans="1:9" ht="43.2">
+      <c r="A23" s="188" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B23" s="189" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C23" s="189" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D23" s="190" t="s">
+        <v>444</v>
+      </c>
+      <c r="E23" s="173"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="173"/>
+    </row>
+    <row r="24" spans="1:9" ht="43.2">
+      <c r="A24" s="188" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B24" s="189" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C24" s="189" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D24" s="190" t="s">
+        <v>444</v>
+      </c>
+      <c r="E24" s="173"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="173"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="173"/>
+    </row>
+    <row r="25" spans="1:9" ht="57.6">
+      <c r="A25" s="188" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B25" s="189" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C25" s="189" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D25" s="190" t="s">
+        <v>444</v>
+      </c>
+      <c r="E25" s="173"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="173"/>
+    </row>
+    <row r="26" spans="1:9" ht="57.6">
+      <c r="A26" s="188" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B26" s="189" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C26" s="189" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D26" s="190" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="191" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B27" s="192" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C27" s="192" t="s">
+        <v>649</v>
+      </c>
+      <c r="D27" s="191"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="173"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="173"/>
+    </row>
+    <row r="28" spans="1:9" ht="40.799999999999997">
+      <c r="A28" s="191" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B28" s="192" t="s">
         <v>1258</v>
       </c>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="82"/>
-    </row>
-    <row r="4" spans="1:10" ht="28.8">
-      <c r="A4" s="158" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B4" s="158" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C4" s="158" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D4" s="159" t="s">
-        <v>444</v>
-      </c>
-      <c r="E4" s="155" t="s">
-        <v>885</v>
-      </c>
-      <c r="F4" s="155" t="s">
-        <v>886</v>
-      </c>
-      <c r="G4" s="155" t="s">
-        <v>887</v>
-      </c>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="82"/>
-    </row>
-    <row r="5" spans="1:10" ht="28.8">
-      <c r="A5" s="158" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B5" s="158" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C5" s="158" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D5" s="159" t="s">
-        <v>444</v>
-      </c>
-      <c r="E5" s="155" t="s">
-        <v>888</v>
-      </c>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="82"/>
-    </row>
-    <row r="6" spans="1:10" s="10" customFormat="1" ht="43.2">
-      <c r="A6" s="158" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B6" s="158" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C6" s="158" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D6" s="159" t="s">
-        <v>444</v>
-      </c>
-      <c r="E6" s="155" t="s">
-        <v>889</v>
-      </c>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-    </row>
-    <row r="7" spans="1:10" ht="28.8">
-      <c r="A7" s="158" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B7" s="158" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C7" s="158" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D7" s="159" t="s">
-        <v>444</v>
-      </c>
-      <c r="E7" s="151"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="82"/>
-    </row>
-    <row r="8" spans="1:10" ht="28.8">
-      <c r="A8" s="158" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B8" s="158" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C8" s="158" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D8" s="159" t="s">
-        <v>444</v>
-      </c>
-      <c r="E8" s="148"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-    </row>
-    <row r="9" spans="1:10" ht="28.8">
-      <c r="A9" s="158" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B9" s="158" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C9" s="158" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D9" s="159" t="s">
-        <v>444</v>
-      </c>
-      <c r="E9" s="148"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-    </row>
-    <row r="10" spans="1:10" ht="28.8">
-      <c r="A10" s="158" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B10" s="158" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C10" s="158" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D10" s="159" t="s">
-        <v>444</v>
-      </c>
-      <c r="E10" s="148"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-    </row>
-    <row r="11" spans="1:10" ht="43.2">
-      <c r="A11" s="158" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B11" s="158" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C11" s="158" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D11" s="159" t="s">
-        <v>444</v>
-      </c>
-      <c r="E11" s="148"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-    </row>
-    <row r="12" spans="1:10" ht="28.8">
-      <c r="A12" s="158" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B12" s="158" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C12" s="158" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D12" s="159" t="s">
-        <v>444</v>
-      </c>
-      <c r="E12" s="148"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-    </row>
-    <row r="13" spans="1:10" ht="28.8">
-      <c r="A13" s="158" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B13" s="158" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C13" s="158" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D13" s="159" t="s">
-        <v>444</v>
-      </c>
-      <c r="E13" s="148"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="160" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B14" s="160" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C14" s="161" t="s">
-        <v>647</v>
-      </c>
-      <c r="D14" s="160"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-    </row>
-    <row r="15" spans="1:10" ht="40.799999999999997">
-      <c r="A15" s="160" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B15" s="160" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C15" s="161" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D15" s="162" t="s">
-        <v>627</v>
-      </c>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-    </row>
-    <row r="16" spans="1:10" ht="28.8">
-      <c r="A16" s="169" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B16" s="169" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C16" s="158" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D16" s="159" t="s">
-        <v>444</v>
-      </c>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-    </row>
-    <row r="17" spans="1:9" ht="28.8">
-      <c r="A17" s="161" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B17" s="161" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C17" s="161"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-    </row>
-    <row r="18" spans="1:9" ht="43.2">
-      <c r="A18" s="163" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B18" s="164" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C18" s="164" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D18" s="165" t="s">
-        <v>444</v>
-      </c>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-    </row>
-    <row r="19" spans="1:9" ht="43.2">
-      <c r="A19" s="163" t="s">
+      <c r="C28" s="192" t="s">
         <v>1220</v>
       </c>
-      <c r="B19" s="164" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C19" s="164" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D19" s="165" t="s">
-        <v>444</v>
-      </c>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
-    </row>
-    <row r="20" spans="1:9" ht="43.2">
-      <c r="A20" s="163" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B20" s="164" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C20" s="164" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D20" s="165" t="s">
-        <v>444</v>
-      </c>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
-    </row>
-    <row r="21" spans="1:9" ht="57.6">
-      <c r="A21" s="163" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B21" s="164" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C21" s="164" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D21" s="165" t="s">
-        <v>444</v>
-      </c>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-    </row>
-    <row r="22" spans="1:9" ht="43.2">
-      <c r="A22" s="163" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B22" s="164" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C22" s="164" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D22" s="165" t="s">
-        <v>444</v>
-      </c>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="149"/>
-    </row>
-    <row r="23" spans="1:9" ht="43.2">
-      <c r="A23" s="163" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B23" s="164" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C23" s="164" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D23" s="165" t="s">
-        <v>444</v>
-      </c>
-      <c r="E23" s="149"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="149"/>
-    </row>
-    <row r="24" spans="1:9" ht="43.2">
-      <c r="A24" s="163" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B24" s="164" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C24" s="164" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D24" s="165" t="s">
-        <v>444</v>
-      </c>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-    </row>
-    <row r="25" spans="1:9" ht="57.6">
-      <c r="A25" s="163" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B25" s="164" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C25" s="164" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D25" s="165" t="s">
-        <v>444</v>
-      </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-    </row>
-    <row r="26" spans="1:9" ht="57.6">
-      <c r="A26" s="163" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B26" s="164" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C26" s="164" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D26" s="165" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="166" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B27" s="167" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C27" s="167" t="s">
-        <v>647</v>
-      </c>
-      <c r="D27" s="166"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-    </row>
-    <row r="28" spans="1:9" ht="40.799999999999997">
-      <c r="A28" s="166" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B28" s="167" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C28" s="167" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D28" s="168" t="s">
-        <v>627</v>
-      </c>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
+      <c r="D28" s="193" t="s">
+        <v>629</v>
+      </c>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15494,27 +15492,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="181">
+      <c r="A1" s="153">
         <v>2019</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
     </row>
     <row r="2" spans="1:6" ht="72.599999999999994" customHeight="1">
       <c r="A2" s="95" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C2" s="141" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="D2" s="141" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="E2" s="111" t="s">
         <v>0</v>
@@ -15525,457 +15523,457 @@
     </row>
     <row r="3" spans="1:6" ht="137.4" customHeight="1">
       <c r="A3" s="137" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B3" s="99" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C3" s="99" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D3" s="183" t="s">
-        <v>1002</v>
+        <v>1085</v>
+      </c>
+      <c r="D3" s="155" t="s">
+        <v>1004</v>
       </c>
       <c r="E3" s="112" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="F3" s="125" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.2">
       <c r="A4" s="99" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B4" s="98" t="s">
         <v>445</v>
       </c>
       <c r="C4" s="98" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D4" s="184"/>
+        <v>1087</v>
+      </c>
+      <c r="D4" s="156"/>
       <c r="E4" s="112" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="F4" s="125"/>
     </row>
     <row r="5" spans="1:6" ht="43.2">
       <c r="A5" s="99" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C5" s="99" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D5" s="184"/>
+        <v>1088</v>
+      </c>
+      <c r="D5" s="156"/>
       <c r="E5" s="112" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="F5" s="126"/>
     </row>
     <row r="6" spans="1:6" ht="57.6">
       <c r="A6" s="98" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B6" s="99" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C6" s="99" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D6" s="184"/>
+        <v>1089</v>
+      </c>
+      <c r="D6" s="156"/>
       <c r="E6" s="112" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="F6" s="126"/>
     </row>
     <row r="7" spans="1:6" ht="28.8">
       <c r="A7" s="100" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="B7" s="98" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C7" s="98" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D7" s="184"/>
+        <v>1090</v>
+      </c>
+      <c r="D7" s="156"/>
       <c r="E7" s="112" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="F7" s="126"/>
     </row>
     <row r="8" spans="1:6" ht="43.2">
       <c r="A8" s="100" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="B8" s="98" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="C8" s="98" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D8" s="185"/>
+        <v>1091</v>
+      </c>
+      <c r="D8" s="157"/>
       <c r="E8" s="112" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="F8" s="126"/>
     </row>
     <row r="9" spans="1:6" ht="93">
       <c r="A9" s="97" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C9" s="97" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D9" s="182" t="s">
-        <v>1008</v>
+        <v>1092</v>
+      </c>
+      <c r="D9" s="154" t="s">
+        <v>1010</v>
       </c>
       <c r="E9" s="113" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="F9" s="127" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="57.6">
       <c r="A10" s="97" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C10" s="97" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D10" s="182"/>
+        <v>1093</v>
+      </c>
+      <c r="D10" s="154"/>
       <c r="E10" s="113" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="F10" s="127"/>
     </row>
     <row r="11" spans="1:6" ht="28.8">
       <c r="A11" s="101" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B11" s="101" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C11" s="101" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D11" s="186" t="s">
-        <v>1047</v>
+        <v>1094</v>
+      </c>
+      <c r="D11" s="158" t="s">
+        <v>1049</v>
       </c>
       <c r="E11" s="114" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="F11" s="128"/>
     </row>
     <row r="12" spans="1:6" ht="28.8">
       <c r="A12" s="101" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B12" s="101" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C12" s="101" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D12" s="186"/>
+        <v>1095</v>
+      </c>
+      <c r="D12" s="158"/>
       <c r="E12" s="114" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="F12" s="128"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="101" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B13" s="101" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C13" s="101" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D13" s="186"/>
+        <v>1096</v>
+      </c>
+      <c r="D13" s="158"/>
       <c r="E13" s="114" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="F13" s="128"/>
     </row>
     <row r="14" spans="1:6" ht="28.8">
       <c r="A14" s="101" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B14" s="101" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="C14" s="101" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D14" s="186"/>
+        <v>1097</v>
+      </c>
+      <c r="D14" s="158"/>
       <c r="E14" s="114" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="F14" s="128"/>
     </row>
     <row r="15" spans="1:6" ht="28.8">
       <c r="A15" s="101" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B15" s="101" t="s">
         <v>445</v>
       </c>
       <c r="C15" s="101" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D15" s="186"/>
+        <v>1086</v>
+      </c>
+      <c r="D15" s="158"/>
       <c r="E15" s="114" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="F15" s="128"/>
     </row>
     <row r="16" spans="1:6" ht="43.2">
       <c r="A16" s="101" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B16" s="101" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C16" s="101" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D16" s="186"/>
+        <v>1098</v>
+      </c>
+      <c r="D16" s="158"/>
       <c r="E16" s="114" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="F16" s="128"/>
     </row>
     <row r="17" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A17" s="108" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B17" s="108" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C17" s="108" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D17" s="187" t="s">
-        <v>1046</v>
+        <v>1099</v>
+      </c>
+      <c r="D17" s="159" t="s">
+        <v>1048</v>
       </c>
       <c r="E17" s="115" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="F17" s="129"/>
     </row>
     <row r="18" spans="1:6" s="96" customFormat="1" ht="43.2">
       <c r="A18" s="108" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B18" s="108" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C18" s="108" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D18" s="187"/>
+        <v>1100</v>
+      </c>
+      <c r="D18" s="159"/>
       <c r="E18" s="115" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="F18" s="129"/>
     </row>
     <row r="19" spans="1:6" s="96" customFormat="1" ht="43.2">
       <c r="A19" s="138" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B19" s="139" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C19" s="139" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="D19" s="103" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="E19" s="102" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="F19" s="130"/>
     </row>
     <row r="20" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A20" s="109" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B20" s="109" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="C20" s="109" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D20" s="188" t="s">
-        <v>1044</v>
+        <v>1102</v>
+      </c>
+      <c r="D20" s="160" t="s">
+        <v>1046</v>
       </c>
       <c r="E20" s="116" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="F20" s="131"/>
     </row>
     <row r="21" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A21" s="109" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B21" s="109" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C21" s="109" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D21" s="189"/>
+        <v>1103</v>
+      </c>
+      <c r="D21" s="161"/>
       <c r="E21" s="116" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F21" s="131"/>
     </row>
     <row r="22" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A22" s="109" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B22" s="109" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="C22" s="109" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D22" s="189"/>
+        <v>1104</v>
+      </c>
+      <c r="D22" s="161"/>
       <c r="E22" s="116" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="F22" s="131"/>
     </row>
     <row r="23" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A23" s="109" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B23" s="109" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="C23" s="109" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D23" s="190"/>
+        <v>1105</v>
+      </c>
+      <c r="D23" s="162"/>
       <c r="E23" s="116" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="F23" s="131"/>
     </row>
     <row r="24" spans="1:6" s="96" customFormat="1" ht="86.4">
       <c r="A24" s="105" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B24" s="105" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="C24" s="105" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D24" s="106" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="E24" s="117" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="F24" s="132"/>
     </row>
     <row r="25" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A25" s="110" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B25" s="110" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C25" s="110" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D25" s="178" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D25" s="150" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E25" s="118" t="s">
         <v>1061</v>
-      </c>
-      <c r="E25" s="118" t="s">
-        <v>1059</v>
       </c>
       <c r="F25" s="133"/>
     </row>
     <row r="26" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A26" s="110" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B26" s="110" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="C26" s="110" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D26" s="178"/>
+        <v>1108</v>
+      </c>
+      <c r="D26" s="150"/>
       <c r="E26" s="118" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="F26" s="133"/>
     </row>
     <row r="27" spans="1:6" s="96" customFormat="1" ht="72">
       <c r="A27" s="107" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B27" s="107" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="C27" s="107" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="D27" s="104" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E27" s="119" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="F27" s="134"/>
     </row>
     <row r="28" spans="1:6" s="96" customFormat="1" ht="43.2">
       <c r="A28" s="124" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B28" s="124" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="C28" s="124" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D28" s="179" t="s">
-        <v>1068</v>
+        <v>1110</v>
+      </c>
+      <c r="D28" s="151" t="s">
+        <v>1070</v>
       </c>
       <c r="E28" s="124" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="F28" s="135"/>
     </row>
     <row r="29" spans="1:6" s="96" customFormat="1" ht="57.6">
       <c r="A29" s="124" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B29" s="124" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="C29" s="124" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D29" s="180"/>
+        <v>1106</v>
+      </c>
+      <c r="D29" s="152"/>
       <c r="E29" s="124" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="F29" s="135"/>
     </row>
@@ -16012,18 +16010,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16211,25 +16209,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4CF47-E673-4F26-A959-0B7774EBA194}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4aae9226-4411-406b-98ce-94e2e69fab2c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4CF47-E673-4F26-A959-0B7774EBA194}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4aae9226-4411-406b-98ce-94e2e69fab2c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_MA abril 7.xlsx
+++ b/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_MA abril 7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/macuna_worldbank_org/Documents/Venezuela/ENCOVI/2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb550905\Github\VEN\data_management\management\2. harmonization\ENCOVI harmonization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{439BB2CF-CA98-484F-BC61-DFADB7312308}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B2B093E7-ECD7-48CC-A0EE-BBF2385FFA55}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D8A0D9-5B19-40EE-B1A7-A4599F626D1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8592" yWindow="8076" windowWidth="17280" windowHeight="8964" tabRatio="805" firstSheet="7" activeTab="7" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" tabRatio="805" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Control_entrevista" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="1282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="1284">
   <si>
     <t>Questions</t>
   </si>
@@ -2375,9 +2375,6 @@
     <t>razon_no_trabajo</t>
   </si>
   <si>
-    <t>Cuál es la razón principal por la que no trabajó la semana pasada?</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 = Estaba enfermo
 			2 = Vacaciones
 			3 = Permiso
@@ -2413,9 +2410,6 @@
   </si>
   <si>
     <t>sueldo_semana</t>
-  </si>
-  <si>
-    <t>Durante la semana pasada recibió sueldo o ganancias?</t>
   </si>
   <si>
     <t>tmhp42 (no es exactamente igual, refiere al mes pasado): ¿CUÁNTO RECIBIÓ… EN TOTAL DURANTE EL MES PASADO POR EL TRABAJO REALIZADO?
@@ -5240,6 +5234,29 @@
   </si>
   <si>
     <t>Recibió el mes pasado ingresos por alguno de los siguientes conceptos y cuánto? Petro</t>
+  </si>
+  <si>
+    <t>Durante la semana pasada recibió sueldo o ganancias? 
+(solo para los que s9q3 / trabajo_independiente==1)</t>
+  </si>
+  <si>
+    <t>Cuál es la razón principal por la que no trabajó la semana pasada?
+(solo para los que s9q3 / trabajo_independiente==1)</t>
+  </si>
+  <si>
+    <t>region_est1</t>
+  </si>
+  <si>
+    <t>1 "Region Central"  2 "Region de los LLanos" 3 "Region Centro-Occidental" 4 "Region Zuliana" 5 "Region de los Andes" 6 "Region Nor-Oriental" 7 "Insular" 8 "Guayana" 9 "Capital" 
+(1. Región Central:  Aragua, Carabobo y Cojedes.
+2. Región de los Llanos: Guárico, Apure, con excepción del Municipio Páez.
+3. Región Centro-Occidental: Falcón, Lara, Portuguesa y Yaracuy.
+4. Región Zuliana: Zulia
+5. Región de los Andes: Barinas, Mérida, Táchira, Trujillo y el municipio Páez del Estado Apure
+6. Región Nor-Oriental: Anzoátegui, Monagas y Sucre.
+7. Región Insular: Nueva Esparta y las Dependencias Federales Venezolanas.
+8. Región Guayana:  Bolívar, Amazonas y Delta Amacuro.
+9. Región Capital:  Miranda, Vargas y el Distrito Capital)</t>
   </si>
 </sst>
 </file>
@@ -5580,7 +5597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6003,78 +6020,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6104,9 +6049,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -6155,6 +6097,82 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6477,13 +6495,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EB13EA-9D19-485D-B79E-DD135D2FDA0B}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6492,12 +6510,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="171">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -6743,10 +6761,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="71" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C15" s="71" t="s">
         <v>168</v>
@@ -6968,10 +6986,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="71" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B30" s="71" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C30" s="71"/>
       <c r="D30" s="71"/>
@@ -7060,6 +7078,17 @@
       <c r="G36" s="71"/>
       <c r="H36" s="71"/>
       <c r="I36" s="71"/>
+    </row>
+    <row r="37" spans="1:9" ht="409.6">
+      <c r="A37" s="196" t="s">
+        <v>445</v>
+      </c>
+      <c r="B37" s="196" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>1283</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7089,12 +7118,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="171">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -7339,12 +7368,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="171">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -7374,24 +7403,24 @@
       <c r="D2" s="61" t="s">
         <v>383</v>
       </c>
-      <c r="E2" s="163" t="s">
-        <v>846</v>
-      </c>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
+      <c r="E2" s="191" t="s">
+        <v>844</v>
+      </c>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
       <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:10" s="52" customFormat="1" ht="28.8">
       <c r="A3" s="62" t="s">
+        <v>845</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>846</v>
+      </c>
+      <c r="C3" s="63" t="s">
         <v>847</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>848</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>849</v>
       </c>
       <c r="D3" s="64"/>
       <c r="E3" s="65" t="s">
@@ -7413,13 +7442,13 @@
     </row>
     <row r="4" spans="1:10" s="52" customFormat="1" ht="28.8">
       <c r="A4" s="62" t="s">
+        <v>848</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>849</v>
+      </c>
+      <c r="C4" s="63" t="s">
         <v>850</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>851</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>852</v>
       </c>
       <c r="D4" s="64"/>
       <c r="E4" s="65" t="s">
@@ -7441,22 +7470,22 @@
     </row>
     <row r="5" spans="1:10" s="52" customFormat="1" ht="40.799999999999997">
       <c r="A5" s="62" t="s">
+        <v>851</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>852</v>
+      </c>
+      <c r="C5" s="63" t="s">
         <v>853</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="D5" s="64" t="s">
         <v>854</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="E5" s="66" t="s">
         <v>855</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="F5" s="65" t="s">
         <v>856</v>
-      </c>
-      <c r="E5" s="66" t="s">
-        <v>857</v>
-      </c>
-      <c r="F5" s="65" t="s">
-        <v>858</v>
       </c>
       <c r="G5" s="65" t="s">
         <v>445</v>
@@ -7471,22 +7500,22 @@
     </row>
     <row r="6" spans="1:10" s="52" customFormat="1" ht="81.599999999999994">
       <c r="A6" s="62" t="s">
+        <v>857</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>858</v>
+      </c>
+      <c r="C6" s="63" t="s">
         <v>859</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="D6" s="64" t="s">
         <v>860</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="E6" s="66" t="s">
         <v>861</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="F6" s="65" t="s">
         <v>862</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>863</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>864</v>
       </c>
       <c r="G6" s="65" t="s">
         <v>445</v>
@@ -7501,13 +7530,13 @@
     </row>
     <row r="7" spans="1:10" s="52" customFormat="1">
       <c r="A7" s="62" t="s">
+        <v>863</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>864</v>
+      </c>
+      <c r="C7" s="63" t="s">
         <v>865</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>866</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>867</v>
       </c>
       <c r="D7" s="64"/>
       <c r="E7" s="65" t="s">
@@ -7529,13 +7558,13 @@
     </row>
     <row r="8" spans="1:10" s="52" customFormat="1" ht="28.8">
       <c r="A8" s="62" t="s">
+        <v>866</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>867</v>
+      </c>
+      <c r="C8" s="63" t="s">
         <v>868</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>869</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>870</v>
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="65" t="s">
@@ -7557,13 +7586,13 @@
     </row>
     <row r="9" spans="1:10" s="52" customFormat="1" ht="72">
       <c r="A9" s="62" t="s">
+        <v>869</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>870</v>
+      </c>
+      <c r="C9" s="63" t="s">
         <v>871</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>872</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>873</v>
       </c>
       <c r="D9" s="64" t="s">
         <v>477</v>
@@ -7587,20 +7616,20 @@
     </row>
     <row r="10" spans="1:10" s="52" customFormat="1" ht="30.6">
       <c r="A10" s="62" t="s">
+        <v>872</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>873</v>
+      </c>
+      <c r="C10" s="63" t="s">
         <v>874</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>875</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>876</v>
       </c>
       <c r="D10" s="64"/>
       <c r="E10" s="66" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F10" s="65" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G10" s="65" t="s">
         <v>445</v>
@@ -7615,22 +7644,22 @@
     </row>
     <row r="11" spans="1:10" s="52" customFormat="1" ht="72">
       <c r="A11" s="62" t="s">
+        <v>877</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>878</v>
+      </c>
+      <c r="C11" s="63" t="s">
         <v>879</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>880</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>881</v>
       </c>
       <c r="D11" s="64" t="s">
         <v>477</v>
       </c>
       <c r="E11" s="66" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F11" s="65" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G11" s="65" t="s">
         <v>445</v>
@@ -7644,20 +7673,20 @@
     </row>
     <row r="12" spans="1:10" s="52" customFormat="1" ht="40.799999999999997">
       <c r="A12" s="62" t="s">
+        <v>880</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>881</v>
+      </c>
+      <c r="C12" s="63" t="s">
         <v>882</v>
-      </c>
-      <c r="B12" s="62" t="s">
-        <v>883</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>884</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="66" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G12" s="65" t="s">
         <v>445</v>
@@ -8121,12 +8150,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="171">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -8154,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
@@ -8164,15 +8193,15 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="69" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B3" s="69"/>
       <c r="C3" s="69" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D3" s="69"/>
       <c r="E3" s="71" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F3" s="71"/>
       <c r="G3" s="142"/>
@@ -8181,20 +8210,20 @@
     </row>
     <row r="4" spans="1:9" ht="28.8">
       <c r="A4" s="69" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B4" s="69"/>
       <c r="C4" s="69" t="s">
+        <v>731</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>732</v>
+      </c>
+      <c r="E4" s="69" t="s">
         <v>733</v>
       </c>
-      <c r="D4" s="64" t="s">
-        <v>734</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>735</v>
-      </c>
       <c r="F4" s="71" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G4" s="142"/>
       <c r="H4" s="142"/>
@@ -8202,18 +8231,18 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="69" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B5" s="69"/>
       <c r="C5" s="69" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D5" s="69"/>
       <c r="E5" s="71" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F5" s="71" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G5" s="142"/>
       <c r="H5" s="142"/>
@@ -8221,18 +8250,18 @@
     </row>
     <row r="6" spans="1:9" ht="87" customHeight="1">
       <c r="A6" s="69" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B6" s="69"/>
       <c r="C6" s="64" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D6" s="69"/>
       <c r="E6" s="69" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="G6" s="142"/>
       <c r="H6" s="142"/>
@@ -8240,15 +8269,15 @@
     </row>
     <row r="7" spans="1:9" ht="28.8">
       <c r="A7" s="69" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B7" s="69"/>
       <c r="C7" s="64" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D7" s="69"/>
       <c r="E7" s="71" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="142"/>
@@ -8257,17 +8286,17 @@
     </row>
     <row r="8" spans="1:9" ht="28.8">
       <c r="A8" s="69" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B8" s="69"/>
       <c r="C8" s="69" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F8" s="71"/>
       <c r="G8" s="142"/>
@@ -8276,14 +8305,14 @@
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="180" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -8293,11 +8322,11 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="71" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B10" s="71"/>
       <c r="C10" s="71" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D10" s="71"/>
       <c r="E10" s="71"/>
@@ -8308,14 +8337,14 @@
     </row>
     <row r="11" spans="1:9" ht="172.8">
       <c r="A11" s="69" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B11" s="69"/>
       <c r="C11" s="64" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
@@ -8325,14 +8354,14 @@
     </row>
     <row r="12" spans="1:9" ht="201.6">
       <c r="A12" s="69" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B12" s="69"/>
       <c r="C12" s="64" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
@@ -8342,11 +8371,11 @@
     </row>
     <row r="13" spans="1:9" ht="43.2">
       <c r="A13" s="69" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B13" s="71"/>
       <c r="C13" s="72" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D13" s="71"/>
       <c r="E13" s="71"/>
@@ -8357,14 +8386,14 @@
     </row>
     <row r="14" spans="1:9" ht="43.2">
       <c r="A14" s="69" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B14" s="71"/>
       <c r="C14" s="72" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
@@ -8374,11 +8403,11 @@
     </row>
     <row r="15" spans="1:9" ht="43.2">
       <c r="A15" s="69" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B15" s="71"/>
       <c r="C15" s="72" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D15" s="71"/>
       <c r="E15" s="71"/>
@@ -8389,11 +8418,11 @@
     </row>
     <row r="16" spans="1:9" ht="43.2">
       <c r="A16" s="69" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B16" s="71"/>
       <c r="C16" s="72" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D16" s="71"/>
       <c r="E16" s="71"/>
@@ -8404,11 +8433,11 @@
     </row>
     <row r="17" spans="1:9" ht="43.2">
       <c r="A17" s="69" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B17" s="71"/>
       <c r="C17" s="72" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D17" s="71"/>
       <c r="E17" s="71"/>
@@ -8419,14 +8448,14 @@
     </row>
     <row r="18" spans="1:9" ht="230.4">
       <c r="A18" s="69" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B18" s="69"/>
       <c r="C18" s="64" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D18" s="64" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
@@ -8436,11 +8465,11 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="71" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B19" s="71"/>
       <c r="C19" s="71" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D19" s="71"/>
       <c r="E19" s="71"/>
@@ -8451,11 +8480,11 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="71" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B20" s="71"/>
       <c r="C20" s="72" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D20" s="71"/>
       <c r="E20" s="71"/>
@@ -8466,14 +8495,14 @@
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" ht="28.8">
       <c r="A21" s="69" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B21" s="69"/>
       <c r="C21" s="69" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D21" s="64" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E21" s="69"/>
       <c r="F21" s="69"/>
@@ -8483,14 +8512,14 @@
     </row>
     <row r="22" spans="1:9" ht="86.4">
       <c r="A22" s="69" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B22" s="69"/>
       <c r="C22" s="64" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D22" s="64" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
@@ -8500,17 +8529,17 @@
     </row>
     <row r="23" spans="1:9" ht="187.2">
       <c r="A23" s="69" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B23" s="69"/>
       <c r="C23" s="64" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F23" s="71"/>
       <c r="G23" s="142"/>
@@ -8519,11 +8548,11 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="71" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B24" s="71"/>
       <c r="C24" s="71" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D24" s="71"/>
       <c r="E24" s="71"/>
@@ -8534,14 +8563,14 @@
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" ht="374.55" customHeight="1">
       <c r="A25" s="69" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B25" s="69"/>
       <c r="C25" s="64" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E25" s="69"/>
       <c r="F25" s="69"/>
@@ -8551,14 +8580,14 @@
     </row>
     <row r="26" spans="1:9" ht="379.05" customHeight="1">
       <c r="A26" s="64" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B26" s="64"/>
       <c r="C26" s="64" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E26" s="71"/>
       <c r="F26" s="71"/>
@@ -8568,14 +8597,14 @@
     </row>
     <row r="27" spans="1:9" ht="43.2">
       <c r="A27" s="64" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B27" s="71"/>
       <c r="C27" s="72" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E27" s="71"/>
       <c r="F27" s="71"/>
@@ -8585,11 +8614,11 @@
     </row>
     <row r="28" spans="1:9" ht="28.8">
       <c r="A28" s="64" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B28" s="71"/>
       <c r="C28" s="64" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="71"/>
@@ -8600,14 +8629,14 @@
     </row>
     <row r="29" spans="1:9" ht="172.8">
       <c r="A29" s="64" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B29" s="71"/>
       <c r="C29" s="64" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D29" s="72" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E29" s="71"/>
       <c r="F29" s="71"/>
@@ -8617,14 +8646,14 @@
     </row>
     <row r="30" spans="1:9" ht="43.2">
       <c r="A30" s="64" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B30" s="71"/>
       <c r="C30" s="72" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D30" s="64" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E30" s="71"/>
       <c r="F30" s="71"/>
@@ -8767,12 +8796,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="37" customFormat="1">
-      <c r="A1" s="164">
+      <c r="A1" s="192">
         <v>2019</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="165"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="193"/>
     </row>
     <row r="2" spans="1:5" s="50" customFormat="1" ht="43.2">
       <c r="A2" s="94" t="s">
@@ -8785,36 +8814,36 @@
         <v>0</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5" ht="57.6">
       <c r="A3" s="71" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B3" s="71" t="s">
         <v>1118</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="C3" s="72" t="s">
         <v>1120</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="D3" s="71" t="s">
         <v>1122</v>
-      </c>
-      <c r="D3" s="71" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="57.6">
       <c r="A4" s="71" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>1119</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="C4" s="72" t="s">
         <v>1121</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="D4" s="72" t="s">
         <v>1123</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>1125</v>
       </c>
     </row>
   </sheetData>
@@ -8848,13 +8877,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="37" customFormat="1">
-      <c r="A1" s="164">
+      <c r="A1" s="192">
         <v>2019</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="165"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="193"/>
       <c r="F1" s="60">
         <v>2018</v>
       </c>
@@ -8872,10 +8901,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="50" customFormat="1" ht="43.2">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="195" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="167"/>
+      <c r="B2" s="195"/>
       <c r="C2" s="61" t="s">
         <v>128</v>
       </c>
@@ -8883,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F2" s="83"/>
       <c r="G2" s="83"/>
@@ -8893,353 +8922,353 @@
       <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="72">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="194" t="s">
+        <v>890</v>
+      </c>
+      <c r="B3" s="194"/>
+      <c r="C3" s="71" t="s">
+        <v>904</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>917</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>932</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>933</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>948</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>956</v>
+      </c>
+      <c r="I3" s="87" t="s">
+        <v>957</v>
+      </c>
+      <c r="J3" s="87" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8">
+      <c r="A4" s="194" t="s">
+        <v>920</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>891</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>905</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>918</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>932</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>936</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="115.2">
+      <c r="A5" s="194"/>
+      <c r="B5" s="70" t="s">
         <v>892</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="71" t="s">
+      <c r="C5" s="70" t="s">
         <v>906</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D5" s="70" t="s">
         <v>919</v>
       </c>
-      <c r="E3" s="72" t="s">
-        <v>934</v>
-      </c>
-      <c r="F3" s="72" t="s">
-        <v>935</v>
-      </c>
-      <c r="G3" s="72" t="s">
+      <c r="E5" s="70" t="s">
+        <v>932</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>937</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>949</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="I5" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="144">
+      <c r="A6" s="194"/>
+      <c r="B6" s="70" t="s">
+        <v>893</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>907</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>921</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>932</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>938</v>
+      </c>
+      <c r="G6" s="70" t="s">
         <v>950</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H6" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="I6" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="J6" s="85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="144">
+      <c r="A7" s="194"/>
+      <c r="B7" s="70" t="s">
+        <v>894</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>908</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>922</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>932</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>939</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>950</v>
+      </c>
+      <c r="H7" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="I7" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="J7" s="85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="187.2">
+      <c r="A8" s="194"/>
+      <c r="B8" s="70" t="s">
+        <v>895</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>909</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>923</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>932</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>940</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>953</v>
+      </c>
+      <c r="H8" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="I8" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="J8" s="85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="302.39999999999998">
+      <c r="A9" s="194"/>
+      <c r="B9" s="70" t="s">
+        <v>896</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>910</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>924</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>932</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>951</v>
+      </c>
+      <c r="H9" s="85" t="s">
+        <v>955</v>
+      </c>
+      <c r="I9" s="85" t="s">
         <v>958</v>
       </c>
-      <c r="I3" s="87" t="s">
-        <v>959</v>
-      </c>
-      <c r="J3" s="87" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.8">
-      <c r="A4" s="166" t="s">
-        <v>922</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>893</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>907</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>920</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>934</v>
-      </c>
-      <c r="F4" s="70" t="s">
-        <v>938</v>
-      </c>
-      <c r="G4" s="70" t="s">
-        <v>445</v>
-      </c>
-      <c r="H4" s="70" t="s">
-        <v>445</v>
-      </c>
-      <c r="I4" s="70" t="s">
-        <v>445</v>
-      </c>
-      <c r="J4" s="70" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="115.2">
-      <c r="A5" s="166"/>
-      <c r="B5" s="70" t="s">
-        <v>894</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>908</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>921</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>934</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>939</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>951</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>445</v>
-      </c>
-      <c r="I5" s="70" t="s">
-        <v>445</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="144">
-      <c r="A6" s="166"/>
-      <c r="B6" s="70" t="s">
-        <v>895</v>
-      </c>
-      <c r="C6" s="70" t="s">
-        <v>909</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>923</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>934</v>
-      </c>
-      <c r="F6" s="70" t="s">
-        <v>940</v>
-      </c>
-      <c r="G6" s="70" t="s">
+      <c r="J9" s="85" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="82" customFormat="1" ht="259.2">
+      <c r="A10" s="194"/>
+      <c r="B10" s="86" t="s">
+        <v>897</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>911</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>925</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>932</v>
+      </c>
+      <c r="F10" s="86" t="s">
+        <v>942</v>
+      </c>
+      <c r="G10" s="86" t="s">
         <v>952</v>
       </c>
-      <c r="H6" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="I6" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="J6" s="85" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="144">
-      <c r="A7" s="166"/>
-      <c r="B7" s="70" t="s">
-        <v>896</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>910</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>924</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>934</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>941</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>952</v>
-      </c>
-      <c r="H7" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="I7" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="J7" s="85" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="187.2">
-      <c r="A8" s="166"/>
-      <c r="B8" s="70" t="s">
-        <v>897</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>911</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>925</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>934</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>942</v>
-      </c>
-      <c r="G8" s="70" t="s">
+      <c r="H10" s="85" t="s">
         <v>955</v>
       </c>
-      <c r="H8" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="I8" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="J8" s="85" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="302.39999999999998">
-      <c r="A9" s="166"/>
-      <c r="B9" s="70" t="s">
+      <c r="I10" s="85" t="s">
+        <v>958</v>
+      </c>
+      <c r="J10" s="85" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="187.2">
+      <c r="A11" s="194"/>
+      <c r="B11" s="70" t="s">
         <v>898</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C11" s="70" t="s">
         <v>912</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D11" s="70" t="s">
         <v>926</v>
       </c>
-      <c r="E9" s="70" t="s">
-        <v>934</v>
-      </c>
-      <c r="F9" s="70" t="s">
+      <c r="E11" s="70" t="s">
+        <v>932</v>
+      </c>
+      <c r="F11" s="70" t="s">
         <v>943</v>
       </c>
-      <c r="G9" s="70" t="s">
+      <c r="G11" s="70" t="s">
         <v>953</v>
       </c>
-      <c r="H9" s="85" t="s">
-        <v>957</v>
-      </c>
-      <c r="I9" s="85" t="s">
-        <v>960</v>
-      </c>
-      <c r="J9" s="85" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="82" customFormat="1" ht="259.2">
-      <c r="A10" s="166"/>
-      <c r="B10" s="86" t="s">
+      <c r="H11" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="I11" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="J11" s="85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="144">
+      <c r="A12" s="194"/>
+      <c r="B12" s="70" t="s">
         <v>899</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C12" s="70" t="s">
         <v>913</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D12" s="70" t="s">
         <v>927</v>
       </c>
-      <c r="E10" s="86" t="s">
-        <v>934</v>
-      </c>
-      <c r="F10" s="86" t="s">
+      <c r="E12" s="70" t="s">
+        <v>932</v>
+      </c>
+      <c r="F12" s="70" t="s">
         <v>944</v>
       </c>
-      <c r="G10" s="86" t="s">
+      <c r="G12" s="70" t="s">
+        <v>950</v>
+      </c>
+      <c r="H12" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="I12" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="J12" s="85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="144">
+      <c r="A13" s="194"/>
+      <c r="B13" s="70" t="s">
+        <v>900</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>914</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>928</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>932</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>945</v>
+      </c>
+      <c r="G13" s="70" t="s">
         <v>954</v>
       </c>
-      <c r="H10" s="85" t="s">
-        <v>957</v>
-      </c>
-      <c r="I10" s="85" t="s">
-        <v>960</v>
-      </c>
-      <c r="J10" s="85" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="187.2">
-      <c r="A11" s="166"/>
-      <c r="B11" s="70" t="s">
-        <v>900</v>
-      </c>
-      <c r="C11" s="70" t="s">
-        <v>914</v>
-      </c>
-      <c r="D11" s="70" t="s">
-        <v>928</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>934</v>
-      </c>
-      <c r="F11" s="70" t="s">
-        <v>945</v>
-      </c>
-      <c r="G11" s="70" t="s">
-        <v>955</v>
-      </c>
-      <c r="H11" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="I11" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="J11" s="85" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="144">
-      <c r="A12" s="166"/>
-      <c r="B12" s="70" t="s">
+      <c r="H13" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="I13" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="J13" s="85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.8">
+      <c r="A14" s="194"/>
+      <c r="B14" s="70" t="s">
         <v>901</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C14" s="70" t="s">
         <v>915</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D14" s="70" t="s">
         <v>929</v>
       </c>
-      <c r="E12" s="70" t="s">
-        <v>934</v>
-      </c>
-      <c r="F12" s="70" t="s">
+      <c r="E14" s="70" t="s">
+        <v>932</v>
+      </c>
+      <c r="F14" s="70" t="s">
         <v>946</v>
-      </c>
-      <c r="G12" s="70" t="s">
-        <v>952</v>
-      </c>
-      <c r="H12" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="I12" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="J12" s="85" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="144">
-      <c r="A13" s="166"/>
-      <c r="B13" s="70" t="s">
-        <v>902</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>916</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>930</v>
-      </c>
-      <c r="E13" s="70" t="s">
-        <v>934</v>
-      </c>
-      <c r="F13" s="70" t="s">
-        <v>947</v>
-      </c>
-      <c r="G13" s="70" t="s">
-        <v>956</v>
-      </c>
-      <c r="H13" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="I13" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="J13" s="85" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="28.8">
-      <c r="A14" s="166"/>
-      <c r="B14" s="70" t="s">
-        <v>903</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>917</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>931</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>934</v>
-      </c>
-      <c r="F14" s="70" t="s">
-        <v>948</v>
       </c>
       <c r="G14" s="70"/>
       <c r="H14" s="85" t="s">
@@ -9253,21 +9282,21 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="28.8">
-      <c r="A15" s="166"/>
+      <c r="A15" s="194"/>
       <c r="B15" s="70" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D15" s="70" t="s">
+        <v>930</v>
+      </c>
+      <c r="E15" s="70" t="s">
         <v>932</v>
       </c>
-      <c r="E15" s="70" t="s">
-        <v>934</v>
-      </c>
       <c r="F15" s="70" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="G15" s="70"/>
       <c r="H15" s="85" t="s">
@@ -9281,18 +9310,18 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="43.2">
-      <c r="A16" s="166" t="s">
-        <v>905</v>
-      </c>
-      <c r="B16" s="166"/>
+      <c r="A16" s="194" t="s">
+        <v>903</v>
+      </c>
+      <c r="B16" s="194"/>
       <c r="C16" s="70" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F16" s="70" t="s">
         <v>445</v>
@@ -9342,12 +9371,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="90" customFormat="1">
-      <c r="A1" s="153">
+      <c r="A1" s="181">
         <v>2019</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
       <c r="E1" s="84">
         <v>2018</v>
       </c>
@@ -9375,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E2" s="83"/>
       <c r="F2" s="83"/>
@@ -9386,16 +9415,16 @@
     </row>
     <row r="3" spans="1:10" ht="28.8">
       <c r="A3" s="72" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E3" s="91"/>
       <c r="F3" s="91"/>
@@ -9405,20 +9434,20 @@
     </row>
     <row r="4" spans="1:10" ht="87">
       <c r="A4" s="72" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E4" s="91"/>
       <c r="F4" s="93" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G4" s="91"/>
       <c r="H4" s="91"/>
@@ -9426,16 +9455,16 @@
     </row>
     <row r="5" spans="1:10" ht="28.8">
       <c r="A5" s="72" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D5" s="72" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E5" s="91"/>
       <c r="F5" s="92"/>
@@ -9445,16 +9474,16 @@
     </row>
     <row r="6" spans="1:10" ht="43.2">
       <c r="A6" s="72" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E6" s="91"/>
       <c r="F6" s="91"/>
@@ -9464,13 +9493,13 @@
     </row>
     <row r="7" spans="1:10" ht="28.8">
       <c r="A7" s="72" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C7" s="72" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="91"/>
@@ -9481,13 +9510,13 @@
     </row>
     <row r="8" spans="1:10" ht="28.8">
       <c r="A8" s="72" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="91"/>
@@ -9498,16 +9527,16 @@
     </row>
     <row r="9" spans="1:10" ht="28.8">
       <c r="A9" s="72" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E9" s="91"/>
       <c r="F9" s="91"/>
@@ -9517,16 +9546,16 @@
     </row>
     <row r="10" spans="1:10" ht="57.6">
       <c r="A10" s="72" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E10" s="91"/>
       <c r="F10" s="91"/>
@@ -9536,16 +9565,16 @@
     </row>
     <row r="11" spans="1:10" ht="57.6">
       <c r="A11" s="72" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E11" s="91"/>
       <c r="F11" s="91"/>
@@ -9555,16 +9584,16 @@
     </row>
     <row r="12" spans="1:10" ht="57.6">
       <c r="A12" s="72" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C12" s="72" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E12" s="91"/>
       <c r="F12" s="91"/>
@@ -9574,13 +9603,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="72" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C13" s="72" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D13" s="72"/>
       <c r="E13" s="91"/>
@@ -9591,13 +9620,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="72" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D14" s="72"/>
       <c r="E14" s="91"/>
@@ -9608,13 +9637,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="72" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="91"/>
@@ -9649,12 +9678,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="171">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -9698,7 +9727,7 @@
         <v>213</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
@@ -9715,10 +9744,10 @@
         <v>214</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E4" s="71"/>
       <c r="F4" s="71"/>
@@ -9734,7 +9763,7 @@
         <v>215</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D5" s="71"/>
       <c r="E5" s="71"/>
@@ -9751,7 +9780,7 @@
         <v>216</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D6" s="71"/>
       <c r="E6" s="71"/>
@@ -9789,12 +9818,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="171">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -9822,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
@@ -9877,13 +9906,13 @@
         <v>295</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C5" s="69" t="s">
         <v>296</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E5" s="69" t="s">
         <v>291</v>
@@ -10002,7 +10031,7 @@
       <c r="H10" s="69"/>
       <c r="I10" s="69"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="100.8">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="72">
       <c r="A11" s="69" t="s">
         <v>313</v>
       </c>
@@ -10013,7 +10042,7 @@
         <v>316</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E11" s="69"/>
       <c r="F11" s="69"/>
@@ -10032,7 +10061,7 @@
         <v>318</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E12" s="69"/>
       <c r="F12" s="69"/>
@@ -10064,13 +10093,13 @@
         <v>323</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C14" s="64" t="s">
         <v>324</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
@@ -10108,7 +10137,7 @@
         <v>329</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="64"/>
@@ -10127,7 +10156,7 @@
         <v>332</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="64"/>
@@ -10414,12 +10443,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="171">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -11265,12 +11294,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1">
-      <c r="A1" s="145">
+      <c r="A1" s="172">
         <v>2019</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -11920,12 +11949,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="37" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="171">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -11972,7 +12001,7 @@
         <v>443</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E3" s="69" t="s">
         <v>445</v>
@@ -12021,13 +12050,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="69" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D5" s="64"/>
       <c r="E5" s="69" t="s">
@@ -12057,7 +12086,7 @@
         <v>452</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E6" s="69" t="s">
         <v>445</v>
@@ -12135,13 +12164,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="69" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D9" s="64"/>
       <c r="E9" s="69" t="s">
@@ -12165,7 +12194,7 @@
         <v>461</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>462</v>
@@ -12191,13 +12220,13 @@
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="64" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B11" s="69" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C11" s="64" t="s">
         <v>1149</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>1151</v>
       </c>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
@@ -12217,7 +12246,7 @@
         <v>466</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E12" s="64" t="s">
         <v>445</v>
@@ -12331,7 +12360,7 @@
         <v>480</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E16" s="64" t="s">
         <v>445</v>
@@ -12409,13 +12438,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="69" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
@@ -12520,7 +12549,7 @@
         <v>496</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E23" s="64" t="s">
         <v>445</v>
@@ -12543,7 +12572,7 @@
         <v>497</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C24" s="69" t="s">
         <v>499</v>
@@ -12634,7 +12663,7 @@
         <v>506</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E27" s="64" t="s">
         <v>445</v>
@@ -12748,7 +12777,7 @@
         <v>515</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E31" s="64" t="s">
         <v>516</v>
@@ -12806,7 +12835,7 @@
         <v>530</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E33" s="64" t="s">
         <v>445</v>
@@ -12967,10 +12996,10 @@
   <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -12989,12 +13018,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="146">
+      <c r="A1" s="173">
         <v>2019</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
       <c r="E1" s="59">
         <v>2018</v>
       </c>
@@ -13024,13 +13053,13 @@
       <c r="D2" s="79" t="s">
         <v>383</v>
       </c>
-      <c r="E2" s="147" t="s">
+      <c r="E2" s="174" t="s">
         <v>542</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="149"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="176"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="106.2" customHeight="1">
@@ -13053,13 +13082,13 @@
         <v>547</v>
       </c>
       <c r="G3" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="I3" s="39" t="s">
         <v>797</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>798</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>799</v>
       </c>
       <c r="J3" s="18"/>
     </row>
@@ -13083,13 +13112,13 @@
         <v>547</v>
       </c>
       <c r="G4" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="I4" s="39" t="s">
         <v>797</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>798</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>799</v>
       </c>
       <c r="J4" s="18"/>
     </row>
@@ -13113,13 +13142,13 @@
         <v>547</v>
       </c>
       <c r="G5" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="I5" s="39" t="s">
         <v>797</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>798</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>799</v>
       </c>
       <c r="J5" s="18"/>
     </row>
@@ -13131,138 +13160,138 @@
         <v>557</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>558</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="E6" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>560</v>
-      </c>
       <c r="F6" s="16" t="s">
+        <v>798</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>799</v>
+      </c>
+      <c r="H6" s="40" t="s">
         <v>800</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="I6" s="39" t="s">
         <v>801</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>802</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>803</v>
       </c>
       <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="96" customHeight="1">
       <c r="A7" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>562</v>
-      </c>
       <c r="C7" s="15" t="s">
-        <v>563</v>
+        <v>1280</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>444</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F7" s="16" t="s">
+        <v>802</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>803</v>
+      </c>
+      <c r="H7" s="39" t="s">
         <v>804</v>
       </c>
-      <c r="G7" s="39" t="s">
-        <v>805</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>806</v>
-      </c>
       <c r="I7" s="39" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="31.2" customHeight="1">
       <c r="A8" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>565</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>566</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>567</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>444</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>547</v>
       </c>
       <c r="G8" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>797</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>798</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>799</v>
       </c>
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="31.2" customHeight="1">
       <c r="A9" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>569</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>571</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>444</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>547</v>
       </c>
       <c r="G9" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="I9" s="16" t="s">
         <v>797</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>798</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="102">
       <c r="A10" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="D10" s="38" t="s">
         <v>573</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="E10" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="F10" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>577</v>
-      </c>
       <c r="G10" s="16" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="H10" s="39" t="s">
         <v>445</v>
@@ -13272,14 +13301,14 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="41.4">
-      <c r="A11" s="168" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B11" s="168" t="s">
-        <v>1162</v>
+      <c r="A11" s="144" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B11" s="144" t="s">
+        <v>1160</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>444</v>
@@ -13301,14 +13330,14 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="27.6">
-      <c r="A12" s="168" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B12" s="168" t="s">
-        <v>1163</v>
+      <c r="A12" s="144" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B12" s="144" t="s">
+        <v>1161</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>444</v>
@@ -13320,14 +13349,14 @@
       <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:10" ht="27.6">
-      <c r="A13" s="168" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B13" s="168" t="s">
-        <v>1164</v>
+      <c r="A13" s="144" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B13" s="144" t="s">
+        <v>1162</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>444</v>
@@ -13339,14 +13368,14 @@
       <c r="I13" s="39"/>
     </row>
     <row r="14" spans="1:10" ht="41.4">
-      <c r="A14" s="168" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B14" s="168" t="s">
-        <v>1165</v>
+      <c r="A14" s="144" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B14" s="144" t="s">
+        <v>1163</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D14" s="38" t="s">
         <v>444</v>
@@ -13358,14 +13387,14 @@
       <c r="I14" s="39"/>
     </row>
     <row r="15" spans="1:10" ht="41.4">
-      <c r="A15" s="168" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B15" s="168" t="s">
-        <v>1166</v>
+      <c r="A15" s="144" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B15" s="144" t="s">
+        <v>1164</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>444</v>
@@ -13377,14 +13406,14 @@
       <c r="I15" s="39"/>
     </row>
     <row r="16" spans="1:10" ht="41.4">
-      <c r="A16" s="168" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B16" s="168" t="s">
-        <v>1167</v>
+      <c r="A16" s="144" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B16" s="144" t="s">
+        <v>1165</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>444</v>
@@ -13396,14 +13425,14 @@
       <c r="I16" s="39"/>
     </row>
     <row r="17" spans="1:9" ht="27.6">
-      <c r="A17" s="168" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B17" s="168" t="s">
-        <v>1168</v>
+      <c r="A17" s="144" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B17" s="144" t="s">
+        <v>1166</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>444</v>
@@ -13415,14 +13444,14 @@
       <c r="I17" s="39"/>
     </row>
     <row r="18" spans="1:9" ht="27.6">
-      <c r="A18" s="168" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B18" s="168" t="s">
-        <v>1169</v>
+      <c r="A18" s="144" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B18" s="144" t="s">
+        <v>1167</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>444</v>
@@ -13435,13 +13464,13 @@
     </row>
     <row r="19" spans="1:9" ht="27.6">
       <c r="A19" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>578</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>580</v>
       </c>
       <c r="D19" s="38" t="s">
         <v>444</v>
@@ -13464,25 +13493,25 @@
     </row>
     <row r="20" spans="1:9" ht="91.8">
       <c r="A20" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>581</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="D20" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="E20" s="16" t="s">
         <v>583</v>
       </c>
-      <c r="D20" s="38" t="s">
-        <v>584</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>585</v>
-      </c>
       <c r="F20" s="16" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>445</v>
@@ -13493,13 +13522,13 @@
     </row>
     <row r="21" spans="1:9" ht="41.4">
       <c r="A21" s="14" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>1178</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>1180</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="16" t="s">
@@ -13520,86 +13549,86 @@
     </row>
     <row r="22" spans="1:9" ht="153">
       <c r="A22" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="D22" s="38" t="s">
         <v>587</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="E22" s="16" t="s">
         <v>588</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>589</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>590</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>547</v>
       </c>
       <c r="G22" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="I22" s="16" t="s">
         <v>797</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>798</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="142.80000000000001">
       <c r="A23" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>591</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="D23" s="41" t="s">
         <v>592</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="E23" s="21" t="s">
         <v>593</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="F23" s="42" t="s">
         <v>594</v>
       </c>
-      <c r="E23" s="21" t="s">
-        <v>595</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>596</v>
-      </c>
       <c r="G23" s="21" t="s">
+        <v>808</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>809</v>
+      </c>
+      <c r="I23" s="42" t="s">
         <v>810</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>811</v>
-      </c>
-      <c r="I23" s="42" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="224.4">
       <c r="A24" s="19" t="s">
+        <v>595</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>597</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="D24" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="E24" s="21" t="s">
         <v>599</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="F24" s="42" t="s">
         <v>600</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>601</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>602</v>
-      </c>
       <c r="G24" s="21" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="I24" s="42" t="s">
         <v>445</v>
@@ -13607,42 +13636,42 @@
     </row>
     <row r="25" spans="1:9" ht="112.2">
       <c r="A25" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>603</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="D25" s="41" t="s">
         <v>604</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="E25" s="21" t="s">
         <v>605</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="F25" s="42" t="s">
         <v>606</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>607</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>608</v>
-      </c>
       <c r="G25" s="42" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="H25" s="42" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="I25" s="42" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="41.4">
       <c r="A26" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>609</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>610</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>611</v>
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="42" t="s">
@@ -13663,13 +13692,13 @@
     </row>
     <row r="27" spans="1:9" ht="69">
       <c r="A27" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>612</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>613</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>614</v>
       </c>
       <c r="D27" s="41" t="s">
         <v>444</v>
@@ -13692,128 +13721,128 @@
     </row>
     <row r="28" spans="1:9" ht="55.2">
       <c r="A28" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>615</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>616</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>617</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="21" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="H28" s="42" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I28" s="42" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="336.6">
       <c r="A29" s="140" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B29" s="140" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F29" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>818</v>
+      </c>
+      <c r="H29" s="44" t="s">
         <v>819</v>
       </c>
-      <c r="G29" s="44" t="s">
+      <c r="I29" s="24" t="s">
         <v>820</v>
-      </c>
-      <c r="H29" s="44" t="s">
-        <v>821</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="40.799999999999997">
       <c r="A30" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>622</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>623</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>624</v>
       </c>
       <c r="D30" s="43"/>
       <c r="E30" s="24" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F30" s="24" t="s">
+        <v>821</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>822</v>
+      </c>
+      <c r="H30" s="24" t="s">
         <v>823</v>
       </c>
-      <c r="G30" s="44" t="s">
+      <c r="I30" s="24" t="s">
         <v>824</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>825</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="40.799999999999997">
       <c r="A31" s="25" t="s">
+        <v>624</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>626</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="D31" s="43" t="s">
         <v>627</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>628</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>629</v>
-      </c>
       <c r="E31" s="24" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="55.2">
       <c r="A32" s="25" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B32" s="170" t="s">
         <v>1262</v>
       </c>
-      <c r="B32" s="195" t="s">
-        <v>1264</v>
-      </c>
       <c r="C32" s="23" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -13823,13 +13852,13 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="25" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B33" s="195" t="s">
-        <v>1267</v>
+        <v>1005</v>
+      </c>
+      <c r="B33" s="170" t="s">
+        <v>1265</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D33" s="43"/>
       <c r="E33" s="24"/>
@@ -13838,47 +13867,47 @@
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:10" ht="255">
+    <row r="34" spans="1:10" ht="244.8">
       <c r="A34" s="22" t="s">
+        <v>628</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E34" s="24" t="s">
         <v>630</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>631</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>1244</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>632</v>
-      </c>
       <c r="F34" s="24" t="s">
+        <v>826</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>827</v>
+      </c>
+      <c r="H34" s="24" t="s">
         <v>828</v>
       </c>
-      <c r="G34" s="24" t="s">
-        <v>829</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>830</v>
-      </c>
       <c r="I34" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J34" s="89" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="25" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D35" s="43"/>
       <c r="E35" s="44" t="s">
@@ -13899,16 +13928,16 @@
     </row>
     <row r="36" spans="1:10" ht="20.399999999999999">
       <c r="A36" s="25" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E36" s="44" t="s">
         <v>445</v>
@@ -13928,39 +13957,39 @@
     </row>
     <row r="37" spans="1:10" ht="244.8">
       <c r="A37" s="140" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B37" s="26" t="s">
+        <v>635</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>636</v>
+      </c>
+      <c r="D37" s="43" t="s">
         <v>637</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="E37" s="24" t="s">
         <v>638</v>
       </c>
-      <c r="D37" s="43" t="s">
-        <v>639</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>640</v>
-      </c>
       <c r="F37" s="24" t="s">
+        <v>826</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>829</v>
+      </c>
+      <c r="H37" s="24" t="s">
         <v>828</v>
       </c>
-      <c r="G37" s="24" t="s">
-        <v>831</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>830</v>
-      </c>
       <c r="I37" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="25" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="43"/>
@@ -13982,14 +14011,14 @@
     </row>
     <row r="39" spans="1:10" ht="20.399999999999999">
       <c r="A39" s="25" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="43" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E39" s="44" t="s">
         <v>445</v>
@@ -14009,16 +14038,16 @@
     </row>
     <row r="40" spans="1:10" ht="193.2">
       <c r="A40" s="22" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E40" s="44" t="s">
         <v>445</v>
@@ -14038,13 +14067,13 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="25" t="s">
+        <v>645</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>646</v>
+      </c>
+      <c r="C41" s="23" t="s">
         <v>647</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>648</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>649</v>
       </c>
       <c r="D41" s="43"/>
       <c r="E41" s="44" t="s">
@@ -14063,21 +14092,21 @@
         <v>445</v>
       </c>
       <c r="J41" s="89" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="20.399999999999999">
       <c r="A42" s="25" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E42" s="44" t="s">
         <v>445</v>
@@ -14097,16 +14126,16 @@
     </row>
     <row r="43" spans="1:10" ht="41.4">
       <c r="A43" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="C43" s="23" t="s">
         <v>652</v>
       </c>
-      <c r="B43" s="22" t="s">
-        <v>653</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>654</v>
-      </c>
       <c r="D43" s="43" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="E43" s="44" t="s">
         <v>445</v>
@@ -14126,13 +14155,13 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="25" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D44" s="43"/>
       <c r="E44" s="44" t="s">
@@ -14153,16 +14182,16 @@
     </row>
     <row r="45" spans="1:10" ht="20.399999999999999">
       <c r="A45" s="25" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E45" s="44" t="s">
         <v>445</v>
@@ -14182,16 +14211,16 @@
     </row>
     <row r="46" spans="1:10" ht="41.4">
       <c r="A46" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="C46" s="23" t="s">
         <v>659</v>
       </c>
-      <c r="B46" s="22" t="s">
-        <v>660</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>661</v>
-      </c>
       <c r="D46" s="43" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="E46" s="44" t="s">
         <v>445</v>
@@ -14211,13 +14240,13 @@
     </row>
     <row r="47" spans="1:10" ht="27.6">
       <c r="A47" s="25" t="s">
+        <v>660</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="C47" s="23" t="s">
         <v>662</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>663</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>664</v>
       </c>
       <c r="D47" s="43"/>
       <c r="E47" s="44" t="s">
@@ -14238,16 +14267,16 @@
     </row>
     <row r="48" spans="1:10" ht="20.399999999999999">
       <c r="A48" s="25" t="s">
+        <v>663</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="C48" s="23" t="s">
         <v>665</v>
       </c>
-      <c r="B48" s="22" t="s">
-        <v>666</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>667</v>
-      </c>
       <c r="D48" s="43" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E48" s="44" t="s">
         <v>445</v>
@@ -14267,16 +14296,16 @@
     </row>
     <row r="49" spans="1:10" ht="55.2">
       <c r="A49" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>667</v>
+      </c>
+      <c r="C49" s="23" t="s">
         <v>668</v>
       </c>
-      <c r="B49" s="22" t="s">
-        <v>669</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>670</v>
-      </c>
       <c r="D49" s="43" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="E49" s="44" t="s">
         <v>445</v>
@@ -14296,13 +14325,13 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="25" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D50" s="43"/>
       <c r="E50" s="44" t="s">
@@ -14323,16 +14352,16 @@
     </row>
     <row r="51" spans="1:10" ht="20.399999999999999">
       <c r="A51" s="25" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D51" s="43" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E51" s="44" t="s">
         <v>445</v>
@@ -14352,16 +14381,16 @@
     </row>
     <row r="52" spans="1:10" ht="41.4">
       <c r="A52" s="22" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="E52" s="44" t="s">
         <v>445</v>
@@ -14381,13 +14410,13 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="25" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D53" s="43"/>
       <c r="E53" s="44" t="s">
@@ -14406,21 +14435,21 @@
         <v>445</v>
       </c>
       <c r="J53" s="89" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="20.399999999999999">
       <c r="A54" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D54" s="43" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E54" s="44" t="s">
         <v>445</v>
@@ -14440,13 +14469,13 @@
     </row>
     <row r="55" spans="1:10" ht="55.2">
       <c r="A55" s="22" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="44" t="s">
@@ -14465,21 +14494,21 @@
         <v>445</v>
       </c>
       <c r="J55" s="89" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="20.399999999999999">
       <c r="A56" s="25" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D56" s="43" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E56" s="44" t="s">
         <v>445</v>
@@ -14499,42 +14528,42 @@
     </row>
     <row r="57" spans="1:10" ht="61.2">
       <c r="A57" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="C57" s="29" t="s">
         <v>682</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="D57" s="45" t="s">
         <v>683</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="E57" s="30" t="s">
         <v>684</v>
       </c>
-      <c r="D57" s="45" t="s">
+      <c r="F57" s="46" t="s">
         <v>685</v>
       </c>
-      <c r="E57" s="30" t="s">
-        <v>686</v>
-      </c>
-      <c r="F57" s="46" t="s">
-        <v>687</v>
-      </c>
       <c r="G57" s="30" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="H57" s="46" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="I57" s="46" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="41.4">
       <c r="A58" s="28" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B58" s="28" t="s">
         <v>1181</v>
       </c>
-      <c r="B58" s="28" t="s">
-        <v>1183</v>
-      </c>
       <c r="C58" s="29" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D58" s="45"/>
       <c r="E58" s="30" t="s">
@@ -14555,100 +14584,100 @@
     </row>
     <row r="59" spans="1:10" ht="27.6">
       <c r="A59" s="28" t="s">
+        <v>686</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="C59" s="29" t="s">
         <v>688</v>
-      </c>
-      <c r="B59" s="28" t="s">
-        <v>689</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>690</v>
       </c>
       <c r="D59" s="45" t="s">
         <v>444</v>
       </c>
       <c r="E59" s="46" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F59" s="46" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G59" s="30" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H59" s="46" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I59" s="46" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="27.6">
       <c r="A60" s="28" t="s">
+        <v>691</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="C60" s="29" t="s">
         <v>693</v>
-      </c>
-      <c r="B60" s="28" t="s">
-        <v>694</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>695</v>
       </c>
       <c r="D60" s="45" t="s">
         <v>444</v>
       </c>
       <c r="E60" s="46" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F60" s="46" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G60" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="H60" s="46" t="s">
         <v>834</v>
       </c>
-      <c r="H60" s="46" t="s">
-        <v>836</v>
-      </c>
       <c r="I60" s="46" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="112.2">
       <c r="A61" s="28" t="s">
+        <v>696</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>697</v>
+      </c>
+      <c r="C61" s="29" t="s">
         <v>698</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="D61" s="45" t="s">
         <v>699</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="E61" s="46" t="s">
         <v>700</v>
       </c>
-      <c r="D61" s="45" t="s">
+      <c r="F61" s="46" t="s">
         <v>701</v>
       </c>
-      <c r="E61" s="46" t="s">
-        <v>702</v>
-      </c>
-      <c r="F61" s="46" t="s">
-        <v>703</v>
-      </c>
       <c r="G61" s="30" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H61" s="46" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="I61" s="46" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="41.4">
       <c r="A62" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C62" s="29" t="s">
         <v>1184</v>
-      </c>
-      <c r="B62" s="28" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>1186</v>
       </c>
       <c r="D62" s="45" t="s">
         <v>445</v>
@@ -14671,28 +14700,28 @@
     </row>
     <row r="63" spans="1:10" ht="20.399999999999999">
       <c r="A63" s="28" t="s">
+        <v>702</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>703</v>
+      </c>
+      <c r="C63" s="29" t="s">
         <v>704</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>705</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>706</v>
       </c>
       <c r="D63" s="45" t="s">
         <v>444</v>
       </c>
       <c r="E63" s="46" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F63" s="46" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G63" s="46" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="I63" s="46" t="s">
         <v>445</v>
@@ -14700,28 +14729,28 @@
     </row>
     <row r="64" spans="1:10" ht="81.599999999999994">
       <c r="A64" s="28" t="s">
+        <v>707</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>708</v>
+      </c>
+      <c r="C64" s="29" t="s">
         <v>709</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="D64" s="45" t="s">
+        <v>839</v>
+      </c>
+      <c r="E64" s="46" t="s">
         <v>710</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="F64" s="46" t="s">
         <v>711</v>
       </c>
-      <c r="D64" s="45" t="s">
+      <c r="G64" s="46" t="s">
+        <v>840</v>
+      </c>
+      <c r="H64" s="30" t="s">
         <v>841</v>
-      </c>
-      <c r="E64" s="46" t="s">
-        <v>712</v>
-      </c>
-      <c r="F64" s="46" t="s">
-        <v>713</v>
-      </c>
-      <c r="G64" s="46" t="s">
-        <v>842</v>
-      </c>
-      <c r="H64" s="30" t="s">
-        <v>843</v>
       </c>
       <c r="I64" s="46" t="s">
         <v>445</v>
@@ -14729,13 +14758,13 @@
     </row>
     <row r="65" spans="1:9" ht="27.6">
       <c r="A65" s="28" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C65" s="29" t="s">
         <v>1187</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>1189</v>
       </c>
       <c r="D65" s="45"/>
       <c r="E65" s="45" t="s">
@@ -14756,51 +14785,51 @@
     </row>
     <row r="66" spans="1:9" ht="112.2">
       <c r="A66" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="C66" s="32" t="s">
         <v>714</v>
-      </c>
-      <c r="B66" s="31" t="s">
-        <v>715</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>716</v>
       </c>
       <c r="D66" s="47" t="s">
         <v>444</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F66" s="48" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G66" s="33" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="I66" s="33" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="112.2">
       <c r="A67" s="31" t="s">
+        <v>717</v>
+      </c>
+      <c r="B67" s="145" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D67" s="47" t="s">
         <v>719</v>
       </c>
-      <c r="B67" s="169" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D67" s="47" t="s">
-        <v>721</v>
-      </c>
       <c r="E67" s="33" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F67" s="48" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G67" s="48" t="s">
         <v>445</v>
@@ -14814,13 +14843,13 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="31" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B68" s="169" t="s">
-        <v>1192</v>
+        <v>1189</v>
+      </c>
+      <c r="B68" s="145" t="s">
+        <v>1190</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D68" s="47"/>
       <c r="E68" s="33" t="s">
@@ -14841,13 +14870,13 @@
     </row>
     <row r="69" spans="1:9" ht="27.6">
       <c r="A69" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="C69" s="32" t="s">
         <v>723</v>
-      </c>
-      <c r="B69" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="C69" s="32" t="s">
-        <v>725</v>
       </c>
       <c r="D69" s="47"/>
       <c r="E69" s="48" t="s">
@@ -14868,16 +14897,16 @@
     </row>
     <row r="70" spans="1:9" ht="20.399999999999999">
       <c r="A70" s="34" t="s">
+        <v>724</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>725</v>
+      </c>
+      <c r="C70" s="32" t="s">
         <v>726</v>
       </c>
-      <c r="B70" s="31" t="s">
-        <v>727</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>728</v>
-      </c>
       <c r="D70" s="35" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E70" s="48" t="s">
         <v>445</v>
@@ -14913,7 +14942,7 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -14926,541 +14955,541 @@
     <col min="2" max="2" width="24.109375" customWidth="1"/>
     <col min="3" max="3" width="56.88671875" style="10" customWidth="1"/>
     <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" style="171" customWidth="1"/>
-    <col min="6" max="9" width="19.44140625" style="171" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="147" customWidth="1"/>
+    <col min="6" max="9" width="19.44140625" style="147" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="178">
+      <c r="A1" s="177">
         <v>2019</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="179">
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="154">
         <v>2018</v>
       </c>
-      <c r="F1" s="179">
+      <c r="F1" s="154">
         <v>2017</v>
       </c>
-      <c r="G1" s="179">
+      <c r="G1" s="154">
         <v>2016</v>
       </c>
-      <c r="H1" s="179">
+      <c r="H1" s="154">
         <v>2015</v>
       </c>
-      <c r="I1" s="179">
+      <c r="I1" s="154">
         <v>2014</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="177" t="s">
+      <c r="D2" s="153" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="43.2">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="158" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B3" s="158" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C3" s="158" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D3" s="159" t="s">
+        <v>444</v>
+      </c>
+      <c r="E3" s="156" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="82"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.8">
+      <c r="A4" s="158" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B4" s="158" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C4" s="158" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D4" s="159" t="s">
+        <v>444</v>
+      </c>
+      <c r="E4" s="155" t="s">
+        <v>885</v>
+      </c>
+      <c r="F4" s="155" t="s">
+        <v>886</v>
+      </c>
+      <c r="G4" s="155" t="s">
+        <v>887</v>
+      </c>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="82"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.8">
+      <c r="A5" s="158" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B5" s="158" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C5" s="158" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D5" s="159" t="s">
+        <v>444</v>
+      </c>
+      <c r="E5" s="155" t="s">
+        <v>888</v>
+      </c>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="82"/>
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1" ht="43.2">
+      <c r="A6" s="158" t="s">
         <v>1198</v>
       </c>
-      <c r="B3" s="183" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C3" s="183" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D3" s="184" t="s">
+      <c r="B6" s="158" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C6" s="158" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D6" s="159" t="s">
         <v>444</v>
       </c>
-      <c r="E3" s="181" t="s">
-        <v>1260</v>
-      </c>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="82"/>
-    </row>
-    <row r="4" spans="1:10" ht="28.8">
-      <c r="A4" s="183" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B4" s="183" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C4" s="183" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D4" s="184" t="s">
+      <c r="E6" s="155" t="s">
+        <v>889</v>
+      </c>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8">
+      <c r="A7" s="158" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B7" s="158" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C7" s="158" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D7" s="159" t="s">
         <v>444</v>
       </c>
-      <c r="E4" s="180" t="s">
-        <v>887</v>
-      </c>
-      <c r="F4" s="180" t="s">
-        <v>888</v>
-      </c>
-      <c r="G4" s="180" t="s">
-        <v>889</v>
-      </c>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="82"/>
-    </row>
-    <row r="5" spans="1:10" ht="28.8">
-      <c r="A5" s="183" t="s">
+      <c r="E7" s="151"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="82"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8">
+      <c r="A8" s="158" t="s">
         <v>1201</v>
       </c>
-      <c r="B5" s="183" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C5" s="183" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D5" s="184" t="s">
+      <c r="B8" s="158" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C8" s="158" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D8" s="159" t="s">
         <v>444</v>
       </c>
-      <c r="E5" s="180" t="s">
-        <v>890</v>
-      </c>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="82"/>
-    </row>
-    <row r="6" spans="1:10" s="10" customFormat="1" ht="43.2">
-      <c r="A6" s="183" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B6" s="183" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C6" s="183" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D6" s="184" t="s">
+      <c r="E8" s="148"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.8">
+      <c r="A9" s="158" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B9" s="158" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C9" s="158" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D9" s="159" t="s">
         <v>444</v>
       </c>
-      <c r="E6" s="180" t="s">
-        <v>891</v>
-      </c>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-    </row>
-    <row r="7" spans="1:10" ht="28.8">
-      <c r="A7" s="183" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B7" s="183" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C7" s="183" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D7" s="184" t="s">
+      <c r="E9" s="148"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+    </row>
+    <row r="10" spans="1:10" ht="28.8">
+      <c r="A10" s="158" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B10" s="158" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C10" s="158" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D10" s="159" t="s">
         <v>444</v>
       </c>
-      <c r="E7" s="175"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="82"/>
-    </row>
-    <row r="8" spans="1:10" ht="28.8">
-      <c r="A8" s="183" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B8" s="183" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C8" s="183" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D8" s="184" t="s">
+      <c r="E10" s="148"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+    </row>
+    <row r="11" spans="1:10" ht="43.2">
+      <c r="A11" s="158" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B11" s="158" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C11" s="158" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D11" s="159" t="s">
         <v>444</v>
       </c>
-      <c r="E8" s="172"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-    </row>
-    <row r="9" spans="1:10" ht="28.8">
-      <c r="A9" s="183" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B9" s="183" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C9" s="183" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D9" s="184" t="s">
+      <c r="E11" s="148"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.8">
+      <c r="A12" s="158" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B12" s="158" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C12" s="158" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D12" s="159" t="s">
         <v>444</v>
       </c>
-      <c r="E9" s="172"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-    </row>
-    <row r="10" spans="1:10" ht="28.8">
-      <c r="A10" s="183" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B10" s="183" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C10" s="183" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D10" s="184" t="s">
+      <c r="E12" s="148"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.8">
+      <c r="A13" s="158" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B13" s="158" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C13" s="158" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D13" s="159" t="s">
         <v>444</v>
       </c>
-      <c r="E10" s="172"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-    </row>
-    <row r="11" spans="1:10" ht="43.2">
-      <c r="A11" s="183" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B11" s="183" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C11" s="183" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D11" s="184" t="s">
+      <c r="E13" s="148"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="160" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B14" s="160" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C14" s="161" t="s">
+        <v>647</v>
+      </c>
+      <c r="D14" s="160"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+    </row>
+    <row r="15" spans="1:10" ht="40.799999999999997">
+      <c r="A15" s="160" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B15" s="160" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C15" s="161" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D15" s="162" t="s">
+        <v>627</v>
+      </c>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+    </row>
+    <row r="16" spans="1:10" ht="28.8">
+      <c r="A16" s="169" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B16" s="169" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C16" s="158" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D16" s="159" t="s">
         <v>444</v>
       </c>
-      <c r="E11" s="172"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-    </row>
-    <row r="12" spans="1:10" ht="28.8">
-      <c r="A12" s="183" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B12" s="183" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C12" s="183" t="s">
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+    </row>
+    <row r="17" spans="1:9" ht="28.8">
+      <c r="A17" s="161" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B17" s="161" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C17" s="161"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+    </row>
+    <row r="18" spans="1:9" ht="43.2">
+      <c r="A18" s="163" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B18" s="164" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C18" s="164" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D18" s="165" t="s">
+        <v>444</v>
+      </c>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+    </row>
+    <row r="19" spans="1:9" ht="43.2">
+      <c r="A19" s="163" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B19" s="164" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C19" s="164" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D19" s="165" t="s">
+        <v>444</v>
+      </c>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+    </row>
+    <row r="20" spans="1:9" ht="43.2">
+      <c r="A20" s="163" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B20" s="164" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C20" s="164" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D20" s="165" t="s">
+        <v>444</v>
+      </c>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+    </row>
+    <row r="21" spans="1:9" ht="57.6">
+      <c r="A21" s="163" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B21" s="164" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C21" s="164" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D21" s="165" t="s">
+        <v>444</v>
+      </c>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+    </row>
+    <row r="22" spans="1:9" ht="43.2">
+      <c r="A22" s="163" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B22" s="164" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C22" s="164" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D22" s="165" t="s">
+        <v>444</v>
+      </c>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="149"/>
+    </row>
+    <row r="23" spans="1:9" ht="43.2">
+      <c r="A23" s="163" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B23" s="164" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C23" s="164" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D23" s="165" t="s">
+        <v>444</v>
+      </c>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="149"/>
+    </row>
+    <row r="24" spans="1:9" ht="43.2">
+      <c r="A24" s="163" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B24" s="164" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C24" s="164" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D24" s="165" t="s">
+        <v>444</v>
+      </c>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+    </row>
+    <row r="25" spans="1:9" ht="57.6">
+      <c r="A25" s="163" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B25" s="164" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C25" s="164" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D25" s="165" t="s">
+        <v>444</v>
+      </c>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+    </row>
+    <row r="26" spans="1:9" ht="57.6">
+      <c r="A26" s="163" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B26" s="164" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C26" s="164" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D26" s="165" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="166" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B27" s="167" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C27" s="167" t="s">
+        <v>647</v>
+      </c>
+      <c r="D27" s="166"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+    </row>
+    <row r="28" spans="1:9" ht="40.799999999999997">
+      <c r="A28" s="166" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B28" s="167" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C28" s="167" t="s">
         <v>1218</v>
       </c>
-      <c r="D12" s="184" t="s">
-        <v>444</v>
-      </c>
-      <c r="E12" s="172"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-    </row>
-    <row r="13" spans="1:10" ht="28.8">
-      <c r="A13" s="183" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B13" s="183" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C13" s="183" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D13" s="184" t="s">
-        <v>444</v>
-      </c>
-      <c r="E13" s="172"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="185" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B14" s="185" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C14" s="186" t="s">
-        <v>649</v>
-      </c>
-      <c r="D14" s="185"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
-    </row>
-    <row r="15" spans="1:10" ht="40.799999999999997">
-      <c r="A15" s="185" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B15" s="185" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C15" s="186" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D15" s="187" t="s">
-        <v>629</v>
-      </c>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-    </row>
-    <row r="16" spans="1:10" ht="28.8">
-      <c r="A16" s="194" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B16" s="194" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C16" s="183" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D16" s="184" t="s">
-        <v>444</v>
-      </c>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-    </row>
-    <row r="17" spans="1:9" ht="28.8">
-      <c r="A17" s="186" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B17" s="186" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C17" s="186"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-    </row>
-    <row r="18" spans="1:9" ht="43.2">
-      <c r="A18" s="188" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B18" s="189" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C18" s="189" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D18" s="190" t="s">
-        <v>444</v>
-      </c>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="173"/>
-    </row>
-    <row r="19" spans="1:9" ht="43.2">
-      <c r="A19" s="188" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B19" s="189" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C19" s="189" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D19" s="190" t="s">
-        <v>444</v>
-      </c>
-      <c r="E19" s="173"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="173"/>
-    </row>
-    <row r="20" spans="1:9" ht="43.2">
-      <c r="A20" s="188" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B20" s="189" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C20" s="189" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D20" s="190" t="s">
-        <v>444</v>
-      </c>
-      <c r="E20" s="173"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="173"/>
-    </row>
-    <row r="21" spans="1:9" ht="57.6">
-      <c r="A21" s="188" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B21" s="189" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C21" s="189" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D21" s="190" t="s">
-        <v>444</v>
-      </c>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="173"/>
-    </row>
-    <row r="22" spans="1:9" ht="43.2">
-      <c r="A22" s="188" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B22" s="189" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C22" s="189" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D22" s="190" t="s">
-        <v>444</v>
-      </c>
-      <c r="E22" s="173"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="173"/>
-    </row>
-    <row r="23" spans="1:9" ht="43.2">
-      <c r="A23" s="188" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B23" s="189" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C23" s="189" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D23" s="190" t="s">
-        <v>444</v>
-      </c>
-      <c r="E23" s="173"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="173"/>
-    </row>
-    <row r="24" spans="1:9" ht="43.2">
-      <c r="A24" s="188" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B24" s="189" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C24" s="189" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D24" s="190" t="s">
-        <v>444</v>
-      </c>
-      <c r="E24" s="173"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="173"/>
-    </row>
-    <row r="25" spans="1:9" ht="57.6">
-      <c r="A25" s="188" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B25" s="189" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C25" s="189" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D25" s="190" t="s">
-        <v>444</v>
-      </c>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="173"/>
-    </row>
-    <row r="26" spans="1:9" ht="57.6">
-      <c r="A26" s="188" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B26" s="189" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C26" s="189" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D26" s="190" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="191" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B27" s="192" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C27" s="192" t="s">
-        <v>649</v>
-      </c>
-      <c r="D27" s="191"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="173"/>
-    </row>
-    <row r="28" spans="1:9" ht="40.799999999999997">
-      <c r="A28" s="191" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B28" s="192" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C28" s="192" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D28" s="193" t="s">
-        <v>629</v>
-      </c>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
+      <c r="D28" s="168" t="s">
+        <v>627</v>
+      </c>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15492,27 +15521,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="153">
+      <c r="A1" s="181">
         <v>2019</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="2" spans="1:6" ht="72.599999999999994" customHeight="1">
       <c r="A2" s="95" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C2" s="141" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="D2" s="141" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E2" s="111" t="s">
         <v>0</v>
@@ -15523,457 +15552,457 @@
     </row>
     <row r="3" spans="1:6" ht="137.4" customHeight="1">
       <c r="A3" s="137" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D3" s="183" t="s">
         <v>1002</v>
       </c>
-      <c r="B3" s="99" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C3" s="99" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D3" s="155" t="s">
-        <v>1004</v>
-      </c>
       <c r="E3" s="112" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F3" s="125" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.2">
       <c r="A4" s="99" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B4" s="98" t="s">
         <v>445</v>
       </c>
       <c r="C4" s="98" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D4" s="156"/>
+        <v>1085</v>
+      </c>
+      <c r="D4" s="184"/>
       <c r="E4" s="112" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="F4" s="125"/>
     </row>
     <row r="5" spans="1:6" ht="43.2">
       <c r="A5" s="99" t="s">
+        <v>653</v>
+      </c>
+      <c r="B5" s="99" t="s">
         <v>655</v>
       </c>
-      <c r="B5" s="99" t="s">
-        <v>657</v>
-      </c>
       <c r="C5" s="99" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D5" s="156"/>
+        <v>1086</v>
+      </c>
+      <c r="D5" s="184"/>
       <c r="E5" s="112" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="F5" s="126"/>
     </row>
     <row r="6" spans="1:6" ht="57.6">
       <c r="A6" s="98" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B6" s="99" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C6" s="99" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D6" s="156"/>
+        <v>1087</v>
+      </c>
+      <c r="D6" s="184"/>
       <c r="E6" s="112" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="F6" s="126"/>
     </row>
     <row r="7" spans="1:6" ht="28.8">
       <c r="A7" s="100" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B7" s="98" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D7" s="184"/>
+      <c r="E7" s="112" t="s">
         <v>1071</v>
-      </c>
-      <c r="C7" s="98" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D7" s="156"/>
-      <c r="E7" s="112" t="s">
-        <v>1073</v>
       </c>
       <c r="F7" s="126"/>
     </row>
     <row r="8" spans="1:6" ht="43.2">
       <c r="A8" s="100" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B8" s="98" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C8" s="98" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D8" s="185"/>
+      <c r="E8" s="112" t="s">
         <v>1072</v>
-      </c>
-      <c r="C8" s="98" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D8" s="157"/>
-      <c r="E8" s="112" t="s">
-        <v>1074</v>
       </c>
       <c r="F8" s="126"/>
     </row>
     <row r="9" spans="1:6" ht="93">
       <c r="A9" s="97" t="s">
+        <v>639</v>
+      </c>
+      <c r="B9" s="97" t="s">
         <v>641</v>
       </c>
-      <c r="B9" s="97" t="s">
-        <v>643</v>
-      </c>
       <c r="C9" s="97" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D9" s="154" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D9" s="182" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E9" s="113" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F9" s="127" t="s">
         <v>1010</v>
-      </c>
-      <c r="E9" s="113" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F9" s="127" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="57.6">
       <c r="A10" s="97" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C10" s="97" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D10" s="154"/>
+        <v>1091</v>
+      </c>
+      <c r="D10" s="182"/>
       <c r="E10" s="113" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F10" s="127"/>
     </row>
     <row r="11" spans="1:6" ht="28.8">
       <c r="A11" s="101" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B11" s="101" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C11" s="101" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D11" s="158" t="s">
-        <v>1049</v>
+        <v>1092</v>
+      </c>
+      <c r="D11" s="186" t="s">
+        <v>1047</v>
       </c>
       <c r="E11" s="114" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F11" s="128"/>
     </row>
     <row r="12" spans="1:6" ht="28.8">
       <c r="A12" s="101" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B12" s="101" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C12" s="101" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D12" s="158"/>
+        <v>1093</v>
+      </c>
+      <c r="D12" s="186"/>
       <c r="E12" s="114" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F12" s="128"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="101" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B13" s="101" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C13" s="101" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D13" s="158"/>
+        <v>1094</v>
+      </c>
+      <c r="D13" s="186"/>
       <c r="E13" s="114" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F13" s="128"/>
     </row>
     <row r="14" spans="1:6" ht="28.8">
       <c r="A14" s="101" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B14" s="101" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C14" s="101" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D14" s="158"/>
+        <v>1095</v>
+      </c>
+      <c r="D14" s="186"/>
       <c r="E14" s="114" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F14" s="128"/>
     </row>
     <row r="15" spans="1:6" ht="28.8">
       <c r="A15" s="101" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B15" s="101" t="s">
         <v>445</v>
       </c>
       <c r="C15" s="101" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D15" s="158"/>
+        <v>1084</v>
+      </c>
+      <c r="D15" s="186"/>
       <c r="E15" s="114" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F15" s="128"/>
     </row>
     <row r="16" spans="1:6" ht="43.2">
       <c r="A16" s="101" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B16" s="101" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C16" s="101" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D16" s="158"/>
+        <v>1096</v>
+      </c>
+      <c r="D16" s="186"/>
       <c r="E16" s="114" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F16" s="128"/>
     </row>
     <row r="17" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A17" s="108" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B17" s="108" t="s">
         <v>1024</v>
       </c>
-      <c r="B17" s="108" t="s">
-        <v>1026</v>
-      </c>
       <c r="C17" s="108" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D17" s="159" t="s">
-        <v>1048</v>
+        <v>1097</v>
+      </c>
+      <c r="D17" s="187" t="s">
+        <v>1046</v>
       </c>
       <c r="E17" s="115" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="F17" s="129"/>
     </row>
     <row r="18" spans="1:6" s="96" customFormat="1" ht="43.2">
       <c r="A18" s="108" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B18" s="108" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C18" s="108" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D18" s="159"/>
+        <v>1098</v>
+      </c>
+      <c r="D18" s="187"/>
       <c r="E18" s="115" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F18" s="129"/>
     </row>
     <row r="19" spans="1:6" s="96" customFormat="1" ht="43.2">
       <c r="A19" s="138" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B19" s="139" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C19" s="139" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D19" s="103" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E19" s="102" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F19" s="130"/>
     </row>
     <row r="20" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A20" s="109" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B20" s="109" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C20" s="109" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D20" s="160" t="s">
-        <v>1046</v>
+        <v>1100</v>
+      </c>
+      <c r="D20" s="188" t="s">
+        <v>1044</v>
       </c>
       <c r="E20" s="116" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F20" s="131"/>
     </row>
     <row r="21" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A21" s="109" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B21" s="109" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C21" s="109" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D21" s="161"/>
+        <v>1101</v>
+      </c>
+      <c r="D21" s="189"/>
       <c r="E21" s="116" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F21" s="131"/>
     </row>
     <row r="22" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A22" s="109" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B22" s="109" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C22" s="109" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D22" s="161"/>
+        <v>1102</v>
+      </c>
+      <c r="D22" s="189"/>
       <c r="E22" s="116" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F22" s="131"/>
     </row>
     <row r="23" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A23" s="109" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B23" s="109" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C23" s="109" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D23" s="162"/>
+        <v>1103</v>
+      </c>
+      <c r="D23" s="190"/>
       <c r="E23" s="116" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F23" s="131"/>
     </row>
     <row r="24" spans="1:6" s="96" customFormat="1" ht="86.4">
       <c r="A24" s="105" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B24" s="105" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C24" s="105" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D24" s="106" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E24" s="117" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="F24" s="132"/>
     </row>
     <row r="25" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A25" s="110" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B25" s="110" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C25" s="110" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D25" s="150" t="s">
-        <v>1063</v>
+        <v>1105</v>
+      </c>
+      <c r="D25" s="178" t="s">
+        <v>1061</v>
       </c>
       <c r="E25" s="118" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F25" s="133"/>
     </row>
     <row r="26" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A26" s="110" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B26" s="110" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C26" s="110" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D26" s="150"/>
+        <v>1106</v>
+      </c>
+      <c r="D26" s="178"/>
       <c r="E26" s="118" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="F26" s="133"/>
     </row>
     <row r="27" spans="1:6" s="96" customFormat="1" ht="72">
       <c r="A27" s="107" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B27" s="107" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C27" s="107" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D27" s="104" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E27" s="119" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F27" s="134"/>
     </row>
     <row r="28" spans="1:6" s="96" customFormat="1" ht="43.2">
       <c r="A28" s="124" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B28" s="124" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C28" s="124" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D28" s="151" t="s">
-        <v>1070</v>
+        <v>1108</v>
+      </c>
+      <c r="D28" s="179" t="s">
+        <v>1068</v>
       </c>
       <c r="E28" s="124" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F28" s="135"/>
     </row>
     <row r="29" spans="1:6" s="96" customFormat="1" ht="57.6">
       <c r="A29" s="124" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B29" s="124" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C29" s="124" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D29" s="152"/>
+        <v>1104</v>
+      </c>
+      <c r="D29" s="180"/>
       <c r="E29" s="124" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="F29" s="135"/>
     </row>
@@ -16211,15 +16240,15 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4CF47-E673-4F26-A959-0B7774EBA194}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="4aae9226-4411-406b-98ce-94e2e69fab2c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
